--- a/WEB-INF/efw/storage/templates/output_master.xlsx
+++ b/WEB-INF/efw/storage/templates/output_master.xlsx
@@ -45,6 +45,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>SKU</t>
     </r>
     <r>
@@ -59,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>ASIN</t>
     </r>
     <r>
@@ -77,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -120,25 +132,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,7 +148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,52 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +186,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,8 +207,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,22 +247,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +291,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,7 +333,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,85 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,25 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,19 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,30 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -523,6 +511,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,8 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,11 +576,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,140 +617,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,9 +767,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
@@ -1083,7 +1092,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I493"/>
+  <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,8 +1147,8 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -1369,8 +1378,8 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
@@ -1600,8 +1609,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
@@ -1776,8 +1785,8 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
@@ -2007,8 +2016,8 @@
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
@@ -2150,8 +2159,8 @@
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
@@ -2260,8 +2269,8 @@
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
@@ -2436,8 +2445,8 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
@@ -2612,8 +2621,8 @@
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
@@ -2733,8 +2742,8 @@
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
@@ -3008,8 +3017,8 @@
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
@@ -3019,7 +3028,7 @@
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
-      <c r="F173" s="7"/>
+      <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
@@ -3030,7 +3039,7 @@
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
-      <c r="F174" s="7"/>
+      <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
@@ -3041,7 +3050,7 @@
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
-      <c r="F175" s="7"/>
+      <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
@@ -3052,7 +3061,7 @@
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="7"/>
+      <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
@@ -3063,8 +3072,8 @@
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
@@ -3184,8 +3193,8 @@
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
@@ -3196,7 +3205,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
-      <c r="G189" s="7"/>
+      <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
@@ -3207,7 +3216,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="7"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
@@ -3217,8 +3226,8 @@
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
@@ -3229,7 +3238,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
-      <c r="G192" s="7"/>
+      <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
@@ -3240,7 +3249,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="7"/>
+      <c r="G193" s="6"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
@@ -3250,8 +3259,8 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
@@ -3262,7 +3271,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="7"/>
+      <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
@@ -3272,8 +3281,8 @@
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
@@ -3284,7 +3293,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="7"/>
+      <c r="G197" s="6"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
@@ -3295,7 +3304,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
-      <c r="G198" s="7"/>
+      <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
@@ -3306,7 +3315,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
-      <c r="G199" s="7"/>
+      <c r="G199" s="6"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
@@ -3317,7 +3326,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="7"/>
+      <c r="G200" s="6"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
@@ -3327,8 +3336,8 @@
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
@@ -3339,7 +3348,7 @@
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
-      <c r="G202" s="7"/>
+      <c r="G202" s="6"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
@@ -3350,7 +3359,7 @@
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
-      <c r="G203" s="7"/>
+      <c r="G203" s="6"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
@@ -3360,8 +3369,8 @@
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
@@ -3525,8 +3534,8 @@
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
     </row>
@@ -3767,8 +3776,8 @@
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
@@ -4086,8 +4095,8 @@
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
@@ -4097,7 +4106,7 @@
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
-      <c r="F271" s="7"/>
+      <c r="F271" s="6"/>
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
@@ -4108,7 +4117,7 @@
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
-      <c r="F272" s="7"/>
+      <c r="F272" s="6"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
@@ -4119,7 +4128,7 @@
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
-      <c r="F273" s="7"/>
+      <c r="F273" s="6"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
@@ -4130,7 +4139,7 @@
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
-      <c r="F274" s="7"/>
+      <c r="F274" s="6"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
@@ -4141,7 +4150,7 @@
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
-      <c r="F275" s="7"/>
+      <c r="F275" s="6"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
@@ -4152,7 +4161,7 @@
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
-      <c r="F276" s="7"/>
+      <c r="F276" s="6"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -4163,7 +4172,7 @@
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
-      <c r="F277" s="7"/>
+      <c r="F277" s="6"/>
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
@@ -4174,8 +4183,8 @@
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
     </row>
@@ -4185,7 +4194,7 @@
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
-      <c r="F279" s="7"/>
+      <c r="F279" s="6"/>
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
@@ -4196,7 +4205,7 @@
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
-      <c r="F280" s="7"/>
+      <c r="F280" s="6"/>
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
@@ -4207,7 +4216,7 @@
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
-      <c r="F281" s="7"/>
+      <c r="F281" s="6"/>
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
@@ -4218,7 +4227,7 @@
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
-      <c r="F282" s="7"/>
+      <c r="F282" s="6"/>
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
@@ -4229,8 +4238,8 @@
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
     </row>
@@ -4240,7 +4249,7 @@
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
-      <c r="F284" s="7"/>
+      <c r="F284" s="6"/>
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
@@ -4251,7 +4260,7 @@
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
-      <c r="F285" s="7"/>
+      <c r="F285" s="6"/>
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
@@ -4262,7 +4271,7 @@
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
-      <c r="F286" s="7"/>
+      <c r="F286" s="6"/>
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
@@ -4273,8 +4282,8 @@
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
     </row>
@@ -4284,7 +4293,7 @@
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
-      <c r="F288" s="7"/>
+      <c r="F288" s="6"/>
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
@@ -4295,7 +4304,7 @@
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
-      <c r="F289" s="7"/>
+      <c r="F289" s="6"/>
       <c r="G289" s="6"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
@@ -4306,7 +4315,7 @@
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
-      <c r="F290" s="7"/>
+      <c r="F290" s="6"/>
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
@@ -4317,7 +4326,7 @@
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
-      <c r="F291" s="7"/>
+      <c r="F291" s="6"/>
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
@@ -4328,7 +4337,7 @@
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
-      <c r="F292" s="7"/>
+      <c r="F292" s="6"/>
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
@@ -4339,8 +4348,8 @@
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
-      <c r="F293" s="7"/>
-      <c r="G293" s="7"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
     </row>
@@ -4350,7 +4359,7 @@
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
-      <c r="F294" s="7"/>
+      <c r="F294" s="6"/>
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
@@ -4361,7 +4370,7 @@
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
-      <c r="F295" s="7"/>
+      <c r="F295" s="6"/>
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
@@ -4372,7 +4381,7 @@
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
-      <c r="F296" s="7"/>
+      <c r="F296" s="6"/>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
@@ -4383,8 +4392,8 @@
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
-      <c r="F297" s="7"/>
-      <c r="G297" s="7"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
@@ -4394,7 +4403,7 @@
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
-      <c r="F298" s="7"/>
+      <c r="F298" s="6"/>
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
@@ -4405,7 +4414,7 @@
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
-      <c r="F299" s="7"/>
+      <c r="F299" s="6"/>
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
@@ -4416,7 +4425,7 @@
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
-      <c r="F300" s="7"/>
+      <c r="F300" s="6"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
@@ -4427,8 +4436,8 @@
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
-      <c r="F301" s="7"/>
-      <c r="G301" s="7"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
@@ -4504,8 +4513,8 @@
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
-      <c r="F308" s="7"/>
-      <c r="G308" s="7"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
     </row>
@@ -4515,7 +4524,7 @@
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
-      <c r="F309" s="7"/>
+      <c r="F309" s="6"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
@@ -4526,7 +4535,7 @@
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
-      <c r="F310" s="7"/>
+      <c r="F310" s="6"/>
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
@@ -4537,7 +4546,7 @@
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
-      <c r="F311" s="7"/>
+      <c r="F311" s="6"/>
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
@@ -4548,8 +4557,8 @@
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
-      <c r="F312" s="7"/>
-      <c r="G312" s="7"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
     </row>
@@ -4559,7 +4568,7 @@
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
-      <c r="F313" s="7"/>
+      <c r="F313" s="6"/>
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
@@ -4570,7 +4579,7 @@
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
-      <c r="F314" s="7"/>
+      <c r="F314" s="6"/>
       <c r="G314" s="6"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
@@ -4581,7 +4590,7 @@
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
-      <c r="F315" s="7"/>
+      <c r="F315" s="6"/>
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
@@ -4592,8 +4601,8 @@
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
-      <c r="F316" s="7"/>
-      <c r="G316" s="7"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
     </row>
@@ -4603,7 +4612,7 @@
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
-      <c r="F317" s="7"/>
+      <c r="F317" s="6"/>
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
@@ -4614,7 +4623,7 @@
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
-      <c r="F318" s="7"/>
+      <c r="F318" s="6"/>
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
@@ -4625,7 +4634,7 @@
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
-      <c r="F319" s="7"/>
+      <c r="F319" s="6"/>
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
@@ -4636,8 +4645,8 @@
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
-      <c r="F320" s="7"/>
-      <c r="G320" s="7"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
     </row>
@@ -4647,7 +4656,7 @@
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
-      <c r="F321" s="7"/>
+      <c r="F321" s="6"/>
       <c r="G321" s="6"/>
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
@@ -4658,7 +4667,7 @@
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
-      <c r="F322" s="7"/>
+      <c r="F322" s="6"/>
       <c r="G322" s="6"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
@@ -4669,7 +4678,7 @@
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
-      <c r="F323" s="7"/>
+      <c r="F323" s="6"/>
       <c r="G323" s="6"/>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
@@ -4680,8 +4689,8 @@
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
-      <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
     </row>
@@ -4691,7 +4700,7 @@
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
-      <c r="F325" s="7"/>
+      <c r="F325" s="6"/>
       <c r="G325" s="6"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
@@ -4702,7 +4711,7 @@
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
-      <c r="F326" s="7"/>
+      <c r="F326" s="6"/>
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
@@ -4713,7 +4722,7 @@
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
-      <c r="F327" s="7"/>
+      <c r="F327" s="6"/>
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
@@ -4724,7 +4733,7 @@
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
-      <c r="F328" s="7"/>
+      <c r="F328" s="6"/>
       <c r="G328" s="6"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
@@ -4735,8 +4744,8 @@
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="7"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
     </row>
@@ -4746,7 +4755,7 @@
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
-      <c r="F330" s="7"/>
+      <c r="F330" s="6"/>
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
@@ -4757,7 +4766,7 @@
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
-      <c r="F331" s="7"/>
+      <c r="F331" s="6"/>
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
@@ -4768,7 +4777,7 @@
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
-      <c r="F332" s="7"/>
+      <c r="F332" s="6"/>
       <c r="G332" s="6"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
@@ -4779,7 +4788,7 @@
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
-      <c r="F333" s="7"/>
+      <c r="F333" s="6"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
@@ -4790,8 +4799,8 @@
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
-      <c r="F334" s="7"/>
-      <c r="G334" s="7"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
     </row>
@@ -4801,7 +4810,7 @@
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
-      <c r="F335" s="7"/>
+      <c r="F335" s="6"/>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
@@ -4812,7 +4821,7 @@
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
-      <c r="F336" s="7"/>
+      <c r="F336" s="6"/>
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
@@ -4823,7 +4832,7 @@
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
-      <c r="F337" s="7"/>
+      <c r="F337" s="6"/>
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
@@ -4834,8 +4843,8 @@
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
-      <c r="F338" s="7"/>
-      <c r="G338" s="7"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
     </row>
@@ -4845,7 +4854,7 @@
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
-      <c r="F339" s="7"/>
+      <c r="F339" s="6"/>
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
@@ -4856,7 +4865,7 @@
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
-      <c r="F340" s="7"/>
+      <c r="F340" s="6"/>
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
@@ -4867,7 +4876,7 @@
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
-      <c r="F341" s="7"/>
+      <c r="F341" s="6"/>
       <c r="G341" s="6"/>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
@@ -4878,8 +4887,8 @@
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
-      <c r="F342" s="7"/>
-      <c r="G342" s="7"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
     </row>
@@ -4889,7 +4898,7 @@
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
-      <c r="F343" s="7"/>
+      <c r="F343" s="6"/>
       <c r="G343" s="6"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
@@ -4900,7 +4909,7 @@
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
-      <c r="F344" s="7"/>
+      <c r="F344" s="6"/>
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
@@ -4911,7 +4920,7 @@
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
-      <c r="F345" s="7"/>
+      <c r="F345" s="6"/>
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
@@ -4922,8 +4931,8 @@
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
-      <c r="F346" s="7"/>
-      <c r="G346" s="7"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
     </row>
@@ -4933,7 +4942,7 @@
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
-      <c r="F347" s="7"/>
+      <c r="F347" s="6"/>
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
@@ -4944,7 +4953,7 @@
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
-      <c r="F348" s="7"/>
+      <c r="F348" s="6"/>
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
@@ -4955,7 +4964,7 @@
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
-      <c r="F349" s="7"/>
+      <c r="F349" s="6"/>
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
@@ -4966,7 +4975,7 @@
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
-      <c r="F350" s="7"/>
+      <c r="F350" s="6"/>
       <c r="G350" s="6"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
@@ -4977,7 +4986,7 @@
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
-      <c r="F351" s="7"/>
+      <c r="F351" s="6"/>
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
@@ -4988,8 +4997,8 @@
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
-      <c r="F352" s="7"/>
-      <c r="G352" s="7"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
     </row>
@@ -4999,7 +5008,7 @@
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
-      <c r="F353" s="7"/>
+      <c r="F353" s="6"/>
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
@@ -5010,7 +5019,7 @@
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
-      <c r="F354" s="7"/>
+      <c r="F354" s="6"/>
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
@@ -5021,7 +5030,7 @@
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
-      <c r="F355" s="7"/>
+      <c r="F355" s="6"/>
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
@@ -5032,8 +5041,8 @@
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
-      <c r="F356" s="7"/>
-      <c r="G356" s="7"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
     </row>
@@ -5043,7 +5052,7 @@
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
-      <c r="F357" s="7"/>
+      <c r="F357" s="6"/>
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
@@ -5054,7 +5063,7 @@
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
-      <c r="F358" s="7"/>
+      <c r="F358" s="6"/>
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
@@ -5065,7 +5074,7 @@
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
-      <c r="F359" s="7"/>
+      <c r="F359" s="6"/>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
@@ -5076,7 +5085,7 @@
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
-      <c r="F360" s="7"/>
+      <c r="F360" s="6"/>
       <c r="G360" s="6"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
@@ -5087,8 +5096,8 @@
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
-      <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
     </row>
@@ -5098,7 +5107,7 @@
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
-      <c r="F362" s="7"/>
+      <c r="F362" s="6"/>
       <c r="G362" s="6"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
@@ -5109,7 +5118,7 @@
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
-      <c r="F363" s="7"/>
+      <c r="F363" s="6"/>
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
@@ -5120,7 +5129,7 @@
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
-      <c r="F364" s="7"/>
+      <c r="F364" s="6"/>
       <c r="G364" s="6"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
@@ -5131,8 +5140,8 @@
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
-      <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
     </row>
@@ -5274,8 +5283,8 @@
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
-      <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
     </row>
@@ -5373,8 +5382,8 @@
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
-      <c r="F387" s="7"/>
-      <c r="G387" s="7"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
     </row>
@@ -5692,8 +5701,8 @@
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
-      <c r="F416" s="7"/>
-      <c r="G416" s="7"/>
+      <c r="F416" s="6"/>
+      <c r="G416" s="6"/>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
     </row>
@@ -5868,8 +5877,8 @@
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
-      <c r="F432" s="7"/>
-      <c r="G432" s="7"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
     </row>
@@ -5912,8 +5921,8 @@
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
-      <c r="F436" s="7"/>
-      <c r="G436" s="7"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
     </row>
@@ -5923,7 +5932,7 @@
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
-      <c r="F437" s="7"/>
+      <c r="F437" s="6"/>
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
@@ -5934,7 +5943,7 @@
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
-      <c r="F438" s="7"/>
+      <c r="F438" s="6"/>
       <c r="G438" s="6"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
@@ -5945,7 +5954,7 @@
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
-      <c r="F439" s="7"/>
+      <c r="F439" s="6"/>
       <c r="G439" s="6"/>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
@@ -5956,8 +5965,8 @@
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
-      <c r="F440" s="7"/>
-      <c r="G440" s="7"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
     </row>
@@ -5967,7 +5976,7 @@
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
-      <c r="F441" s="7"/>
+      <c r="F441" s="6"/>
       <c r="G441" s="6"/>
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
@@ -5978,7 +5987,7 @@
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
-      <c r="F442" s="7"/>
+      <c r="F442" s="6"/>
       <c r="G442" s="6"/>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
@@ -5989,7 +5998,7 @@
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
-      <c r="F443" s="7"/>
+      <c r="F443" s="6"/>
       <c r="G443" s="6"/>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
@@ -6000,8 +6009,8 @@
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
-      <c r="F444" s="7"/>
-      <c r="G444" s="7"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
     </row>
@@ -6011,7 +6020,7 @@
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
-      <c r="F445" s="7"/>
+      <c r="F445" s="6"/>
       <c r="G445" s="6"/>
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
@@ -6022,7 +6031,7 @@
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
-      <c r="F446" s="7"/>
+      <c r="F446" s="6"/>
       <c r="G446" s="6"/>
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
@@ -6033,7 +6042,7 @@
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
-      <c r="F447" s="7"/>
+      <c r="F447" s="6"/>
       <c r="G447" s="6"/>
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
@@ -6044,8 +6053,8 @@
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
-      <c r="F448" s="7"/>
-      <c r="G448" s="7"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
     </row>
@@ -6055,7 +6064,7 @@
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
-      <c r="F449" s="7"/>
+      <c r="F449" s="6"/>
       <c r="G449" s="6"/>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
@@ -6066,7 +6075,7 @@
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
-      <c r="F450" s="7"/>
+      <c r="F450" s="6"/>
       <c r="G450" s="6"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
@@ -6077,7 +6086,7 @@
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
-      <c r="F451" s="7"/>
+      <c r="F451" s="6"/>
       <c r="G451" s="6"/>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
@@ -6088,8 +6097,8 @@
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
-      <c r="F452" s="7"/>
-      <c r="G452" s="7"/>
+      <c r="F452" s="6"/>
+      <c r="G452" s="6"/>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
     </row>
@@ -6099,7 +6108,7 @@
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
-      <c r="F453" s="7"/>
+      <c r="F453" s="6"/>
       <c r="G453" s="6"/>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
@@ -6110,7 +6119,7 @@
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
-      <c r="F454" s="7"/>
+      <c r="F454" s="6"/>
       <c r="G454" s="6"/>
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
@@ -6121,7 +6130,7 @@
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
-      <c r="F455" s="7"/>
+      <c r="F455" s="6"/>
       <c r="G455" s="6"/>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
@@ -6132,8 +6141,8 @@
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
-      <c r="F456" s="7"/>
-      <c r="G456" s="7"/>
+      <c r="F456" s="6"/>
+      <c r="G456" s="6"/>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
     </row>
@@ -6143,7 +6152,7 @@
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
-      <c r="F457" s="7"/>
+      <c r="F457" s="6"/>
       <c r="G457" s="6"/>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
@@ -6154,7 +6163,7 @@
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
-      <c r="F458" s="7"/>
+      <c r="F458" s="6"/>
       <c r="G458" s="6"/>
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
@@ -6165,7 +6174,7 @@
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
-      <c r="F459" s="7"/>
+      <c r="F459" s="6"/>
       <c r="G459" s="6"/>
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
@@ -6176,8 +6185,8 @@
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
-      <c r="F460" s="7"/>
-      <c r="G460" s="7"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="6"/>
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
     </row>
@@ -6187,7 +6196,7 @@
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
-      <c r="F461" s="7"/>
+      <c r="F461" s="6"/>
       <c r="G461" s="6"/>
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
@@ -6198,7 +6207,7 @@
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
-      <c r="F462" s="7"/>
+      <c r="F462" s="6"/>
       <c r="G462" s="6"/>
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
@@ -6209,7 +6218,7 @@
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
-      <c r="F463" s="7"/>
+      <c r="F463" s="6"/>
       <c r="G463" s="6"/>
       <c r="H463" s="6"/>
       <c r="I463" s="6"/>
@@ -6220,8 +6229,8 @@
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
-      <c r="F464" s="7"/>
-      <c r="G464" s="7"/>
+      <c r="F464" s="6"/>
+      <c r="G464" s="6"/>
       <c r="H464" s="6"/>
       <c r="I464" s="6"/>
     </row>
@@ -6297,8 +6306,8 @@
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
-      <c r="F471" s="7"/>
-      <c r="G471" s="7"/>
+      <c r="F471" s="6"/>
+      <c r="G471" s="6"/>
       <c r="H471" s="6"/>
       <c r="I471" s="6"/>
     </row>
@@ -6374,8 +6383,8 @@
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
-      <c r="F478" s="7"/>
-      <c r="G478" s="7"/>
+      <c r="F478" s="6"/>
+      <c r="G478" s="6"/>
       <c r="H478" s="6"/>
       <c r="I478" s="6"/>
     </row>
@@ -6473,8 +6482,8 @@
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
-      <c r="F487" s="7"/>
-      <c r="G487" s="7"/>
+      <c r="F487" s="6"/>
+      <c r="G487" s="6"/>
       <c r="H487" s="6"/>
       <c r="I487" s="6"/>
     </row>
@@ -6543,6 +6552,1183 @@
       <c r="G493" s="6"/>
       <c r="H493" s="6"/>
       <c r="I493" s="6"/>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" s="6"/>
+      <c r="B494" s="6"/>
+      <c r="C494" s="6"/>
+      <c r="D494" s="6"/>
+      <c r="E494" s="6"/>
+      <c r="F494" s="6"/>
+      <c r="G494" s="6"/>
+      <c r="H494" s="6"/>
+      <c r="I494" s="6"/>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" s="6"/>
+      <c r="B495" s="6"/>
+      <c r="C495" s="6"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+      <c r="F495" s="6"/>
+      <c r="G495" s="6"/>
+      <c r="H495" s="6"/>
+      <c r="I495" s="6"/>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" s="6"/>
+      <c r="B496" s="6"/>
+      <c r="C496" s="6"/>
+      <c r="D496" s="6"/>
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
+      <c r="G496" s="6"/>
+      <c r="H496" s="6"/>
+      <c r="I496" s="6"/>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" s="6"/>
+      <c r="B497" s="6"/>
+      <c r="C497" s="6"/>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+      <c r="F497" s="6"/>
+      <c r="G497" s="6"/>
+      <c r="H497" s="6"/>
+      <c r="I497" s="6"/>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" s="6"/>
+      <c r="B498" s="6"/>
+      <c r="C498" s="6"/>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+      <c r="G498" s="6"/>
+      <c r="H498" s="6"/>
+      <c r="I498" s="6"/>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" s="6"/>
+      <c r="B499" s="6"/>
+      <c r="C499" s="6"/>
+      <c r="D499" s="6"/>
+      <c r="E499" s="6"/>
+      <c r="F499" s="6"/>
+      <c r="G499" s="6"/>
+      <c r="H499" s="6"/>
+      <c r="I499" s="6"/>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" s="6"/>
+      <c r="B500" s="6"/>
+      <c r="C500" s="6"/>
+      <c r="D500" s="6"/>
+      <c r="E500" s="6"/>
+      <c r="F500" s="6"/>
+      <c r="G500" s="6"/>
+      <c r="H500" s="6"/>
+      <c r="I500" s="6"/>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" s="6"/>
+      <c r="B501" s="6"/>
+      <c r="C501" s="6"/>
+      <c r="D501" s="6"/>
+      <c r="E501" s="6"/>
+      <c r="F501" s="6"/>
+      <c r="G501" s="6"/>
+      <c r="H501" s="6"/>
+      <c r="I501" s="6"/>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" s="6"/>
+      <c r="B502" s="6"/>
+      <c r="C502" s="6"/>
+      <c r="D502" s="6"/>
+      <c r="E502" s="6"/>
+      <c r="F502" s="6"/>
+      <c r="G502" s="6"/>
+      <c r="H502" s="6"/>
+      <c r="I502" s="6"/>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" s="6"/>
+      <c r="B503" s="6"/>
+      <c r="C503" s="6"/>
+      <c r="D503" s="6"/>
+      <c r="E503" s="6"/>
+      <c r="F503" s="6"/>
+      <c r="G503" s="6"/>
+      <c r="H503" s="6"/>
+      <c r="I503" s="6"/>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" s="6"/>
+      <c r="B504" s="6"/>
+      <c r="C504" s="6"/>
+      <c r="D504" s="6"/>
+      <c r="E504" s="6"/>
+      <c r="F504" s="6"/>
+      <c r="G504" s="6"/>
+      <c r="H504" s="6"/>
+      <c r="I504" s="6"/>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" s="6"/>
+      <c r="B505" s="6"/>
+      <c r="C505" s="6"/>
+      <c r="D505" s="6"/>
+      <c r="E505" s="6"/>
+      <c r="F505" s="6"/>
+      <c r="G505" s="6"/>
+      <c r="H505" s="6"/>
+      <c r="I505" s="6"/>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" s="6"/>
+      <c r="B506" s="6"/>
+      <c r="C506" s="6"/>
+      <c r="D506" s="6"/>
+      <c r="E506" s="6"/>
+      <c r="F506" s="6"/>
+      <c r="G506" s="6"/>
+      <c r="H506" s="6"/>
+      <c r="I506" s="6"/>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" s="6"/>
+      <c r="B507" s="6"/>
+      <c r="C507" s="6"/>
+      <c r="D507" s="6"/>
+      <c r="E507" s="6"/>
+      <c r="F507" s="6"/>
+      <c r="G507" s="6"/>
+      <c r="H507" s="6"/>
+      <c r="I507" s="6"/>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" s="6"/>
+      <c r="B508" s="6"/>
+      <c r="C508" s="6"/>
+      <c r="D508" s="6"/>
+      <c r="E508" s="6"/>
+      <c r="F508" s="6"/>
+      <c r="G508" s="6"/>
+      <c r="H508" s="6"/>
+      <c r="I508" s="6"/>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" s="6"/>
+      <c r="B509" s="6"/>
+      <c r="C509" s="6"/>
+      <c r="D509" s="6"/>
+      <c r="E509" s="6"/>
+      <c r="F509" s="6"/>
+      <c r="G509" s="6"/>
+      <c r="H509" s="6"/>
+      <c r="I509" s="6"/>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" s="6"/>
+      <c r="B510" s="6"/>
+      <c r="C510" s="6"/>
+      <c r="D510" s="6"/>
+      <c r="E510" s="6"/>
+      <c r="F510" s="6"/>
+      <c r="G510" s="6"/>
+      <c r="H510" s="6"/>
+      <c r="I510" s="6"/>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" s="6"/>
+      <c r="B511" s="6"/>
+      <c r="C511" s="6"/>
+      <c r="D511" s="6"/>
+      <c r="E511" s="6"/>
+      <c r="F511" s="6"/>
+      <c r="G511" s="6"/>
+      <c r="H511" s="6"/>
+      <c r="I511" s="6"/>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" s="6"/>
+      <c r="B512" s="6"/>
+      <c r="C512" s="6"/>
+      <c r="D512" s="6"/>
+      <c r="E512" s="6"/>
+      <c r="F512" s="6"/>
+      <c r="G512" s="6"/>
+      <c r="H512" s="6"/>
+      <c r="I512" s="6"/>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" s="6"/>
+      <c r="B513" s="6"/>
+      <c r="C513" s="6"/>
+      <c r="D513" s="6"/>
+      <c r="E513" s="6"/>
+      <c r="F513" s="6"/>
+      <c r="G513" s="6"/>
+      <c r="H513" s="6"/>
+      <c r="I513" s="6"/>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" s="6"/>
+      <c r="B514" s="6"/>
+      <c r="C514" s="6"/>
+      <c r="D514" s="6"/>
+      <c r="E514" s="6"/>
+      <c r="F514" s="6"/>
+      <c r="G514" s="6"/>
+      <c r="H514" s="6"/>
+      <c r="I514" s="6"/>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" s="6"/>
+      <c r="B515" s="6"/>
+      <c r="C515" s="6"/>
+      <c r="D515" s="6"/>
+      <c r="E515" s="6"/>
+      <c r="F515" s="6"/>
+      <c r="G515" s="6"/>
+      <c r="H515" s="6"/>
+      <c r="I515" s="6"/>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" s="6"/>
+      <c r="B516" s="6"/>
+      <c r="C516" s="6"/>
+      <c r="D516" s="6"/>
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
+      <c r="G516" s="6"/>
+      <c r="H516" s="6"/>
+      <c r="I516" s="6"/>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" s="6"/>
+      <c r="B517" s="6"/>
+      <c r="C517" s="6"/>
+      <c r="D517" s="6"/>
+      <c r="E517" s="6"/>
+      <c r="F517" s="6"/>
+      <c r="G517" s="6"/>
+      <c r="H517" s="6"/>
+      <c r="I517" s="6"/>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" s="6"/>
+      <c r="B518" s="6"/>
+      <c r="C518" s="6"/>
+      <c r="D518" s="6"/>
+      <c r="E518" s="6"/>
+      <c r="F518" s="6"/>
+      <c r="G518" s="6"/>
+      <c r="H518" s="6"/>
+      <c r="I518" s="6"/>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" s="6"/>
+      <c r="B519" s="6"/>
+      <c r="C519" s="6"/>
+      <c r="D519" s="6"/>
+      <c r="E519" s="6"/>
+      <c r="F519" s="6"/>
+      <c r="G519" s="6"/>
+      <c r="H519" s="6"/>
+      <c r="I519" s="6"/>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" s="6"/>
+      <c r="B520" s="6"/>
+      <c r="C520" s="6"/>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
+      <c r="G520" s="6"/>
+      <c r="H520" s="6"/>
+      <c r="I520" s="6"/>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" s="6"/>
+      <c r="B521" s="6"/>
+      <c r="C521" s="6"/>
+      <c r="D521" s="6"/>
+      <c r="E521" s="6"/>
+      <c r="F521" s="6"/>
+      <c r="G521" s="6"/>
+      <c r="H521" s="6"/>
+      <c r="I521" s="6"/>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" s="6"/>
+      <c r="B522" s="6"/>
+      <c r="C522" s="6"/>
+      <c r="D522" s="6"/>
+      <c r="E522" s="6"/>
+      <c r="F522" s="6"/>
+      <c r="G522" s="6"/>
+      <c r="H522" s="6"/>
+      <c r="I522" s="6"/>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" s="6"/>
+      <c r="B523" s="6"/>
+      <c r="C523" s="6"/>
+      <c r="D523" s="6"/>
+      <c r="E523" s="6"/>
+      <c r="F523" s="6"/>
+      <c r="G523" s="6"/>
+      <c r="H523" s="6"/>
+      <c r="I523" s="6"/>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" s="6"/>
+      <c r="B524" s="6"/>
+      <c r="C524" s="6"/>
+      <c r="D524" s="6"/>
+      <c r="E524" s="6"/>
+      <c r="F524" s="6"/>
+      <c r="G524" s="6"/>
+      <c r="H524" s="6"/>
+      <c r="I524" s="6"/>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" s="6"/>
+      <c r="B525" s="6"/>
+      <c r="C525" s="6"/>
+      <c r="D525" s="6"/>
+      <c r="E525" s="6"/>
+      <c r="F525" s="6"/>
+      <c r="G525" s="6"/>
+      <c r="H525" s="6"/>
+      <c r="I525" s="6"/>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" s="6"/>
+      <c r="B526" s="6"/>
+      <c r="C526" s="6"/>
+      <c r="D526" s="6"/>
+      <c r="E526" s="6"/>
+      <c r="F526" s="6"/>
+      <c r="G526" s="6"/>
+      <c r="H526" s="6"/>
+      <c r="I526" s="6"/>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" s="6"/>
+      <c r="B527" s="6"/>
+      <c r="C527" s="6"/>
+      <c r="D527" s="6"/>
+      <c r="E527" s="6"/>
+      <c r="F527" s="6"/>
+      <c r="G527" s="6"/>
+      <c r="H527" s="6"/>
+      <c r="I527" s="6"/>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" s="6"/>
+      <c r="B528" s="6"/>
+      <c r="C528" s="6"/>
+      <c r="D528" s="6"/>
+      <c r="E528" s="6"/>
+      <c r="F528" s="6"/>
+      <c r="G528" s="6"/>
+      <c r="H528" s="6"/>
+      <c r="I528" s="6"/>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" s="6"/>
+      <c r="B529" s="6"/>
+      <c r="C529" s="6"/>
+      <c r="D529" s="6"/>
+      <c r="E529" s="6"/>
+      <c r="F529" s="6"/>
+      <c r="G529" s="6"/>
+      <c r="H529" s="6"/>
+      <c r="I529" s="6"/>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" s="6"/>
+      <c r="B530" s="6"/>
+      <c r="C530" s="6"/>
+      <c r="D530" s="6"/>
+      <c r="E530" s="6"/>
+      <c r="F530" s="6"/>
+      <c r="G530" s="6"/>
+      <c r="H530" s="6"/>
+      <c r="I530" s="6"/>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" s="6"/>
+      <c r="B531" s="6"/>
+      <c r="C531" s="6"/>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6"/>
+      <c r="F531" s="6"/>
+      <c r="G531" s="6"/>
+      <c r="H531" s="6"/>
+      <c r="I531" s="6"/>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" s="6"/>
+      <c r="B532" s="6"/>
+      <c r="C532" s="6"/>
+      <c r="D532" s="6"/>
+      <c r="E532" s="6"/>
+      <c r="F532" s="6"/>
+      <c r="G532" s="6"/>
+      <c r="H532" s="6"/>
+      <c r="I532" s="6"/>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" s="6"/>
+      <c r="B533" s="6"/>
+      <c r="C533" s="6"/>
+      <c r="D533" s="6"/>
+      <c r="E533" s="6"/>
+      <c r="F533" s="6"/>
+      <c r="G533" s="6"/>
+      <c r="H533" s="6"/>
+      <c r="I533" s="6"/>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" s="6"/>
+      <c r="B534" s="6"/>
+      <c r="C534" s="6"/>
+      <c r="D534" s="6"/>
+      <c r="E534" s="6"/>
+      <c r="F534" s="6"/>
+      <c r="G534" s="6"/>
+      <c r="H534" s="6"/>
+      <c r="I534" s="6"/>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" s="6"/>
+      <c r="B535" s="6"/>
+      <c r="C535" s="6"/>
+      <c r="D535" s="6"/>
+      <c r="E535" s="6"/>
+      <c r="F535" s="6"/>
+      <c r="G535" s="6"/>
+      <c r="H535" s="6"/>
+      <c r="I535" s="6"/>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" s="6"/>
+      <c r="B536" s="6"/>
+      <c r="C536" s="6"/>
+      <c r="D536" s="6"/>
+      <c r="E536" s="6"/>
+      <c r="F536" s="6"/>
+      <c r="G536" s="6"/>
+      <c r="H536" s="6"/>
+      <c r="I536" s="6"/>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" s="6"/>
+      <c r="B537" s="6"/>
+      <c r="C537" s="6"/>
+      <c r="D537" s="6"/>
+      <c r="E537" s="6"/>
+      <c r="F537" s="6"/>
+      <c r="G537" s="6"/>
+      <c r="H537" s="6"/>
+      <c r="I537" s="6"/>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" s="6"/>
+      <c r="B538" s="6"/>
+      <c r="C538" s="6"/>
+      <c r="D538" s="6"/>
+      <c r="E538" s="6"/>
+      <c r="F538" s="6"/>
+      <c r="G538" s="6"/>
+      <c r="H538" s="6"/>
+      <c r="I538" s="6"/>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" s="6"/>
+      <c r="B539" s="6"/>
+      <c r="C539" s="6"/>
+      <c r="D539" s="6"/>
+      <c r="E539" s="6"/>
+      <c r="F539" s="6"/>
+      <c r="G539" s="6"/>
+      <c r="H539" s="6"/>
+      <c r="I539" s="6"/>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" s="6"/>
+      <c r="B540" s="6"/>
+      <c r="C540" s="6"/>
+      <c r="D540" s="6"/>
+      <c r="E540" s="6"/>
+      <c r="F540" s="6"/>
+      <c r="G540" s="6"/>
+      <c r="H540" s="6"/>
+      <c r="I540" s="6"/>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" s="6"/>
+      <c r="B541" s="6"/>
+      <c r="C541" s="6"/>
+      <c r="D541" s="6"/>
+      <c r="E541" s="6"/>
+      <c r="F541" s="6"/>
+      <c r="G541" s="6"/>
+      <c r="H541" s="6"/>
+      <c r="I541" s="6"/>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" s="6"/>
+      <c r="B542" s="6"/>
+      <c r="C542" s="6"/>
+      <c r="D542" s="6"/>
+      <c r="E542" s="6"/>
+      <c r="F542" s="6"/>
+      <c r="G542" s="6"/>
+      <c r="H542" s="6"/>
+      <c r="I542" s="6"/>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" s="6"/>
+      <c r="B543" s="6"/>
+      <c r="C543" s="6"/>
+      <c r="D543" s="6"/>
+      <c r="E543" s="6"/>
+      <c r="F543" s="6"/>
+      <c r="G543" s="6"/>
+      <c r="H543" s="6"/>
+      <c r="I543" s="6"/>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" s="6"/>
+      <c r="B544" s="6"/>
+      <c r="C544" s="6"/>
+      <c r="D544" s="6"/>
+      <c r="E544" s="6"/>
+      <c r="F544" s="6"/>
+      <c r="G544" s="6"/>
+      <c r="H544" s="6"/>
+      <c r="I544" s="6"/>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" s="6"/>
+      <c r="B545" s="6"/>
+      <c r="C545" s="6"/>
+      <c r="D545" s="6"/>
+      <c r="E545" s="6"/>
+      <c r="F545" s="6"/>
+      <c r="G545" s="6"/>
+      <c r="H545" s="6"/>
+      <c r="I545" s="6"/>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" s="6"/>
+      <c r="B546" s="6"/>
+      <c r="C546" s="6"/>
+      <c r="D546" s="6"/>
+      <c r="E546" s="6"/>
+      <c r="F546" s="6"/>
+      <c r="G546" s="6"/>
+      <c r="H546" s="6"/>
+      <c r="I546" s="6"/>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" s="6"/>
+      <c r="B547" s="6"/>
+      <c r="C547" s="6"/>
+      <c r="D547" s="6"/>
+      <c r="E547" s="6"/>
+      <c r="F547" s="6"/>
+      <c r="G547" s="6"/>
+      <c r="H547" s="6"/>
+      <c r="I547" s="6"/>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" s="6"/>
+      <c r="B548" s="6"/>
+      <c r="C548" s="6"/>
+      <c r="D548" s="6"/>
+      <c r="E548" s="6"/>
+      <c r="F548" s="6"/>
+      <c r="G548" s="6"/>
+      <c r="H548" s="6"/>
+      <c r="I548" s="6"/>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" s="6"/>
+      <c r="B549" s="6"/>
+      <c r="C549" s="6"/>
+      <c r="D549" s="6"/>
+      <c r="E549" s="6"/>
+      <c r="F549" s="6"/>
+      <c r="G549" s="6"/>
+      <c r="H549" s="6"/>
+      <c r="I549" s="6"/>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" s="6"/>
+      <c r="B550" s="6"/>
+      <c r="C550" s="6"/>
+      <c r="D550" s="6"/>
+      <c r="E550" s="6"/>
+      <c r="F550" s="6"/>
+      <c r="G550" s="6"/>
+      <c r="H550" s="6"/>
+      <c r="I550" s="6"/>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" s="6"/>
+      <c r="B551" s="6"/>
+      <c r="C551" s="6"/>
+      <c r="D551" s="6"/>
+      <c r="E551" s="6"/>
+      <c r="F551" s="6"/>
+      <c r="G551" s="6"/>
+      <c r="H551" s="6"/>
+      <c r="I551" s="6"/>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" s="6"/>
+      <c r="B552" s="6"/>
+      <c r="C552" s="6"/>
+      <c r="D552" s="6"/>
+      <c r="E552" s="6"/>
+      <c r="F552" s="6"/>
+      <c r="G552" s="6"/>
+      <c r="H552" s="6"/>
+      <c r="I552" s="6"/>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" s="6"/>
+      <c r="B553" s="6"/>
+      <c r="C553" s="6"/>
+      <c r="D553" s="6"/>
+      <c r="E553" s="6"/>
+      <c r="F553" s="6"/>
+      <c r="G553" s="6"/>
+      <c r="H553" s="6"/>
+      <c r="I553" s="6"/>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" s="6"/>
+      <c r="B554" s="6"/>
+      <c r="C554" s="6"/>
+      <c r="D554" s="6"/>
+      <c r="E554" s="6"/>
+      <c r="F554" s="6"/>
+      <c r="G554" s="6"/>
+      <c r="H554" s="6"/>
+      <c r="I554" s="6"/>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" s="6"/>
+      <c r="B555" s="6"/>
+      <c r="C555" s="6"/>
+      <c r="D555" s="6"/>
+      <c r="E555" s="6"/>
+      <c r="F555" s="6"/>
+      <c r="G555" s="6"/>
+      <c r="H555" s="6"/>
+      <c r="I555" s="6"/>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" s="6"/>
+      <c r="B556" s="6"/>
+      <c r="C556" s="6"/>
+      <c r="D556" s="6"/>
+      <c r="E556" s="6"/>
+      <c r="F556" s="6"/>
+      <c r="G556" s="6"/>
+      <c r="H556" s="6"/>
+      <c r="I556" s="6"/>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" s="6"/>
+      <c r="B557" s="6"/>
+      <c r="C557" s="6"/>
+      <c r="D557" s="6"/>
+      <c r="E557" s="6"/>
+      <c r="F557" s="6"/>
+      <c r="G557" s="6"/>
+      <c r="H557" s="6"/>
+      <c r="I557" s="6"/>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" s="6"/>
+      <c r="B558" s="6"/>
+      <c r="C558" s="6"/>
+      <c r="D558" s="6"/>
+      <c r="E558" s="6"/>
+      <c r="F558" s="6"/>
+      <c r="G558" s="6"/>
+      <c r="H558" s="6"/>
+      <c r="I558" s="6"/>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" s="6"/>
+      <c r="B559" s="6"/>
+      <c r="C559" s="6"/>
+      <c r="D559" s="6"/>
+      <c r="E559" s="6"/>
+      <c r="F559" s="6"/>
+      <c r="G559" s="6"/>
+      <c r="H559" s="6"/>
+      <c r="I559" s="6"/>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" s="6"/>
+      <c r="B560" s="6"/>
+      <c r="C560" s="6"/>
+      <c r="D560" s="6"/>
+      <c r="E560" s="6"/>
+      <c r="F560" s="6"/>
+      <c r="G560" s="6"/>
+      <c r="H560" s="6"/>
+      <c r="I560" s="6"/>
+    </row>
+    <row r="561" spans="1:9">
+      <c r="A561" s="6"/>
+      <c r="B561" s="6"/>
+      <c r="C561" s="6"/>
+      <c r="D561" s="6"/>
+      <c r="E561" s="6"/>
+      <c r="F561" s="6"/>
+      <c r="G561" s="6"/>
+      <c r="H561" s="6"/>
+      <c r="I561" s="6"/>
+    </row>
+    <row r="562" spans="1:9">
+      <c r="A562" s="6"/>
+      <c r="B562" s="6"/>
+      <c r="C562" s="6"/>
+      <c r="D562" s="6"/>
+      <c r="E562" s="6"/>
+      <c r="F562" s="6"/>
+      <c r="G562" s="6"/>
+      <c r="H562" s="6"/>
+      <c r="I562" s="6"/>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" s="6"/>
+      <c r="B563" s="6"/>
+      <c r="C563" s="6"/>
+      <c r="D563" s="6"/>
+      <c r="E563" s="6"/>
+      <c r="F563" s="6"/>
+      <c r="G563" s="6"/>
+      <c r="H563" s="6"/>
+      <c r="I563" s="6"/>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" s="6"/>
+      <c r="B564" s="6"/>
+      <c r="C564" s="6"/>
+      <c r="D564" s="6"/>
+      <c r="E564" s="6"/>
+      <c r="F564" s="6"/>
+      <c r="G564" s="6"/>
+      <c r="H564" s="6"/>
+      <c r="I564" s="6"/>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565" s="6"/>
+      <c r="B565" s="6"/>
+      <c r="C565" s="6"/>
+      <c r="D565" s="6"/>
+      <c r="E565" s="6"/>
+      <c r="F565" s="6"/>
+      <c r="G565" s="6"/>
+      <c r="H565" s="6"/>
+      <c r="I565" s="6"/>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" s="6"/>
+      <c r="B566" s="6"/>
+      <c r="C566" s="6"/>
+      <c r="D566" s="6"/>
+      <c r="E566" s="6"/>
+      <c r="F566" s="6"/>
+      <c r="G566" s="6"/>
+      <c r="H566" s="6"/>
+      <c r="I566" s="6"/>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" s="6"/>
+      <c r="B567" s="6"/>
+      <c r="C567" s="6"/>
+      <c r="D567" s="6"/>
+      <c r="E567" s="6"/>
+      <c r="F567" s="6"/>
+      <c r="G567" s="6"/>
+      <c r="H567" s="6"/>
+      <c r="I567" s="6"/>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" s="6"/>
+      <c r="B568" s="6"/>
+      <c r="C568" s="6"/>
+      <c r="D568" s="6"/>
+      <c r="E568" s="6"/>
+      <c r="F568" s="6"/>
+      <c r="G568" s="6"/>
+      <c r="H568" s="6"/>
+      <c r="I568" s="6"/>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" s="6"/>
+      <c r="B569" s="6"/>
+      <c r="C569" s="6"/>
+      <c r="D569" s="6"/>
+      <c r="E569" s="6"/>
+      <c r="F569" s="6"/>
+      <c r="G569" s="6"/>
+      <c r="H569" s="6"/>
+      <c r="I569" s="6"/>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" s="6"/>
+      <c r="B570" s="6"/>
+      <c r="C570" s="6"/>
+      <c r="D570" s="6"/>
+      <c r="E570" s="6"/>
+      <c r="F570" s="6"/>
+      <c r="G570" s="6"/>
+      <c r="H570" s="6"/>
+      <c r="I570" s="6"/>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" s="6"/>
+      <c r="B571" s="6"/>
+      <c r="C571" s="6"/>
+      <c r="D571" s="6"/>
+      <c r="E571" s="6"/>
+      <c r="F571" s="6"/>
+      <c r="G571" s="6"/>
+      <c r="H571" s="6"/>
+      <c r="I571" s="6"/>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" s="6"/>
+      <c r="B572" s="6"/>
+      <c r="C572" s="6"/>
+      <c r="D572" s="6"/>
+      <c r="E572" s="6"/>
+      <c r="F572" s="6"/>
+      <c r="G572" s="6"/>
+      <c r="H572" s="6"/>
+      <c r="I572" s="6"/>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" s="6"/>
+      <c r="B573" s="6"/>
+      <c r="C573" s="6"/>
+      <c r="D573" s="6"/>
+      <c r="E573" s="6"/>
+      <c r="F573" s="6"/>
+      <c r="G573" s="6"/>
+      <c r="H573" s="6"/>
+      <c r="I573" s="6"/>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" s="6"/>
+      <c r="B574" s="6"/>
+      <c r="C574" s="6"/>
+      <c r="D574" s="6"/>
+      <c r="E574" s="6"/>
+      <c r="F574" s="6"/>
+      <c r="G574" s="6"/>
+      <c r="H574" s="6"/>
+      <c r="I574" s="6"/>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" s="6"/>
+      <c r="B575" s="6"/>
+      <c r="C575" s="6"/>
+      <c r="D575" s="6"/>
+      <c r="E575" s="6"/>
+      <c r="F575" s="6"/>
+      <c r="G575" s="6"/>
+      <c r="H575" s="6"/>
+      <c r="I575" s="6"/>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" s="6"/>
+      <c r="B576" s="6"/>
+      <c r="C576" s="6"/>
+      <c r="D576" s="6"/>
+      <c r="E576" s="6"/>
+      <c r="F576" s="6"/>
+      <c r="G576" s="6"/>
+      <c r="H576" s="6"/>
+      <c r="I576" s="6"/>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" s="6"/>
+      <c r="B577" s="6"/>
+      <c r="C577" s="6"/>
+      <c r="D577" s="6"/>
+      <c r="E577" s="6"/>
+      <c r="F577" s="6"/>
+      <c r="G577" s="6"/>
+      <c r="H577" s="6"/>
+      <c r="I577" s="6"/>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" s="6"/>
+      <c r="B578" s="6"/>
+      <c r="C578" s="6"/>
+      <c r="D578" s="6"/>
+      <c r="E578" s="6"/>
+      <c r="F578" s="6"/>
+      <c r="G578" s="6"/>
+      <c r="H578" s="6"/>
+      <c r="I578" s="6"/>
+    </row>
+    <row r="579" spans="1:9">
+      <c r="A579" s="6"/>
+      <c r="B579" s="6"/>
+      <c r="C579" s="6"/>
+      <c r="D579" s="6"/>
+      <c r="E579" s="6"/>
+      <c r="F579" s="6"/>
+      <c r="G579" s="6"/>
+      <c r="H579" s="6"/>
+      <c r="I579" s="6"/>
+    </row>
+    <row r="580" spans="1:9">
+      <c r="A580" s="6"/>
+      <c r="B580" s="6"/>
+      <c r="C580" s="6"/>
+      <c r="D580" s="6"/>
+      <c r="E580" s="6"/>
+      <c r="F580" s="6"/>
+      <c r="G580" s="6"/>
+      <c r="H580" s="6"/>
+      <c r="I580" s="6"/>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" s="6"/>
+      <c r="B581" s="6"/>
+      <c r="C581" s="6"/>
+      <c r="D581" s="6"/>
+      <c r="E581" s="6"/>
+      <c r="F581" s="6"/>
+      <c r="G581" s="6"/>
+      <c r="H581" s="6"/>
+      <c r="I581" s="6"/>
+    </row>
+    <row r="582" spans="1:9">
+      <c r="A582" s="6"/>
+      <c r="B582" s="6"/>
+      <c r="C582" s="6"/>
+      <c r="D582" s="6"/>
+      <c r="E582" s="6"/>
+      <c r="F582" s="6"/>
+      <c r="G582" s="6"/>
+      <c r="H582" s="6"/>
+      <c r="I582" s="6"/>
+    </row>
+    <row r="583" spans="1:9">
+      <c r="A583" s="6"/>
+      <c r="B583" s="6"/>
+      <c r="C583" s="6"/>
+      <c r="D583" s="6"/>
+      <c r="E583" s="6"/>
+      <c r="F583" s="6"/>
+      <c r="G583" s="6"/>
+      <c r="H583" s="6"/>
+      <c r="I583" s="6"/>
+    </row>
+    <row r="584" spans="1:9">
+      <c r="A584" s="6"/>
+      <c r="B584" s="6"/>
+      <c r="C584" s="6"/>
+      <c r="D584" s="6"/>
+      <c r="E584" s="6"/>
+      <c r="F584" s="6"/>
+      <c r="G584" s="6"/>
+      <c r="H584" s="6"/>
+      <c r="I584" s="6"/>
+    </row>
+    <row r="585" spans="1:9">
+      <c r="A585" s="6"/>
+      <c r="B585" s="6"/>
+      <c r="C585" s="6"/>
+      <c r="D585" s="6"/>
+      <c r="E585" s="6"/>
+      <c r="F585" s="6"/>
+      <c r="G585" s="6"/>
+      <c r="H585" s="6"/>
+      <c r="I585" s="6"/>
+    </row>
+    <row r="586" spans="1:9">
+      <c r="A586" s="6"/>
+      <c r="B586" s="6"/>
+      <c r="C586" s="6"/>
+      <c r="D586" s="6"/>
+      <c r="E586" s="6"/>
+      <c r="F586" s="6"/>
+      <c r="G586" s="6"/>
+      <c r="H586" s="6"/>
+      <c r="I586" s="6"/>
+    </row>
+    <row r="587" spans="1:9">
+      <c r="A587" s="6"/>
+      <c r="B587" s="6"/>
+      <c r="C587" s="6"/>
+      <c r="D587" s="6"/>
+      <c r="E587" s="6"/>
+      <c r="F587" s="6"/>
+      <c r="G587" s="6"/>
+      <c r="H587" s="6"/>
+      <c r="I587" s="6"/>
+    </row>
+    <row r="588" spans="1:9">
+      <c r="A588" s="6"/>
+      <c r="B588" s="6"/>
+      <c r="C588" s="6"/>
+      <c r="D588" s="6"/>
+      <c r="E588" s="6"/>
+      <c r="F588" s="6"/>
+      <c r="G588" s="6"/>
+      <c r="H588" s="6"/>
+      <c r="I588" s="6"/>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" s="6"/>
+      <c r="B589" s="6"/>
+      <c r="C589" s="6"/>
+      <c r="D589" s="6"/>
+      <c r="E589" s="6"/>
+      <c r="F589" s="6"/>
+      <c r="G589" s="6"/>
+      <c r="H589" s="6"/>
+      <c r="I589" s="6"/>
+    </row>
+    <row r="590" spans="1:9">
+      <c r="A590" s="6"/>
+      <c r="B590" s="6"/>
+      <c r="C590" s="6"/>
+      <c r="D590" s="6"/>
+      <c r="E590" s="6"/>
+      <c r="F590" s="6"/>
+      <c r="G590" s="6"/>
+      <c r="H590" s="6"/>
+      <c r="I590" s="6"/>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" s="6"/>
+      <c r="B591" s="6"/>
+      <c r="C591" s="6"/>
+      <c r="D591" s="6"/>
+      <c r="E591" s="6"/>
+      <c r="F591" s="6"/>
+      <c r="G591" s="6"/>
+      <c r="H591" s="6"/>
+      <c r="I591" s="6"/>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592" s="6"/>
+      <c r="B592" s="6"/>
+      <c r="C592" s="6"/>
+      <c r="D592" s="6"/>
+      <c r="E592" s="6"/>
+      <c r="F592" s="6"/>
+      <c r="G592" s="6"/>
+      <c r="H592" s="6"/>
+      <c r="I592" s="6"/>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" s="6"/>
+      <c r="B593" s="6"/>
+      <c r="C593" s="6"/>
+      <c r="D593" s="6"/>
+      <c r="E593" s="6"/>
+      <c r="F593" s="6"/>
+      <c r="G593" s="6"/>
+      <c r="H593" s="6"/>
+      <c r="I593" s="6"/>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" s="6"/>
+      <c r="B594" s="6"/>
+      <c r="C594" s="6"/>
+      <c r="D594" s="6"/>
+      <c r="E594" s="6"/>
+      <c r="F594" s="6"/>
+      <c r="G594" s="6"/>
+      <c r="H594" s="6"/>
+      <c r="I594" s="6"/>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" s="6"/>
+      <c r="B595" s="6"/>
+      <c r="C595" s="6"/>
+      <c r="D595" s="6"/>
+      <c r="E595" s="6"/>
+      <c r="F595" s="6"/>
+      <c r="G595" s="6"/>
+      <c r="H595" s="6"/>
+      <c r="I595" s="6"/>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" s="6"/>
+      <c r="B596" s="6"/>
+      <c r="C596" s="6"/>
+      <c r="D596" s="6"/>
+      <c r="E596" s="6"/>
+      <c r="F596" s="6"/>
+      <c r="G596" s="6"/>
+      <c r="H596" s="6"/>
+      <c r="I596" s="6"/>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" s="6"/>
+      <c r="B597" s="6"/>
+      <c r="C597" s="6"/>
+      <c r="D597" s="6"/>
+      <c r="E597" s="6"/>
+      <c r="F597" s="6"/>
+      <c r="G597" s="6"/>
+      <c r="H597" s="6"/>
+      <c r="I597" s="6"/>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" s="6"/>
+      <c r="B598" s="6"/>
+      <c r="C598" s="6"/>
+      <c r="D598" s="6"/>
+      <c r="E598" s="6"/>
+      <c r="F598" s="6"/>
+      <c r="G598" s="6"/>
+      <c r="H598" s="6"/>
+      <c r="I598" s="6"/>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" s="6"/>
+      <c r="B599" s="6"/>
+      <c r="C599" s="6"/>
+      <c r="D599" s="6"/>
+      <c r="E599" s="6"/>
+      <c r="F599" s="6"/>
+      <c r="G599" s="6"/>
+      <c r="H599" s="6"/>
+      <c r="I599" s="6"/>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" s="6"/>
+      <c r="B600" s="6"/>
+      <c r="C600" s="6"/>
+      <c r="D600" s="6"/>
+      <c r="E600" s="6"/>
+      <c r="F600" s="6"/>
+      <c r="G600" s="6"/>
+      <c r="H600" s="6"/>
+      <c r="I600" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I493">
@@ -6611,8 +7797,8 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -6798,8 +7984,8 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
@@ -6809,7 +7995,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -6820,7 +8006,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -6831,7 +8017,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -6842,7 +8028,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -6853,7 +8039,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -6864,7 +8050,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -6875,7 +8061,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6886,7 +8072,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -6897,7 +8083,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6908,7 +8094,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -6919,7 +8105,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -6930,8 +8116,8 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
@@ -6941,7 +8127,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -6952,7 +8138,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -6963,7 +8149,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -6974,7 +8160,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -6985,7 +8171,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -6996,7 +8182,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -7007,8 +8193,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
@@ -7216,8 +8402,8 @@
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
@@ -7414,8 +8600,8 @@
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
@@ -7601,8 +8787,8 @@
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
@@ -7722,8 +8908,8 @@
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
@@ -8096,8 +9282,8 @@
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
@@ -8217,8 +9403,8 @@
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
@@ -8228,7 +9414,7 @@
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="7"/>
+      <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
@@ -8239,7 +9425,7 @@
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="7"/>
+      <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
@@ -8250,7 +9436,7 @@
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="7"/>
+      <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
@@ -8261,7 +9447,7 @@
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="7"/>
+      <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
@@ -8272,7 +9458,7 @@
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="7"/>
+      <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
@@ -8283,8 +9469,8 @@
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
@@ -8426,8 +9612,8 @@
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
@@ -8701,8 +9887,8 @@
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
@@ -9196,8 +10382,8 @@
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
@@ -9383,8 +10569,8 @@
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
@@ -9581,8 +10767,8 @@
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
     </row>
@@ -9724,8 +10910,8 @@
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
     </row>
@@ -10032,8 +11218,8 @@
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
-      <c r="F313" s="7"/>
-      <c r="G313" s="7"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
     </row>
@@ -10175,8 +11361,8 @@
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
-      <c r="F326" s="7"/>
-      <c r="G326" s="7"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
     </row>
@@ -10318,8 +11504,8 @@
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
-      <c r="F339" s="7"/>
-      <c r="G339" s="7"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
     </row>
@@ -10615,8 +11801,8 @@
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
-      <c r="F366" s="7"/>
-      <c r="G366" s="7"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
     </row>
@@ -10703,8 +11889,8 @@
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
-      <c r="F374" s="7"/>
-      <c r="G374" s="7"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
     </row>
@@ -10846,8 +12032,8 @@
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
-      <c r="F387" s="7"/>
-      <c r="G387" s="7"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
     </row>
@@ -11011,8 +12197,8 @@
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
-      <c r="F402" s="7"/>
-      <c r="G402" s="7"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
     </row>
@@ -11220,8 +12406,8 @@
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
-      <c r="F421" s="7"/>
-      <c r="G421" s="7"/>
+      <c r="F421" s="6"/>
+      <c r="G421" s="6"/>
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
     </row>
@@ -11913,8 +13099,8 @@
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
-      <c r="F484" s="7"/>
-      <c r="G484" s="7"/>
+      <c r="F484" s="6"/>
+      <c r="G484" s="6"/>
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
     </row>
@@ -12331,8 +13517,8 @@
       <c r="C522" s="6"/>
       <c r="D522" s="6"/>
       <c r="E522" s="6"/>
-      <c r="F522" s="7"/>
-      <c r="G522" s="7"/>
+      <c r="F522" s="6"/>
+      <c r="G522" s="6"/>
       <c r="H522" s="6"/>
       <c r="I522" s="6"/>
     </row>
@@ -12507,8 +13693,8 @@
       <c r="C538" s="6"/>
       <c r="D538" s="6"/>
       <c r="E538" s="6"/>
-      <c r="F538" s="7"/>
-      <c r="G538" s="7"/>
+      <c r="F538" s="6"/>
+      <c r="G538" s="6"/>
       <c r="H538" s="6"/>
       <c r="I538" s="6"/>
     </row>
@@ -12683,8 +13869,8 @@
       <c r="C554" s="6"/>
       <c r="D554" s="6"/>
       <c r="E554" s="6"/>
-      <c r="F554" s="7"/>
-      <c r="G554" s="7"/>
+      <c r="F554" s="6"/>
+      <c r="G554" s="6"/>
       <c r="H554" s="6"/>
       <c r="I554" s="6"/>
     </row>
@@ -12958,8 +14144,8 @@
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
       <c r="E579" s="6"/>
-      <c r="F579" s="7"/>
-      <c r="G579" s="7"/>
+      <c r="F579" s="6"/>
+      <c r="G579" s="6"/>
       <c r="H579" s="6"/>
       <c r="I579" s="6"/>
     </row>
@@ -13123,8 +14309,8 @@
       <c r="C594" s="6"/>
       <c r="D594" s="6"/>
       <c r="E594" s="6"/>
-      <c r="F594" s="7"/>
-      <c r="G594" s="7"/>
+      <c r="F594" s="6"/>
+      <c r="G594" s="6"/>
       <c r="H594" s="6"/>
       <c r="I594" s="6"/>
     </row>
@@ -13244,8 +14430,8 @@
       <c r="C605" s="6"/>
       <c r="D605" s="6"/>
       <c r="E605" s="6"/>
-      <c r="F605" s="7"/>
-      <c r="G605" s="7"/>
+      <c r="F605" s="6"/>
+      <c r="G605" s="6"/>
       <c r="H605" s="6"/>
       <c r="I605" s="6"/>
     </row>
@@ -13409,8 +14595,8 @@
       <c r="C620" s="6"/>
       <c r="D620" s="6"/>
       <c r="E620" s="6"/>
-      <c r="F620" s="7"/>
-      <c r="G620" s="7"/>
+      <c r="F620" s="6"/>
+      <c r="G620" s="6"/>
       <c r="H620" s="6"/>
       <c r="I620" s="6"/>
     </row>
@@ -13695,8 +14881,8 @@
       <c r="C646" s="6"/>
       <c r="D646" s="6"/>
       <c r="E646" s="6"/>
-      <c r="F646" s="7"/>
-      <c r="G646" s="7"/>
+      <c r="F646" s="6"/>
+      <c r="G646" s="6"/>
       <c r="H646" s="6"/>
       <c r="I646" s="6"/>
     </row>
@@ -14069,8 +15255,8 @@
       <c r="C680" s="6"/>
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
-      <c r="F680" s="7"/>
-      <c r="G680" s="7"/>
+      <c r="F680" s="6"/>
+      <c r="G680" s="6"/>
       <c r="H680" s="6"/>
       <c r="I680" s="6"/>
     </row>
@@ -14245,8 +15431,8 @@
       <c r="C696" s="6"/>
       <c r="D696" s="6"/>
       <c r="E696" s="6"/>
-      <c r="F696" s="7"/>
-      <c r="G696" s="7"/>
+      <c r="F696" s="6"/>
+      <c r="G696" s="6"/>
       <c r="H696" s="6"/>
       <c r="I696" s="6"/>
     </row>
@@ -14257,7 +15443,7 @@
       <c r="D697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
-      <c r="G697" s="7"/>
+      <c r="G697" s="6"/>
       <c r="H697" s="6"/>
       <c r="I697" s="6"/>
     </row>
@@ -14267,8 +15453,8 @@
       <c r="C698" s="6"/>
       <c r="D698" s="6"/>
       <c r="E698" s="6"/>
-      <c r="F698" s="7"/>
-      <c r="G698" s="7"/>
+      <c r="F698" s="6"/>
+      <c r="G698" s="6"/>
       <c r="H698" s="6"/>
       <c r="I698" s="6"/>
     </row>
@@ -14278,7 +15464,7 @@
       <c r="C699" s="6"/>
       <c r="D699" s="6"/>
       <c r="E699" s="6"/>
-      <c r="F699" s="7"/>
+      <c r="F699" s="6"/>
       <c r="G699" s="6"/>
       <c r="H699" s="6"/>
       <c r="I699" s="6"/>
@@ -14289,8 +15475,8 @@
       <c r="C700" s="6"/>
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
-      <c r="F700" s="7"/>
-      <c r="G700" s="7"/>
+      <c r="F700" s="6"/>
+      <c r="G700" s="6"/>
       <c r="H700" s="6"/>
       <c r="I700" s="6"/>
     </row>
@@ -14300,7 +15486,7 @@
       <c r="C701" s="6"/>
       <c r="D701" s="6"/>
       <c r="E701" s="6"/>
-      <c r="F701" s="7"/>
+      <c r="F701" s="6"/>
       <c r="G701" s="6"/>
       <c r="H701" s="6"/>
       <c r="I701" s="6"/>
@@ -14311,7 +15497,7 @@
       <c r="C702" s="6"/>
       <c r="D702" s="6"/>
       <c r="E702" s="6"/>
-      <c r="F702" s="7"/>
+      <c r="F702" s="6"/>
       <c r="G702" s="6"/>
       <c r="H702" s="6"/>
       <c r="I702" s="6"/>
@@ -14322,8 +15508,8 @@
       <c r="C703" s="6"/>
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
-      <c r="F703" s="7"/>
-      <c r="G703" s="7"/>
+      <c r="F703" s="6"/>
+      <c r="G703" s="6"/>
       <c r="H703" s="6"/>
       <c r="I703" s="6"/>
     </row>
@@ -14333,7 +15519,7 @@
       <c r="C704" s="6"/>
       <c r="D704" s="6"/>
       <c r="E704" s="6"/>
-      <c r="F704" s="7"/>
+      <c r="F704" s="6"/>
       <c r="G704" s="6"/>
       <c r="H704" s="6"/>
       <c r="I704" s="6"/>
@@ -14344,7 +15530,7 @@
       <c r="C705" s="6"/>
       <c r="D705" s="6"/>
       <c r="E705" s="6"/>
-      <c r="F705" s="7"/>
+      <c r="F705" s="6"/>
       <c r="G705" s="6"/>
       <c r="H705" s="6"/>
       <c r="I705" s="6"/>
@@ -14355,7 +15541,7 @@
       <c r="C706" s="6"/>
       <c r="D706" s="6"/>
       <c r="E706" s="6"/>
-      <c r="F706" s="7"/>
+      <c r="F706" s="6"/>
       <c r="G706" s="6"/>
       <c r="H706" s="6"/>
       <c r="I706" s="6"/>
@@ -14366,7 +15552,7 @@
       <c r="C707" s="6"/>
       <c r="D707" s="6"/>
       <c r="E707" s="6"/>
-      <c r="F707" s="7"/>
+      <c r="F707" s="6"/>
       <c r="G707" s="6"/>
       <c r="H707" s="6"/>
       <c r="I707" s="6"/>
@@ -14377,8 +15563,8 @@
       <c r="C708" s="6"/>
       <c r="D708" s="6"/>
       <c r="E708" s="6"/>
-      <c r="F708" s="7"/>
-      <c r="G708" s="7"/>
+      <c r="F708" s="6"/>
+      <c r="G708" s="6"/>
       <c r="H708" s="6"/>
       <c r="I708" s="6"/>
     </row>
@@ -14388,7 +15574,7 @@
       <c r="C709" s="6"/>
       <c r="D709" s="6"/>
       <c r="E709" s="6"/>
-      <c r="F709" s="7"/>
+      <c r="F709" s="6"/>
       <c r="G709" s="6"/>
       <c r="H709" s="6"/>
       <c r="I709" s="6"/>
@@ -14399,7 +15585,7 @@
       <c r="C710" s="6"/>
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
-      <c r="F710" s="7"/>
+      <c r="F710" s="6"/>
       <c r="G710" s="6"/>
       <c r="H710" s="6"/>
       <c r="I710" s="6"/>
@@ -14410,7 +15596,7 @@
       <c r="C711" s="6"/>
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
-      <c r="F711" s="7"/>
+      <c r="F711" s="6"/>
       <c r="G711" s="6"/>
       <c r="H711" s="6"/>
       <c r="I711" s="6"/>
@@ -14421,7 +15607,7 @@
       <c r="C712" s="6"/>
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
-      <c r="F712" s="7"/>
+      <c r="F712" s="6"/>
       <c r="G712" s="6"/>
       <c r="H712" s="6"/>
       <c r="I712" s="6"/>
@@ -14432,7 +15618,7 @@
       <c r="C713" s="6"/>
       <c r="D713" s="6"/>
       <c r="E713" s="6"/>
-      <c r="F713" s="7"/>
+      <c r="F713" s="6"/>
       <c r="G713" s="6"/>
       <c r="H713" s="6"/>
       <c r="I713" s="6"/>
@@ -14443,8 +15629,8 @@
       <c r="C714" s="6"/>
       <c r="D714" s="6"/>
       <c r="E714" s="6"/>
-      <c r="F714" s="7"/>
-      <c r="G714" s="7"/>
+      <c r="F714" s="6"/>
+      <c r="G714" s="6"/>
       <c r="H714" s="6"/>
       <c r="I714" s="6"/>
     </row>
@@ -14454,7 +15640,7 @@
       <c r="C715" s="6"/>
       <c r="D715" s="6"/>
       <c r="E715" s="6"/>
-      <c r="F715" s="7"/>
+      <c r="F715" s="6"/>
       <c r="G715" s="6"/>
       <c r="H715" s="6"/>
       <c r="I715" s="6"/>
@@ -14465,8 +15651,8 @@
       <c r="C716" s="6"/>
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
-      <c r="F716" s="7"/>
-      <c r="G716" s="7"/>
+      <c r="F716" s="6"/>
+      <c r="G716" s="6"/>
       <c r="H716" s="6"/>
       <c r="I716" s="6"/>
     </row>
@@ -14630,8 +15816,8 @@
       <c r="C731" s="6"/>
       <c r="D731" s="6"/>
       <c r="E731" s="6"/>
-      <c r="F731" s="7"/>
-      <c r="G731" s="7"/>
+      <c r="F731" s="6"/>
+      <c r="G731" s="6"/>
       <c r="H731" s="6"/>
       <c r="I731" s="6"/>
     </row>
@@ -14740,8 +15926,8 @@
       <c r="C741" s="6"/>
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
-      <c r="F741" s="7"/>
-      <c r="G741" s="7"/>
+      <c r="F741" s="6"/>
+      <c r="G741" s="6"/>
       <c r="H741" s="6"/>
       <c r="I741" s="6"/>
     </row>
@@ -15004,8 +16190,8 @@
       <c r="C765" s="6"/>
       <c r="D765" s="6"/>
       <c r="E765" s="6"/>
-      <c r="F765" s="7"/>
-      <c r="G765" s="7"/>
+      <c r="F765" s="6"/>
+      <c r="G765" s="6"/>
       <c r="H765" s="6"/>
       <c r="I765" s="6"/>
     </row>
@@ -15070,8 +16256,8 @@
       <c r="C771" s="6"/>
       <c r="D771" s="6"/>
       <c r="E771" s="6"/>
-      <c r="F771" s="7"/>
-      <c r="G771" s="7"/>
+      <c r="F771" s="6"/>
+      <c r="G771" s="6"/>
       <c r="H771" s="6"/>
       <c r="I771" s="6"/>
     </row>
@@ -15202,8 +16388,8 @@
       <c r="C783" s="6"/>
       <c r="D783" s="6"/>
       <c r="E783" s="6"/>
-      <c r="F783" s="7"/>
-      <c r="G783" s="7"/>
+      <c r="F783" s="6"/>
+      <c r="G783" s="6"/>
       <c r="H783" s="6"/>
       <c r="I783" s="6"/>
     </row>
@@ -15466,8 +16652,8 @@
       <c r="C807" s="6"/>
       <c r="D807" s="6"/>
       <c r="E807" s="6"/>
-      <c r="F807" s="7"/>
-      <c r="G807" s="7"/>
+      <c r="F807" s="6"/>
+      <c r="G807" s="6"/>
       <c r="H807" s="6"/>
       <c r="I807" s="6"/>
     </row>
@@ -15653,8 +16839,8 @@
       <c r="C824" s="6"/>
       <c r="D824" s="6"/>
       <c r="E824" s="6"/>
-      <c r="F824" s="7"/>
-      <c r="G824" s="7"/>
+      <c r="F824" s="6"/>
+      <c r="G824" s="6"/>
       <c r="H824" s="6"/>
       <c r="I824" s="6"/>
     </row>
@@ -15719,8 +16905,8 @@
       <c r="C830" s="6"/>
       <c r="D830" s="6"/>
       <c r="E830" s="6"/>
-      <c r="F830" s="7"/>
-      <c r="G830" s="7"/>
+      <c r="F830" s="6"/>
+      <c r="G830" s="6"/>
       <c r="H830" s="6"/>
       <c r="I830" s="6"/>
     </row>
@@ -15807,8 +16993,8 @@
       <c r="C838" s="6"/>
       <c r="D838" s="6"/>
       <c r="E838" s="6"/>
-      <c r="F838" s="7"/>
-      <c r="G838" s="7"/>
+      <c r="F838" s="6"/>
+      <c r="G838" s="6"/>
       <c r="H838" s="6"/>
       <c r="I838" s="6"/>
     </row>
@@ -15950,8 +17136,8 @@
       <c r="C851" s="6"/>
       <c r="D851" s="6"/>
       <c r="E851" s="6"/>
-      <c r="F851" s="7"/>
-      <c r="G851" s="7"/>
+      <c r="F851" s="6"/>
+      <c r="G851" s="6"/>
       <c r="H851" s="6"/>
       <c r="I851" s="6"/>
     </row>
@@ -16093,8 +17279,8 @@
       <c r="C864" s="6"/>
       <c r="D864" s="6"/>
       <c r="E864" s="6"/>
-      <c r="F864" s="7"/>
-      <c r="G864" s="7"/>
+      <c r="F864" s="6"/>
+      <c r="G864" s="6"/>
       <c r="H864" s="6"/>
       <c r="I864" s="6"/>
     </row>
@@ -16214,8 +17400,8 @@
       <c r="C875" s="6"/>
       <c r="D875" s="6"/>
       <c r="E875" s="6"/>
-      <c r="F875" s="7"/>
-      <c r="G875" s="7"/>
+      <c r="F875" s="6"/>
+      <c r="G875" s="6"/>
       <c r="H875" s="6"/>
       <c r="I875" s="6"/>
     </row>
@@ -16313,8 +17499,8 @@
       <c r="C884" s="6"/>
       <c r="D884" s="6"/>
       <c r="E884" s="6"/>
-      <c r="F884" s="7"/>
-      <c r="G884" s="7"/>
+      <c r="F884" s="6"/>
+      <c r="G884" s="6"/>
       <c r="H884" s="6"/>
       <c r="I884" s="6"/>
     </row>
@@ -16390,8 +17576,8 @@
       <c r="C891" s="6"/>
       <c r="D891" s="6"/>
       <c r="E891" s="6"/>
-      <c r="F891" s="7"/>
-      <c r="G891" s="7"/>
+      <c r="F891" s="6"/>
+      <c r="G891" s="6"/>
       <c r="H891" s="6"/>
       <c r="I891" s="6"/>
     </row>
@@ -16434,8 +17620,8 @@
       <c r="C895" s="6"/>
       <c r="D895" s="6"/>
       <c r="E895" s="6"/>
-      <c r="F895" s="7"/>
-      <c r="G895" s="7"/>
+      <c r="F895" s="6"/>
+      <c r="G895" s="6"/>
       <c r="H895" s="6"/>
       <c r="I895" s="6"/>
     </row>
@@ -16533,8 +17719,8 @@
       <c r="C904" s="6"/>
       <c r="D904" s="6"/>
       <c r="E904" s="6"/>
-      <c r="F904" s="7"/>
-      <c r="G904" s="7"/>
+      <c r="F904" s="6"/>
+      <c r="G904" s="6"/>
       <c r="H904" s="6"/>
       <c r="I904" s="6"/>
     </row>
@@ -16632,8 +17818,8 @@
       <c r="C913" s="6"/>
       <c r="D913" s="6"/>
       <c r="E913" s="6"/>
-      <c r="F913" s="7"/>
-      <c r="G913" s="7"/>
+      <c r="F913" s="6"/>
+      <c r="G913" s="6"/>
       <c r="H913" s="6"/>
       <c r="I913" s="6"/>
     </row>
@@ -16830,8 +18016,8 @@
       <c r="C931" s="6"/>
       <c r="D931" s="6"/>
       <c r="E931" s="6"/>
-      <c r="F931" s="7"/>
-      <c r="G931" s="7"/>
+      <c r="F931" s="6"/>
+      <c r="G931" s="6"/>
       <c r="H931" s="6"/>
       <c r="I931" s="6"/>
     </row>
@@ -16907,8 +18093,8 @@
       <c r="C938" s="6"/>
       <c r="D938" s="6"/>
       <c r="E938" s="6"/>
-      <c r="F938" s="7"/>
-      <c r="G938" s="7"/>
+      <c r="F938" s="6"/>
+      <c r="G938" s="6"/>
       <c r="H938" s="6"/>
       <c r="I938" s="6"/>
     </row>
@@ -16984,8 +18170,8 @@
       <c r="C945" s="6"/>
       <c r="D945" s="6"/>
       <c r="E945" s="6"/>
-      <c r="F945" s="7"/>
-      <c r="G945" s="7"/>
+      <c r="F945" s="6"/>
+      <c r="G945" s="6"/>
       <c r="H945" s="6"/>
       <c r="I945" s="6"/>
     </row>
@@ -17182,8 +18368,8 @@
       <c r="C963" s="6"/>
       <c r="D963" s="6"/>
       <c r="E963" s="6"/>
-      <c r="F963" s="7"/>
-      <c r="G963" s="7"/>
+      <c r="F963" s="6"/>
+      <c r="G963" s="6"/>
       <c r="H963" s="6"/>
       <c r="I963" s="6"/>
     </row>
@@ -17259,8 +18445,8 @@
       <c r="C970" s="6"/>
       <c r="D970" s="6"/>
       <c r="E970" s="6"/>
-      <c r="F970" s="7"/>
-      <c r="G970" s="7"/>
+      <c r="F970" s="6"/>
+      <c r="G970" s="6"/>
       <c r="H970" s="6"/>
       <c r="I970" s="6"/>
     </row>
@@ -17336,8 +18522,8 @@
       <c r="C977" s="6"/>
       <c r="D977" s="6"/>
       <c r="E977" s="6"/>
-      <c r="F977" s="7"/>
-      <c r="G977" s="7"/>
+      <c r="F977" s="6"/>
+      <c r="G977" s="6"/>
       <c r="H977" s="6"/>
       <c r="I977" s="6"/>
     </row>
@@ -17479,8 +18665,8 @@
       <c r="C990" s="6"/>
       <c r="D990" s="6"/>
       <c r="E990" s="6"/>
-      <c r="F990" s="7"/>
-      <c r="G990" s="7"/>
+      <c r="F990" s="6"/>
+      <c r="G990" s="6"/>
       <c r="H990" s="6"/>
       <c r="I990" s="6"/>
     </row>
@@ -17666,8 +18852,8 @@
       <c r="C1007" s="6"/>
       <c r="D1007" s="6"/>
       <c r="E1007" s="6"/>
-      <c r="F1007" s="7"/>
-      <c r="G1007" s="7"/>
+      <c r="F1007" s="6"/>
+      <c r="G1007" s="6"/>
       <c r="H1007" s="6"/>
       <c r="I1007" s="6"/>
     </row>
@@ -17710,8 +18896,8 @@
       <c r="C1011" s="6"/>
       <c r="D1011" s="6"/>
       <c r="E1011" s="6"/>
-      <c r="F1011" s="7"/>
-      <c r="G1011" s="7"/>
+      <c r="F1011" s="6"/>
+      <c r="G1011" s="6"/>
       <c r="H1011" s="6"/>
       <c r="I1011" s="6"/>
     </row>
@@ -17765,8 +18951,8 @@
       <c r="C1016" s="6"/>
       <c r="D1016" s="6"/>
       <c r="E1016" s="6"/>
-      <c r="F1016" s="7"/>
-      <c r="G1016" s="7"/>
+      <c r="F1016" s="6"/>
+      <c r="G1016" s="6"/>
       <c r="H1016" s="6"/>
       <c r="I1016" s="6"/>
     </row>
@@ -17842,8 +19028,8 @@
       <c r="C1023" s="6"/>
       <c r="D1023" s="6"/>
       <c r="E1023" s="6"/>
-      <c r="F1023" s="7"/>
-      <c r="G1023" s="7"/>
+      <c r="F1023" s="6"/>
+      <c r="G1023" s="6"/>
       <c r="H1023" s="6"/>
       <c r="I1023" s="6"/>
     </row>
@@ -17952,8 +19138,8 @@
       <c r="C1033" s="6"/>
       <c r="D1033" s="6"/>
       <c r="E1033" s="6"/>
-      <c r="F1033" s="7"/>
-      <c r="G1033" s="7"/>
+      <c r="F1033" s="6"/>
+      <c r="G1033" s="6"/>
       <c r="H1033" s="6"/>
       <c r="I1033" s="6"/>
     </row>
@@ -18095,8 +19281,8 @@
       <c r="C1046" s="6"/>
       <c r="D1046" s="6"/>
       <c r="E1046" s="6"/>
-      <c r="F1046" s="7"/>
-      <c r="G1046" s="7"/>
+      <c r="F1046" s="6"/>
+      <c r="G1046" s="6"/>
       <c r="H1046" s="6"/>
       <c r="I1046" s="6"/>
     </row>
@@ -18205,8 +19391,8 @@
       <c r="C1056" s="6"/>
       <c r="D1056" s="6"/>
       <c r="E1056" s="6"/>
-      <c r="F1056" s="7"/>
-      <c r="G1056" s="7"/>
+      <c r="F1056" s="6"/>
+      <c r="G1056" s="6"/>
       <c r="H1056" s="6"/>
       <c r="I1056" s="6"/>
     </row>
@@ -18282,8 +19468,8 @@
       <c r="C1063" s="6"/>
       <c r="D1063" s="6"/>
       <c r="E1063" s="6"/>
-      <c r="F1063" s="7"/>
-      <c r="G1063" s="7"/>
+      <c r="F1063" s="6"/>
+      <c r="G1063" s="6"/>
       <c r="H1063" s="6"/>
       <c r="I1063" s="6"/>
     </row>
@@ -18293,7 +19479,7 @@
       <c r="C1064" s="6"/>
       <c r="D1064" s="6"/>
       <c r="E1064" s="6"/>
-      <c r="F1064" s="7"/>
+      <c r="F1064" s="6"/>
       <c r="G1064" s="6"/>
       <c r="H1064" s="6"/>
       <c r="I1064" s="6"/>
@@ -18304,7 +19490,7 @@
       <c r="C1065" s="6"/>
       <c r="D1065" s="6"/>
       <c r="E1065" s="6"/>
-      <c r="F1065" s="7"/>
+      <c r="F1065" s="6"/>
       <c r="G1065" s="6"/>
       <c r="H1065" s="6"/>
       <c r="I1065" s="6"/>
@@ -18315,7 +19501,7 @@
       <c r="C1066" s="6"/>
       <c r="D1066" s="6"/>
       <c r="E1066" s="6"/>
-      <c r="F1066" s="7"/>
+      <c r="F1066" s="6"/>
       <c r="G1066" s="6"/>
       <c r="H1066" s="6"/>
       <c r="I1066" s="6"/>
@@ -18326,8 +19512,8 @@
       <c r="C1067" s="6"/>
       <c r="D1067" s="6"/>
       <c r="E1067" s="6"/>
-      <c r="F1067" s="7"/>
-      <c r="G1067" s="7"/>
+      <c r="F1067" s="6"/>
+      <c r="G1067" s="6"/>
       <c r="H1067" s="6"/>
       <c r="I1067" s="6"/>
     </row>
@@ -18337,7 +19523,7 @@
       <c r="C1068" s="6"/>
       <c r="D1068" s="6"/>
       <c r="E1068" s="6"/>
-      <c r="F1068" s="7"/>
+      <c r="F1068" s="6"/>
       <c r="G1068" s="6"/>
       <c r="H1068" s="6"/>
       <c r="I1068" s="6"/>
@@ -18348,7 +19534,7 @@
       <c r="C1069" s="6"/>
       <c r="D1069" s="6"/>
       <c r="E1069" s="6"/>
-      <c r="F1069" s="7"/>
+      <c r="F1069" s="6"/>
       <c r="G1069" s="6"/>
       <c r="H1069" s="6"/>
       <c r="I1069" s="6"/>
@@ -18359,7 +19545,7 @@
       <c r="C1070" s="6"/>
       <c r="D1070" s="6"/>
       <c r="E1070" s="6"/>
-      <c r="F1070" s="7"/>
+      <c r="F1070" s="6"/>
       <c r="G1070" s="6"/>
       <c r="H1070" s="6"/>
       <c r="I1070" s="6"/>
@@ -18370,8 +19556,8 @@
       <c r="C1071" s="6"/>
       <c r="D1071" s="6"/>
       <c r="E1071" s="6"/>
-      <c r="F1071" s="7"/>
-      <c r="G1071" s="7"/>
+      <c r="F1071" s="6"/>
+      <c r="G1071" s="6"/>
       <c r="H1071" s="6"/>
       <c r="I1071" s="6"/>
     </row>
@@ -18469,8 +19655,8 @@
       <c r="C1080" s="6"/>
       <c r="D1080" s="6"/>
       <c r="E1080" s="6"/>
-      <c r="F1080" s="7"/>
-      <c r="G1080" s="7"/>
+      <c r="F1080" s="6"/>
+      <c r="G1080" s="6"/>
       <c r="H1080" s="6"/>
       <c r="I1080" s="6"/>
     </row>
@@ -18481,7 +19667,7 @@
       <c r="D1081" s="6"/>
       <c r="E1081" s="6"/>
       <c r="F1081" s="6"/>
-      <c r="G1081" s="7"/>
+      <c r="G1081" s="6"/>
       <c r="H1081" s="6"/>
       <c r="I1081" s="6"/>
     </row>
@@ -18492,7 +19678,7 @@
       <c r="D1082" s="6"/>
       <c r="E1082" s="6"/>
       <c r="F1082" s="6"/>
-      <c r="G1082" s="7"/>
+      <c r="G1082" s="6"/>
       <c r="H1082" s="6"/>
       <c r="I1082" s="6"/>
     </row>
@@ -18503,7 +19689,7 @@
       <c r="D1083" s="6"/>
       <c r="E1083" s="6"/>
       <c r="F1083" s="6"/>
-      <c r="G1083" s="7"/>
+      <c r="G1083" s="6"/>
       <c r="H1083" s="6"/>
       <c r="I1083" s="6"/>
     </row>
@@ -18514,7 +19700,7 @@
       <c r="D1084" s="6"/>
       <c r="E1084" s="6"/>
       <c r="F1084" s="6"/>
-      <c r="G1084" s="7"/>
+      <c r="G1084" s="6"/>
       <c r="H1084" s="6"/>
       <c r="I1084" s="6"/>
     </row>
@@ -18524,8 +19710,8 @@
       <c r="C1085" s="6"/>
       <c r="D1085" s="6"/>
       <c r="E1085" s="6"/>
-      <c r="F1085" s="7"/>
-      <c r="G1085" s="7"/>
+      <c r="F1085" s="6"/>
+      <c r="G1085" s="6"/>
       <c r="H1085" s="6"/>
       <c r="I1085" s="6"/>
     </row>
@@ -18536,7 +19722,7 @@
       <c r="D1086" s="6"/>
       <c r="E1086" s="6"/>
       <c r="F1086" s="6"/>
-      <c r="G1086" s="7"/>
+      <c r="G1086" s="6"/>
       <c r="H1086" s="6"/>
       <c r="I1086" s="6"/>
     </row>
@@ -18547,7 +19733,7 @@
       <c r="D1087" s="6"/>
       <c r="E1087" s="6"/>
       <c r="F1087" s="6"/>
-      <c r="G1087" s="7"/>
+      <c r="G1087" s="6"/>
       <c r="H1087" s="6"/>
       <c r="I1087" s="6"/>
     </row>
@@ -18558,7 +19744,7 @@
       <c r="D1088" s="6"/>
       <c r="E1088" s="6"/>
       <c r="F1088" s="6"/>
-      <c r="G1088" s="7"/>
+      <c r="G1088" s="6"/>
       <c r="H1088" s="6"/>
       <c r="I1088" s="6"/>
     </row>
@@ -18569,7 +19755,7 @@
       <c r="D1089" s="6"/>
       <c r="E1089" s="6"/>
       <c r="F1089" s="6"/>
-      <c r="G1089" s="7"/>
+      <c r="G1089" s="6"/>
       <c r="H1089" s="6"/>
       <c r="I1089" s="6"/>
     </row>
@@ -18580,7 +19766,7 @@
       <c r="D1090" s="6"/>
       <c r="E1090" s="6"/>
       <c r="F1090" s="6"/>
-      <c r="G1090" s="7"/>
+      <c r="G1090" s="6"/>
       <c r="H1090" s="6"/>
       <c r="I1090" s="6"/>
     </row>
@@ -18591,7 +19777,7 @@
       <c r="D1091" s="6"/>
       <c r="E1091" s="6"/>
       <c r="F1091" s="6"/>
-      <c r="G1091" s="7"/>
+      <c r="G1091" s="6"/>
       <c r="H1091" s="6"/>
       <c r="I1091" s="6"/>
     </row>
@@ -18602,7 +19788,7 @@
       <c r="D1092" s="6"/>
       <c r="E1092" s="6"/>
       <c r="F1092" s="6"/>
-      <c r="G1092" s="7"/>
+      <c r="G1092" s="6"/>
       <c r="H1092" s="6"/>
       <c r="I1092" s="6"/>
     </row>
@@ -18612,8 +19798,8 @@
       <c r="C1093" s="6"/>
       <c r="D1093" s="6"/>
       <c r="E1093" s="6"/>
-      <c r="F1093" s="7"/>
-      <c r="G1093" s="7"/>
+      <c r="F1093" s="6"/>
+      <c r="G1093" s="6"/>
       <c r="H1093" s="6"/>
       <c r="I1093" s="6"/>
     </row>
@@ -18624,7 +19810,7 @@
       <c r="D1094" s="6"/>
       <c r="E1094" s="6"/>
       <c r="F1094" s="6"/>
-      <c r="G1094" s="7"/>
+      <c r="G1094" s="6"/>
       <c r="H1094" s="6"/>
       <c r="I1094" s="6"/>
     </row>
@@ -18635,7 +19821,7 @@
       <c r="D1095" s="6"/>
       <c r="E1095" s="6"/>
       <c r="F1095" s="6"/>
-      <c r="G1095" s="7"/>
+      <c r="G1095" s="6"/>
       <c r="H1095" s="6"/>
       <c r="I1095" s="6"/>
     </row>
@@ -18646,7 +19832,7 @@
       <c r="D1096" s="6"/>
       <c r="E1096" s="6"/>
       <c r="F1096" s="6"/>
-      <c r="G1096" s="7"/>
+      <c r="G1096" s="6"/>
       <c r="H1096" s="6"/>
       <c r="I1096" s="6"/>
     </row>
@@ -18657,7 +19843,7 @@
       <c r="D1097" s="6"/>
       <c r="E1097" s="6"/>
       <c r="F1097" s="6"/>
-      <c r="G1097" s="7"/>
+      <c r="G1097" s="6"/>
       <c r="H1097" s="6"/>
       <c r="I1097" s="6"/>
     </row>
@@ -18667,8 +19853,8 @@
       <c r="C1098" s="6"/>
       <c r="D1098" s="6"/>
       <c r="E1098" s="6"/>
-      <c r="F1098" s="7"/>
-      <c r="G1098" s="7"/>
+      <c r="F1098" s="6"/>
+      <c r="G1098" s="6"/>
       <c r="H1098" s="6"/>
       <c r="I1098" s="6"/>
     </row>
@@ -18679,7 +19865,7 @@
       <c r="D1099" s="6"/>
       <c r="E1099" s="6"/>
       <c r="F1099" s="6"/>
-      <c r="G1099" s="7"/>
+      <c r="G1099" s="6"/>
       <c r="H1099" s="6"/>
       <c r="I1099" s="6"/>
     </row>
@@ -18690,7 +19876,7 @@
       <c r="D1100" s="6"/>
       <c r="E1100" s="6"/>
       <c r="F1100" s="6"/>
-      <c r="G1100" s="7"/>
+      <c r="G1100" s="6"/>
       <c r="H1100" s="6"/>
       <c r="I1100" s="6"/>
     </row>
@@ -18701,7 +19887,7 @@
       <c r="D1101" s="6"/>
       <c r="E1101" s="6"/>
       <c r="F1101" s="6"/>
-      <c r="G1101" s="7"/>
+      <c r="G1101" s="6"/>
       <c r="H1101" s="6"/>
       <c r="I1101" s="6"/>
     </row>
@@ -18712,7 +19898,7 @@
       <c r="D1102" s="6"/>
       <c r="E1102" s="6"/>
       <c r="F1102" s="6"/>
-      <c r="G1102" s="7"/>
+      <c r="G1102" s="6"/>
       <c r="H1102" s="6"/>
       <c r="I1102" s="6"/>
     </row>
@@ -18723,7 +19909,7 @@
       <c r="D1103" s="6"/>
       <c r="E1103" s="6"/>
       <c r="F1103" s="6"/>
-      <c r="G1103" s="7"/>
+      <c r="G1103" s="6"/>
       <c r="H1103" s="6"/>
       <c r="I1103" s="6"/>
     </row>
@@ -18734,7 +19920,7 @@
       <c r="D1104" s="6"/>
       <c r="E1104" s="6"/>
       <c r="F1104" s="6"/>
-      <c r="G1104" s="7"/>
+      <c r="G1104" s="6"/>
       <c r="H1104" s="6"/>
       <c r="I1104" s="6"/>
     </row>
@@ -18744,8 +19930,8 @@
       <c r="C1105" s="6"/>
       <c r="D1105" s="6"/>
       <c r="E1105" s="6"/>
-      <c r="F1105" s="7"/>
-      <c r="G1105" s="7"/>
+      <c r="F1105" s="6"/>
+      <c r="G1105" s="6"/>
       <c r="H1105" s="6"/>
       <c r="I1105" s="6"/>
     </row>
@@ -18887,8 +20073,8 @@
       <c r="C1118" s="6"/>
       <c r="D1118" s="6"/>
       <c r="E1118" s="6"/>
-      <c r="F1118" s="7"/>
-      <c r="G1118" s="7"/>
+      <c r="F1118" s="6"/>
+      <c r="G1118" s="6"/>
       <c r="H1118" s="6"/>
       <c r="I1118" s="6"/>
     </row>
@@ -18899,7 +20085,7 @@
       <c r="D1119" s="6"/>
       <c r="E1119" s="6"/>
       <c r="F1119" s="6"/>
-      <c r="G1119" s="7"/>
+      <c r="G1119" s="6"/>
       <c r="H1119" s="6"/>
       <c r="I1119" s="6"/>
     </row>
@@ -18910,7 +20096,7 @@
       <c r="D1120" s="6"/>
       <c r="E1120" s="6"/>
       <c r="F1120" s="6"/>
-      <c r="G1120" s="7"/>
+      <c r="G1120" s="6"/>
       <c r="H1120" s="6"/>
       <c r="I1120" s="6"/>
     </row>
@@ -18921,7 +20107,7 @@
       <c r="D1121" s="6"/>
       <c r="E1121" s="6"/>
       <c r="F1121" s="6"/>
-      <c r="G1121" s="7"/>
+      <c r="G1121" s="6"/>
       <c r="H1121" s="6"/>
       <c r="I1121" s="6"/>
     </row>
@@ -18932,7 +20118,7 @@
       <c r="D1122" s="6"/>
       <c r="E1122" s="6"/>
       <c r="F1122" s="6"/>
-      <c r="G1122" s="7"/>
+      <c r="G1122" s="6"/>
       <c r="H1122" s="6"/>
       <c r="I1122" s="6"/>
     </row>
@@ -18942,8 +20128,8 @@
       <c r="C1123" s="6"/>
       <c r="D1123" s="6"/>
       <c r="E1123" s="6"/>
-      <c r="F1123" s="7"/>
-      <c r="G1123" s="7"/>
+      <c r="F1123" s="6"/>
+      <c r="G1123" s="6"/>
       <c r="H1123" s="6"/>
       <c r="I1123" s="6"/>
     </row>
@@ -18953,7 +20139,7 @@
       <c r="C1124" s="6"/>
       <c r="D1124" s="6"/>
       <c r="E1124" s="6"/>
-      <c r="F1124" s="7"/>
+      <c r="F1124" s="6"/>
       <c r="G1124" s="6"/>
       <c r="H1124" s="6"/>
       <c r="I1124" s="6"/>
@@ -18964,7 +20150,7 @@
       <c r="C1125" s="6"/>
       <c r="D1125" s="6"/>
       <c r="E1125" s="6"/>
-      <c r="F1125" s="7"/>
+      <c r="F1125" s="6"/>
       <c r="G1125" s="6"/>
       <c r="H1125" s="6"/>
       <c r="I1125" s="6"/>
@@ -18975,7 +20161,7 @@
       <c r="C1126" s="6"/>
       <c r="D1126" s="6"/>
       <c r="E1126" s="6"/>
-      <c r="F1126" s="7"/>
+      <c r="F1126" s="6"/>
       <c r="G1126" s="6"/>
       <c r="H1126" s="6"/>
       <c r="I1126" s="6"/>
@@ -18986,7 +20172,7 @@
       <c r="C1127" s="6"/>
       <c r="D1127" s="6"/>
       <c r="E1127" s="6"/>
-      <c r="F1127" s="7"/>
+      <c r="F1127" s="6"/>
       <c r="G1127" s="6"/>
       <c r="H1127" s="6"/>
       <c r="I1127" s="6"/>
@@ -18997,7 +20183,7 @@
       <c r="C1128" s="6"/>
       <c r="D1128" s="6"/>
       <c r="E1128" s="6"/>
-      <c r="F1128" s="7"/>
+      <c r="F1128" s="6"/>
       <c r="G1128" s="6"/>
       <c r="H1128" s="6"/>
       <c r="I1128" s="6"/>
@@ -19008,8 +20194,8 @@
       <c r="C1129" s="6"/>
       <c r="D1129" s="6"/>
       <c r="E1129" s="6"/>
-      <c r="F1129" s="7"/>
-      <c r="G1129" s="7"/>
+      <c r="F1129" s="6"/>
+      <c r="G1129" s="6"/>
       <c r="H1129" s="6"/>
       <c r="I1129" s="6"/>
     </row>
@@ -19107,8 +20293,8 @@
       <c r="C1138" s="6"/>
       <c r="D1138" s="6"/>
       <c r="E1138" s="6"/>
-      <c r="F1138" s="7"/>
-      <c r="G1138" s="7"/>
+      <c r="F1138" s="6"/>
+      <c r="G1138" s="6"/>
       <c r="H1138" s="6"/>
       <c r="I1138" s="6"/>
     </row>
@@ -19162,8 +20348,8 @@
       <c r="C1143" s="6"/>
       <c r="D1143" s="6"/>
       <c r="E1143" s="6"/>
-      <c r="F1143" s="7"/>
-      <c r="G1143" s="7"/>
+      <c r="F1143" s="6"/>
+      <c r="G1143" s="6"/>
       <c r="H1143" s="6"/>
       <c r="I1143" s="6"/>
     </row>
@@ -19173,7 +20359,7 @@
       <c r="C1144" s="6"/>
       <c r="D1144" s="6"/>
       <c r="E1144" s="6"/>
-      <c r="F1144" s="7"/>
+      <c r="F1144" s="6"/>
       <c r="G1144" s="6"/>
       <c r="H1144" s="6"/>
       <c r="I1144" s="6"/>
@@ -19184,7 +20370,7 @@
       <c r="C1145" s="6"/>
       <c r="D1145" s="6"/>
       <c r="E1145" s="6"/>
-      <c r="F1145" s="7"/>
+      <c r="F1145" s="6"/>
       <c r="G1145" s="6"/>
       <c r="H1145" s="6"/>
       <c r="I1145" s="6"/>
@@ -19195,7 +20381,7 @@
       <c r="C1146" s="6"/>
       <c r="D1146" s="6"/>
       <c r="E1146" s="6"/>
-      <c r="F1146" s="7"/>
+      <c r="F1146" s="6"/>
       <c r="G1146" s="6"/>
       <c r="H1146" s="6"/>
       <c r="I1146" s="6"/>
@@ -19206,7 +20392,7 @@
       <c r="C1147" s="6"/>
       <c r="D1147" s="6"/>
       <c r="E1147" s="6"/>
-      <c r="F1147" s="7"/>
+      <c r="F1147" s="6"/>
       <c r="G1147" s="6"/>
       <c r="H1147" s="6"/>
       <c r="I1147" s="6"/>
@@ -19217,7 +20403,7 @@
       <c r="C1148" s="6"/>
       <c r="D1148" s="6"/>
       <c r="E1148" s="6"/>
-      <c r="F1148" s="7"/>
+      <c r="F1148" s="6"/>
       <c r="G1148" s="6"/>
       <c r="H1148" s="6"/>
       <c r="I1148" s="6"/>
@@ -19228,7 +20414,7 @@
       <c r="C1149" s="6"/>
       <c r="D1149" s="6"/>
       <c r="E1149" s="6"/>
-      <c r="F1149" s="7"/>
+      <c r="F1149" s="6"/>
       <c r="G1149" s="6"/>
       <c r="H1149" s="6"/>
       <c r="I1149" s="6"/>
@@ -19239,8 +20425,8 @@
       <c r="C1150" s="6"/>
       <c r="D1150" s="6"/>
       <c r="E1150" s="6"/>
-      <c r="F1150" s="7"/>
-      <c r="G1150" s="7"/>
+      <c r="F1150" s="6"/>
+      <c r="G1150" s="6"/>
       <c r="H1150" s="6"/>
       <c r="I1150" s="6"/>
     </row>
@@ -19492,8 +20678,8 @@
       <c r="C1173" s="6"/>
       <c r="D1173" s="6"/>
       <c r="E1173" s="6"/>
-      <c r="F1173" s="7"/>
-      <c r="G1173" s="7"/>
+      <c r="F1173" s="6"/>
+      <c r="G1173" s="6"/>
       <c r="H1173" s="6"/>
       <c r="I1173" s="6"/>
     </row>
@@ -19613,8 +20799,8 @@
       <c r="C1184" s="6"/>
       <c r="D1184" s="6"/>
       <c r="E1184" s="6"/>
-      <c r="F1184" s="7"/>
-      <c r="G1184" s="7"/>
+      <c r="F1184" s="6"/>
+      <c r="G1184" s="6"/>
       <c r="H1184" s="6"/>
       <c r="I1184" s="6"/>
     </row>
@@ -19679,8 +20865,8 @@
       <c r="C1190" s="6"/>
       <c r="D1190" s="6"/>
       <c r="E1190" s="6"/>
-      <c r="F1190" s="7"/>
-      <c r="G1190" s="7"/>
+      <c r="F1190" s="6"/>
+      <c r="G1190" s="6"/>
       <c r="H1190" s="6"/>
       <c r="I1190" s="6"/>
     </row>
@@ -19844,8 +21030,8 @@
       <c r="C1205" s="6"/>
       <c r="D1205" s="6"/>
       <c r="E1205" s="6"/>
-      <c r="F1205" s="7"/>
-      <c r="G1205" s="7"/>
+      <c r="F1205" s="6"/>
+      <c r="G1205" s="6"/>
       <c r="H1205" s="6"/>
       <c r="I1205" s="6"/>
     </row>
@@ -19899,8 +21085,8 @@
       <c r="C1210" s="6"/>
       <c r="D1210" s="6"/>
       <c r="E1210" s="6"/>
-      <c r="F1210" s="7"/>
-      <c r="G1210" s="7"/>
+      <c r="F1210" s="6"/>
+      <c r="G1210" s="6"/>
       <c r="H1210" s="6"/>
       <c r="I1210" s="6"/>
     </row>
@@ -19911,7 +21097,7 @@
       <c r="D1211" s="6"/>
       <c r="E1211" s="6"/>
       <c r="F1211" s="6"/>
-      <c r="G1211" s="7"/>
+      <c r="G1211" s="6"/>
       <c r="H1211" s="6"/>
       <c r="I1211" s="6"/>
     </row>
@@ -19922,7 +21108,7 @@
       <c r="D1212" s="6"/>
       <c r="E1212" s="6"/>
       <c r="F1212" s="6"/>
-      <c r="G1212" s="7"/>
+      <c r="G1212" s="6"/>
       <c r="H1212" s="6"/>
       <c r="I1212" s="6"/>
     </row>
@@ -19933,7 +21119,7 @@
       <c r="D1213" s="6"/>
       <c r="E1213" s="6"/>
       <c r="F1213" s="6"/>
-      <c r="G1213" s="7"/>
+      <c r="G1213" s="6"/>
       <c r="H1213" s="6"/>
       <c r="I1213" s="6"/>
     </row>
@@ -19944,7 +21130,7 @@
       <c r="D1214" s="6"/>
       <c r="E1214" s="6"/>
       <c r="F1214" s="6"/>
-      <c r="G1214" s="7"/>
+      <c r="G1214" s="6"/>
       <c r="H1214" s="6"/>
       <c r="I1214" s="6"/>
     </row>
@@ -19955,7 +21141,7 @@
       <c r="D1215" s="6"/>
       <c r="E1215" s="6"/>
       <c r="F1215" s="6"/>
-      <c r="G1215" s="7"/>
+      <c r="G1215" s="6"/>
       <c r="H1215" s="6"/>
       <c r="I1215" s="6"/>
     </row>
@@ -19966,7 +21152,7 @@
       <c r="D1216" s="6"/>
       <c r="E1216" s="6"/>
       <c r="F1216" s="6"/>
-      <c r="G1216" s="7"/>
+      <c r="G1216" s="6"/>
       <c r="H1216" s="6"/>
       <c r="I1216" s="6"/>
     </row>
@@ -19977,7 +21163,7 @@
       <c r="D1217" s="6"/>
       <c r="E1217" s="6"/>
       <c r="F1217" s="6"/>
-      <c r="G1217" s="7"/>
+      <c r="G1217" s="6"/>
       <c r="H1217" s="6"/>
       <c r="I1217" s="6"/>
     </row>
@@ -19987,8 +21173,8 @@
       <c r="C1218" s="6"/>
       <c r="D1218" s="6"/>
       <c r="E1218" s="6"/>
-      <c r="F1218" s="7"/>
-      <c r="G1218" s="7"/>
+      <c r="F1218" s="6"/>
+      <c r="G1218" s="6"/>
       <c r="H1218" s="6"/>
       <c r="I1218" s="6"/>
     </row>
@@ -20064,8 +21250,8 @@
       <c r="C1225" s="6"/>
       <c r="D1225" s="6"/>
       <c r="E1225" s="6"/>
-      <c r="F1225" s="7"/>
-      <c r="G1225" s="7"/>
+      <c r="F1225" s="6"/>
+      <c r="G1225" s="6"/>
       <c r="H1225" s="6"/>
       <c r="I1225" s="6"/>
     </row>
@@ -20262,8 +21448,8 @@
       <c r="C1243" s="6"/>
       <c r="D1243" s="6"/>
       <c r="E1243" s="6"/>
-      <c r="F1243" s="7"/>
-      <c r="G1243" s="7"/>
+      <c r="F1243" s="6"/>
+      <c r="G1243" s="6"/>
       <c r="H1243" s="6"/>
       <c r="I1243" s="6"/>
     </row>
@@ -20274,7 +21460,7 @@
       <c r="D1244" s="6"/>
       <c r="E1244" s="6"/>
       <c r="F1244" s="6"/>
-      <c r="G1244" s="7"/>
+      <c r="G1244" s="6"/>
       <c r="H1244" s="6"/>
       <c r="I1244" s="6"/>
     </row>
@@ -20285,7 +21471,7 @@
       <c r="D1245" s="6"/>
       <c r="E1245" s="6"/>
       <c r="F1245" s="6"/>
-      <c r="G1245" s="7"/>
+      <c r="G1245" s="6"/>
       <c r="H1245" s="6"/>
       <c r="I1245" s="6"/>
     </row>
@@ -20296,7 +21482,7 @@
       <c r="D1246" s="6"/>
       <c r="E1246" s="6"/>
       <c r="F1246" s="6"/>
-      <c r="G1246" s="7"/>
+      <c r="G1246" s="6"/>
       <c r="H1246" s="6"/>
       <c r="I1246" s="6"/>
     </row>
@@ -20307,7 +21493,7 @@
       <c r="D1247" s="6"/>
       <c r="E1247" s="6"/>
       <c r="F1247" s="6"/>
-      <c r="G1247" s="7"/>
+      <c r="G1247" s="6"/>
       <c r="H1247" s="6"/>
       <c r="I1247" s="6"/>
     </row>
@@ -20318,7 +21504,7 @@
       <c r="D1248" s="6"/>
       <c r="E1248" s="6"/>
       <c r="F1248" s="6"/>
-      <c r="G1248" s="7"/>
+      <c r="G1248" s="6"/>
       <c r="H1248" s="6"/>
       <c r="I1248" s="6"/>
     </row>
@@ -20329,7 +21515,7 @@
       <c r="D1249" s="6"/>
       <c r="E1249" s="6"/>
       <c r="F1249" s="6"/>
-      <c r="G1249" s="7"/>
+      <c r="G1249" s="6"/>
       <c r="H1249" s="6"/>
       <c r="I1249" s="6"/>
     </row>
@@ -20340,7 +21526,7 @@
       <c r="D1250" s="6"/>
       <c r="E1250" s="6"/>
       <c r="F1250" s="6"/>
-      <c r="G1250" s="7"/>
+      <c r="G1250" s="6"/>
       <c r="H1250" s="6"/>
       <c r="I1250" s="6"/>
     </row>
@@ -20350,8 +21536,8 @@
       <c r="C1251" s="6"/>
       <c r="D1251" s="6"/>
       <c r="E1251" s="6"/>
-      <c r="F1251" s="7"/>
-      <c r="G1251" s="7"/>
+      <c r="F1251" s="6"/>
+      <c r="G1251" s="6"/>
       <c r="H1251" s="6"/>
       <c r="I1251" s="6"/>
     </row>
@@ -20362,7 +21548,7 @@
       <c r="D1252" s="6"/>
       <c r="E1252" s="6"/>
       <c r="F1252" s="6"/>
-      <c r="G1252" s="7"/>
+      <c r="G1252" s="6"/>
       <c r="H1252" s="6"/>
       <c r="I1252" s="6"/>
     </row>
@@ -20373,7 +21559,7 @@
       <c r="D1253" s="6"/>
       <c r="E1253" s="6"/>
       <c r="F1253" s="6"/>
-      <c r="G1253" s="7"/>
+      <c r="G1253" s="6"/>
       <c r="H1253" s="6"/>
       <c r="I1253" s="6"/>
     </row>
@@ -20384,7 +21570,7 @@
       <c r="D1254" s="6"/>
       <c r="E1254" s="6"/>
       <c r="F1254" s="6"/>
-      <c r="G1254" s="7"/>
+      <c r="G1254" s="6"/>
       <c r="H1254" s="6"/>
       <c r="I1254" s="6"/>
     </row>
@@ -20395,7 +21581,7 @@
       <c r="D1255" s="6"/>
       <c r="E1255" s="6"/>
       <c r="F1255" s="6"/>
-      <c r="G1255" s="7"/>
+      <c r="G1255" s="6"/>
       <c r="H1255" s="6"/>
       <c r="I1255" s="6"/>
     </row>
@@ -20406,7 +21592,7 @@
       <c r="D1256" s="6"/>
       <c r="E1256" s="6"/>
       <c r="F1256" s="6"/>
-      <c r="G1256" s="7"/>
+      <c r="G1256" s="6"/>
       <c r="H1256" s="6"/>
       <c r="I1256" s="6"/>
     </row>
@@ -20416,8 +21602,8 @@
       <c r="C1257" s="6"/>
       <c r="D1257" s="6"/>
       <c r="E1257" s="6"/>
-      <c r="F1257" s="7"/>
-      <c r="G1257" s="7"/>
+      <c r="F1257" s="6"/>
+      <c r="G1257" s="6"/>
       <c r="H1257" s="6"/>
       <c r="I1257" s="6"/>
     </row>
@@ -20428,7 +21614,7 @@
       <c r="D1258" s="6"/>
       <c r="E1258" s="6"/>
       <c r="F1258" s="6"/>
-      <c r="G1258" s="7"/>
+      <c r="G1258" s="6"/>
       <c r="H1258" s="6"/>
       <c r="I1258" s="6"/>
     </row>
@@ -20439,7 +21625,7 @@
       <c r="D1259" s="6"/>
       <c r="E1259" s="6"/>
       <c r="F1259" s="6"/>
-      <c r="G1259" s="7"/>
+      <c r="G1259" s="6"/>
       <c r="H1259" s="6"/>
       <c r="I1259" s="6"/>
     </row>
@@ -20450,7 +21636,7 @@
       <c r="D1260" s="6"/>
       <c r="E1260" s="6"/>
       <c r="F1260" s="6"/>
-      <c r="G1260" s="7"/>
+      <c r="G1260" s="6"/>
       <c r="H1260" s="6"/>
       <c r="I1260" s="6"/>
     </row>
@@ -20460,8 +21646,8 @@
       <c r="C1261" s="6"/>
       <c r="D1261" s="6"/>
       <c r="E1261" s="6"/>
-      <c r="F1261" s="7"/>
-      <c r="G1261" s="7"/>
+      <c r="F1261" s="6"/>
+      <c r="G1261" s="6"/>
       <c r="H1261" s="6"/>
       <c r="I1261" s="6"/>
     </row>
@@ -20472,7 +21658,7 @@
       <c r="D1262" s="6"/>
       <c r="E1262" s="6"/>
       <c r="F1262" s="6"/>
-      <c r="G1262" s="7"/>
+      <c r="G1262" s="6"/>
       <c r="H1262" s="6"/>
       <c r="I1262" s="6"/>
     </row>
@@ -20483,7 +21669,7 @@
       <c r="D1263" s="6"/>
       <c r="E1263" s="6"/>
       <c r="F1263" s="6"/>
-      <c r="G1263" s="7"/>
+      <c r="G1263" s="6"/>
       <c r="H1263" s="6"/>
       <c r="I1263" s="6"/>
     </row>
@@ -20494,7 +21680,7 @@
       <c r="D1264" s="6"/>
       <c r="E1264" s="6"/>
       <c r="F1264" s="6"/>
-      <c r="G1264" s="7"/>
+      <c r="G1264" s="6"/>
       <c r="H1264" s="6"/>
       <c r="I1264" s="6"/>
     </row>
@@ -20505,7 +21691,7 @@
       <c r="D1265" s="6"/>
       <c r="E1265" s="6"/>
       <c r="F1265" s="6"/>
-      <c r="G1265" s="7"/>
+      <c r="G1265" s="6"/>
       <c r="H1265" s="6"/>
       <c r="I1265" s="6"/>
     </row>
@@ -20516,7 +21702,7 @@
       <c r="D1266" s="6"/>
       <c r="E1266" s="6"/>
       <c r="F1266" s="6"/>
-      <c r="G1266" s="7"/>
+      <c r="G1266" s="6"/>
       <c r="H1266" s="6"/>
       <c r="I1266" s="6"/>
     </row>
@@ -20526,8 +21712,8 @@
       <c r="C1267" s="6"/>
       <c r="D1267" s="6"/>
       <c r="E1267" s="6"/>
-      <c r="F1267" s="7"/>
-      <c r="G1267" s="7"/>
+      <c r="F1267" s="6"/>
+      <c r="G1267" s="6"/>
       <c r="H1267" s="6"/>
       <c r="I1267" s="6"/>
     </row>
@@ -20537,7 +21723,7 @@
       <c r="C1268" s="6"/>
       <c r="D1268" s="6"/>
       <c r="E1268" s="6"/>
-      <c r="F1268" s="7"/>
+      <c r="F1268" s="6"/>
       <c r="G1268" s="6"/>
       <c r="H1268" s="6"/>
       <c r="I1268" s="6"/>
@@ -20548,7 +21734,7 @@
       <c r="C1269" s="6"/>
       <c r="D1269" s="6"/>
       <c r="E1269" s="6"/>
-      <c r="F1269" s="7"/>
+      <c r="F1269" s="6"/>
       <c r="G1269" s="6"/>
       <c r="H1269" s="6"/>
       <c r="I1269" s="6"/>
@@ -20559,7 +21745,7 @@
       <c r="C1270" s="6"/>
       <c r="D1270" s="6"/>
       <c r="E1270" s="6"/>
-      <c r="F1270" s="7"/>
+      <c r="F1270" s="6"/>
       <c r="G1270" s="6"/>
       <c r="H1270" s="6"/>
       <c r="I1270" s="6"/>
@@ -20570,8 +21756,8 @@
       <c r="C1271" s="6"/>
       <c r="D1271" s="6"/>
       <c r="E1271" s="6"/>
-      <c r="F1271" s="7"/>
-      <c r="G1271" s="7"/>
+      <c r="F1271" s="6"/>
+      <c r="G1271" s="6"/>
       <c r="H1271" s="6"/>
       <c r="I1271" s="6"/>
     </row>
@@ -20582,7 +21768,7 @@
       <c r="D1272" s="6"/>
       <c r="E1272" s="6"/>
       <c r="F1272" s="6"/>
-      <c r="G1272" s="7"/>
+      <c r="G1272" s="6"/>
       <c r="H1272" s="6"/>
       <c r="I1272" s="6"/>
     </row>
@@ -20593,7 +21779,7 @@
       <c r="D1273" s="6"/>
       <c r="E1273" s="6"/>
       <c r="F1273" s="6"/>
-      <c r="G1273" s="7"/>
+      <c r="G1273" s="6"/>
       <c r="H1273" s="6"/>
       <c r="I1273" s="6"/>
     </row>
@@ -20604,7 +21790,7 @@
       <c r="D1274" s="6"/>
       <c r="E1274" s="6"/>
       <c r="F1274" s="6"/>
-      <c r="G1274" s="7"/>
+      <c r="G1274" s="6"/>
       <c r="H1274" s="6"/>
       <c r="I1274" s="6"/>
     </row>
@@ -20615,7 +21801,7 @@
       <c r="D1275" s="6"/>
       <c r="E1275" s="6"/>
       <c r="F1275" s="6"/>
-      <c r="G1275" s="7"/>
+      <c r="G1275" s="6"/>
       <c r="H1275" s="6"/>
       <c r="I1275" s="6"/>
     </row>
@@ -20625,8 +21811,8 @@
       <c r="C1276" s="6"/>
       <c r="D1276" s="6"/>
       <c r="E1276" s="6"/>
-      <c r="F1276" s="7"/>
-      <c r="G1276" s="7"/>
+      <c r="F1276" s="6"/>
+      <c r="G1276" s="6"/>
       <c r="H1276" s="6"/>
       <c r="I1276" s="6"/>
     </row>
@@ -20637,7 +21823,7 @@
       <c r="D1277" s="6"/>
       <c r="E1277" s="6"/>
       <c r="F1277" s="6"/>
-      <c r="G1277" s="7"/>
+      <c r="G1277" s="6"/>
       <c r="H1277" s="6"/>
       <c r="I1277" s="6"/>
     </row>
@@ -20648,7 +21834,7 @@
       <c r="D1278" s="6"/>
       <c r="E1278" s="6"/>
       <c r="F1278" s="6"/>
-      <c r="G1278" s="7"/>
+      <c r="G1278" s="6"/>
       <c r="H1278" s="6"/>
       <c r="I1278" s="6"/>
     </row>
@@ -20659,7 +21845,7 @@
       <c r="D1279" s="6"/>
       <c r="E1279" s="6"/>
       <c r="F1279" s="6"/>
-      <c r="G1279" s="7"/>
+      <c r="G1279" s="6"/>
       <c r="H1279" s="6"/>
       <c r="I1279" s="6"/>
     </row>
@@ -20670,7 +21856,7 @@
       <c r="D1280" s="6"/>
       <c r="E1280" s="6"/>
       <c r="F1280" s="6"/>
-      <c r="G1280" s="7"/>
+      <c r="G1280" s="6"/>
       <c r="H1280" s="6"/>
       <c r="I1280" s="6"/>
     </row>
@@ -20680,8 +21866,8 @@
       <c r="C1281" s="6"/>
       <c r="D1281" s="6"/>
       <c r="E1281" s="6"/>
-      <c r="F1281" s="7"/>
-      <c r="G1281" s="7"/>
+      <c r="F1281" s="6"/>
+      <c r="G1281" s="6"/>
       <c r="H1281" s="6"/>
       <c r="I1281" s="6"/>
     </row>
@@ -20692,7 +21878,7 @@
       <c r="D1282" s="6"/>
       <c r="E1282" s="6"/>
       <c r="F1282" s="6"/>
-      <c r="G1282" s="7"/>
+      <c r="G1282" s="6"/>
       <c r="H1282" s="6"/>
       <c r="I1282" s="6"/>
     </row>
@@ -20703,7 +21889,7 @@
       <c r="D1283" s="6"/>
       <c r="E1283" s="6"/>
       <c r="F1283" s="6"/>
-      <c r="G1283" s="7"/>
+      <c r="G1283" s="6"/>
       <c r="H1283" s="6"/>
       <c r="I1283" s="6"/>
     </row>
@@ -20713,8 +21899,8 @@
       <c r="C1284" s="6"/>
       <c r="D1284" s="6"/>
       <c r="E1284" s="6"/>
-      <c r="F1284" s="7"/>
-      <c r="G1284" s="7"/>
+      <c r="F1284" s="6"/>
+      <c r="G1284" s="6"/>
       <c r="H1284" s="6"/>
       <c r="I1284" s="6"/>
     </row>
@@ -20725,7 +21911,7 @@
       <c r="D1285" s="6"/>
       <c r="E1285" s="6"/>
       <c r="F1285" s="6"/>
-      <c r="G1285" s="7"/>
+      <c r="G1285" s="6"/>
       <c r="H1285" s="6"/>
       <c r="I1285" s="6"/>
     </row>
@@ -20736,7 +21922,7 @@
       <c r="D1286" s="6"/>
       <c r="E1286" s="6"/>
       <c r="F1286" s="6"/>
-      <c r="G1286" s="7"/>
+      <c r="G1286" s="6"/>
       <c r="H1286" s="6"/>
       <c r="I1286" s="6"/>
     </row>
@@ -20747,7 +21933,7 @@
       <c r="D1287" s="6"/>
       <c r="E1287" s="6"/>
       <c r="F1287" s="6"/>
-      <c r="G1287" s="7"/>
+      <c r="G1287" s="6"/>
       <c r="H1287" s="6"/>
       <c r="I1287" s="6"/>
     </row>
@@ -20758,7 +21944,7 @@
       <c r="D1288" s="6"/>
       <c r="E1288" s="6"/>
       <c r="F1288" s="6"/>
-      <c r="G1288" s="7"/>
+      <c r="G1288" s="6"/>
       <c r="H1288" s="6"/>
       <c r="I1288" s="6"/>
     </row>
@@ -20769,7 +21955,7 @@
       <c r="D1289" s="6"/>
       <c r="E1289" s="6"/>
       <c r="F1289" s="6"/>
-      <c r="G1289" s="7"/>
+      <c r="G1289" s="6"/>
       <c r="H1289" s="6"/>
       <c r="I1289" s="6"/>
     </row>
@@ -20780,7 +21966,7 @@
       <c r="D1290" s="6"/>
       <c r="E1290" s="6"/>
       <c r="F1290" s="6"/>
-      <c r="G1290" s="7"/>
+      <c r="G1290" s="6"/>
       <c r="H1290" s="6"/>
       <c r="I1290" s="6"/>
     </row>
@@ -20791,7 +21977,7 @@
       <c r="D1291" s="6"/>
       <c r="E1291" s="6"/>
       <c r="F1291" s="6"/>
-      <c r="G1291" s="7"/>
+      <c r="G1291" s="6"/>
       <c r="H1291" s="6"/>
       <c r="I1291" s="6"/>
     </row>
@@ -20802,7 +21988,7 @@
       <c r="D1292" s="6"/>
       <c r="E1292" s="6"/>
       <c r="F1292" s="6"/>
-      <c r="G1292" s="7"/>
+      <c r="G1292" s="6"/>
       <c r="H1292" s="6"/>
       <c r="I1292" s="6"/>
     </row>
@@ -20812,8 +21998,8 @@
       <c r="C1293" s="6"/>
       <c r="D1293" s="6"/>
       <c r="E1293" s="6"/>
-      <c r="F1293" s="7"/>
-      <c r="G1293" s="7"/>
+      <c r="F1293" s="6"/>
+      <c r="G1293" s="6"/>
       <c r="H1293" s="6"/>
       <c r="I1293" s="6"/>
     </row>
@@ -20845,8 +22031,8 @@
       <c r="C1296" s="6"/>
       <c r="D1296" s="6"/>
       <c r="E1296" s="6"/>
-      <c r="F1296" s="7"/>
-      <c r="G1296" s="7"/>
+      <c r="F1296" s="6"/>
+      <c r="G1296" s="6"/>
       <c r="H1296" s="6"/>
       <c r="I1296" s="6"/>
     </row>
@@ -20857,7 +22043,7 @@
       <c r="D1297" s="6"/>
       <c r="E1297" s="6"/>
       <c r="F1297" s="6"/>
-      <c r="G1297" s="7"/>
+      <c r="G1297" s="6"/>
       <c r="H1297" s="6"/>
       <c r="I1297" s="6"/>
     </row>
@@ -20868,7 +22054,7 @@
       <c r="D1298" s="6"/>
       <c r="E1298" s="6"/>
       <c r="F1298" s="6"/>
-      <c r="G1298" s="7"/>
+      <c r="G1298" s="6"/>
       <c r="H1298" s="6"/>
       <c r="I1298" s="6"/>
     </row>
@@ -20878,8 +22064,8 @@
       <c r="C1299" s="6"/>
       <c r="D1299" s="6"/>
       <c r="E1299" s="6"/>
-      <c r="F1299" s="7"/>
-      <c r="G1299" s="7"/>
+      <c r="F1299" s="6"/>
+      <c r="G1299" s="6"/>
       <c r="H1299" s="6"/>
       <c r="I1299" s="6"/>
     </row>
@@ -20890,7 +22076,7 @@
       <c r="D1300" s="6"/>
       <c r="E1300" s="6"/>
       <c r="F1300" s="6"/>
-      <c r="G1300" s="7"/>
+      <c r="G1300" s="6"/>
       <c r="H1300" s="6"/>
       <c r="I1300" s="6"/>
     </row>
@@ -20901,7 +22087,7 @@
       <c r="D1301" s="6"/>
       <c r="E1301" s="6"/>
       <c r="F1301" s="6"/>
-      <c r="G1301" s="7"/>
+      <c r="G1301" s="6"/>
       <c r="H1301" s="6"/>
       <c r="I1301" s="6"/>
     </row>
@@ -20912,7 +22098,7 @@
       <c r="D1302" s="6"/>
       <c r="E1302" s="6"/>
       <c r="F1302" s="6"/>
-      <c r="G1302" s="7"/>
+      <c r="G1302" s="6"/>
       <c r="H1302" s="6"/>
       <c r="I1302" s="6"/>
     </row>
@@ -20922,8 +22108,8 @@
       <c r="C1303" s="6"/>
       <c r="D1303" s="6"/>
       <c r="E1303" s="6"/>
-      <c r="F1303" s="7"/>
-      <c r="G1303" s="7"/>
+      <c r="F1303" s="6"/>
+      <c r="G1303" s="6"/>
       <c r="H1303" s="6"/>
       <c r="I1303" s="6"/>
     </row>
@@ -20934,7 +22120,7 @@
       <c r="D1304" s="6"/>
       <c r="E1304" s="6"/>
       <c r="F1304" s="6"/>
-      <c r="G1304" s="7"/>
+      <c r="G1304" s="6"/>
       <c r="H1304" s="6"/>
       <c r="I1304" s="6"/>
     </row>
@@ -20945,7 +22131,7 @@
       <c r="D1305" s="6"/>
       <c r="E1305" s="6"/>
       <c r="F1305" s="6"/>
-      <c r="G1305" s="7"/>
+      <c r="G1305" s="6"/>
       <c r="H1305" s="6"/>
       <c r="I1305" s="6"/>
     </row>
@@ -20956,7 +22142,7 @@
       <c r="D1306" s="6"/>
       <c r="E1306" s="6"/>
       <c r="F1306" s="6"/>
-      <c r="G1306" s="7"/>
+      <c r="G1306" s="6"/>
       <c r="H1306" s="6"/>
       <c r="I1306" s="6"/>
     </row>
@@ -20966,8 +22152,8 @@
       <c r="C1307" s="6"/>
       <c r="D1307" s="6"/>
       <c r="E1307" s="6"/>
-      <c r="F1307" s="7"/>
-      <c r="G1307" s="7"/>
+      <c r="F1307" s="6"/>
+      <c r="G1307" s="6"/>
       <c r="H1307" s="6"/>
       <c r="I1307" s="6"/>
     </row>
@@ -20978,7 +22164,7 @@
       <c r="D1308" s="6"/>
       <c r="E1308" s="6"/>
       <c r="F1308" s="6"/>
-      <c r="G1308" s="7"/>
+      <c r="G1308" s="6"/>
       <c r="H1308" s="6"/>
       <c r="I1308" s="6"/>
     </row>
@@ -20989,7 +22175,7 @@
       <c r="D1309" s="6"/>
       <c r="E1309" s="6"/>
       <c r="F1309" s="6"/>
-      <c r="G1309" s="7"/>
+      <c r="G1309" s="6"/>
       <c r="H1309" s="6"/>
       <c r="I1309" s="6"/>
     </row>
@@ -21000,7 +22186,7 @@
       <c r="D1310" s="6"/>
       <c r="E1310" s="6"/>
       <c r="F1310" s="6"/>
-      <c r="G1310" s="7"/>
+      <c r="G1310" s="6"/>
       <c r="H1310" s="6"/>
       <c r="I1310" s="6"/>
     </row>
@@ -21011,7 +22197,7 @@
       <c r="D1311" s="6"/>
       <c r="E1311" s="6"/>
       <c r="F1311" s="6"/>
-      <c r="G1311" s="7"/>
+      <c r="G1311" s="6"/>
       <c r="H1311" s="6"/>
       <c r="I1311" s="6"/>
     </row>
@@ -21022,7 +22208,7 @@
       <c r="D1312" s="6"/>
       <c r="E1312" s="6"/>
       <c r="F1312" s="6"/>
-      <c r="G1312" s="7"/>
+      <c r="G1312" s="6"/>
       <c r="H1312" s="6"/>
       <c r="I1312" s="6"/>
     </row>
@@ -21033,7 +22219,7 @@
       <c r="D1313" s="6"/>
       <c r="E1313" s="6"/>
       <c r="F1313" s="6"/>
-      <c r="G1313" s="7"/>
+      <c r="G1313" s="6"/>
       <c r="H1313" s="6"/>
       <c r="I1313" s="6"/>
     </row>
@@ -21043,8 +22229,8 @@
       <c r="C1314" s="6"/>
       <c r="D1314" s="6"/>
       <c r="E1314" s="6"/>
-      <c r="F1314" s="7"/>
-      <c r="G1314" s="7"/>
+      <c r="F1314" s="6"/>
+      <c r="G1314" s="6"/>
       <c r="H1314" s="6"/>
       <c r="I1314" s="6"/>
     </row>
@@ -21131,8 +22317,8 @@
       <c r="C1322" s="6"/>
       <c r="D1322" s="6"/>
       <c r="E1322" s="6"/>
-      <c r="F1322" s="7"/>
-      <c r="G1322" s="7"/>
+      <c r="F1322" s="6"/>
+      <c r="G1322" s="6"/>
       <c r="H1322" s="6"/>
       <c r="I1322" s="6"/>
     </row>
@@ -21230,8 +22416,8 @@
       <c r="C1331" s="6"/>
       <c r="D1331" s="6"/>
       <c r="E1331" s="6"/>
-      <c r="F1331" s="7"/>
-      <c r="G1331" s="7"/>
+      <c r="F1331" s="6"/>
+      <c r="G1331" s="6"/>
       <c r="H1331" s="6"/>
       <c r="I1331" s="6"/>
     </row>
@@ -21242,7 +22428,7 @@
       <c r="D1332" s="6"/>
       <c r="E1332" s="6"/>
       <c r="F1332" s="6"/>
-      <c r="G1332" s="7"/>
+      <c r="G1332" s="6"/>
       <c r="H1332" s="6"/>
       <c r="I1332" s="6"/>
     </row>
@@ -21253,7 +22439,7 @@
       <c r="D1333" s="6"/>
       <c r="E1333" s="6"/>
       <c r="F1333" s="6"/>
-      <c r="G1333" s="7"/>
+      <c r="G1333" s="6"/>
       <c r="H1333" s="6"/>
       <c r="I1333" s="6"/>
     </row>
@@ -21263,8 +22449,8 @@
       <c r="C1334" s="6"/>
       <c r="D1334" s="6"/>
       <c r="E1334" s="6"/>
-      <c r="F1334" s="7"/>
-      <c r="G1334" s="7"/>
+      <c r="F1334" s="6"/>
+      <c r="G1334" s="6"/>
       <c r="H1334" s="6"/>
       <c r="I1334" s="6"/>
     </row>
@@ -21275,7 +22461,7 @@
       <c r="D1335" s="6"/>
       <c r="E1335" s="6"/>
       <c r="F1335" s="6"/>
-      <c r="G1335" s="7"/>
+      <c r="G1335" s="6"/>
       <c r="H1335" s="6"/>
       <c r="I1335" s="6"/>
     </row>
@@ -21285,8 +22471,8 @@
       <c r="C1336" s="6"/>
       <c r="D1336" s="6"/>
       <c r="E1336" s="6"/>
-      <c r="F1336" s="7"/>
-      <c r="G1336" s="7"/>
+      <c r="F1336" s="6"/>
+      <c r="G1336" s="6"/>
       <c r="H1336" s="6"/>
       <c r="I1336" s="6"/>
     </row>
@@ -21297,7 +22483,7 @@
       <c r="D1337" s="6"/>
       <c r="E1337" s="6"/>
       <c r="F1337" s="6"/>
-      <c r="G1337" s="7"/>
+      <c r="G1337" s="6"/>
       <c r="H1337" s="6"/>
       <c r="I1337" s="6"/>
     </row>
@@ -21308,7 +22494,7 @@
       <c r="D1338" s="6"/>
       <c r="E1338" s="6"/>
       <c r="F1338" s="6"/>
-      <c r="G1338" s="7"/>
+      <c r="G1338" s="6"/>
       <c r="H1338" s="6"/>
       <c r="I1338" s="6"/>
     </row>
@@ -21318,8 +22504,8 @@
       <c r="C1339" s="6"/>
       <c r="D1339" s="6"/>
       <c r="E1339" s="6"/>
-      <c r="F1339" s="7"/>
-      <c r="G1339" s="7"/>
+      <c r="F1339" s="6"/>
+      <c r="G1339" s="6"/>
       <c r="H1339" s="6"/>
       <c r="I1339" s="6"/>
     </row>
@@ -21351,8 +22537,8 @@
       <c r="C1342" s="6"/>
       <c r="D1342" s="6"/>
       <c r="E1342" s="6"/>
-      <c r="F1342" s="7"/>
-      <c r="G1342" s="7"/>
+      <c r="F1342" s="6"/>
+      <c r="G1342" s="6"/>
       <c r="H1342" s="6"/>
       <c r="I1342" s="6"/>
     </row>
@@ -21363,7 +22549,7 @@
       <c r="D1343" s="6"/>
       <c r="E1343" s="6"/>
       <c r="F1343" s="6"/>
-      <c r="G1343" s="7"/>
+      <c r="G1343" s="6"/>
       <c r="H1343" s="6"/>
       <c r="I1343" s="6"/>
     </row>
@@ -21374,7 +22560,7 @@
       <c r="D1344" s="6"/>
       <c r="E1344" s="6"/>
       <c r="F1344" s="6"/>
-      <c r="G1344" s="7"/>
+      <c r="G1344" s="6"/>
       <c r="H1344" s="6"/>
       <c r="I1344" s="6"/>
     </row>
@@ -21384,8 +22570,8 @@
       <c r="C1345" s="6"/>
       <c r="D1345" s="6"/>
       <c r="E1345" s="6"/>
-      <c r="F1345" s="7"/>
-      <c r="G1345" s="7"/>
+      <c r="F1345" s="6"/>
+      <c r="G1345" s="6"/>
       <c r="H1345" s="6"/>
       <c r="I1345" s="6"/>
     </row>
@@ -21396,7 +22582,7 @@
       <c r="D1346" s="6"/>
       <c r="E1346" s="6"/>
       <c r="F1346" s="6"/>
-      <c r="G1346" s="7"/>
+      <c r="G1346" s="6"/>
       <c r="H1346" s="6"/>
       <c r="I1346" s="6"/>
     </row>
@@ -21407,7 +22593,7 @@
       <c r="D1347" s="6"/>
       <c r="E1347" s="6"/>
       <c r="F1347" s="6"/>
-      <c r="G1347" s="7"/>
+      <c r="G1347" s="6"/>
       <c r="H1347" s="6"/>
       <c r="I1347" s="6"/>
     </row>
@@ -21418,7 +22604,7 @@
       <c r="D1348" s="6"/>
       <c r="E1348" s="6"/>
       <c r="F1348" s="6"/>
-      <c r="G1348" s="7"/>
+      <c r="G1348" s="6"/>
       <c r="H1348" s="6"/>
       <c r="I1348" s="6"/>
     </row>
@@ -21429,7 +22615,7 @@
       <c r="D1349" s="6"/>
       <c r="E1349" s="6"/>
       <c r="F1349" s="6"/>
-      <c r="G1349" s="7"/>
+      <c r="G1349" s="6"/>
       <c r="H1349" s="6"/>
       <c r="I1349" s="6"/>
     </row>
@@ -21439,8 +22625,8 @@
       <c r="C1350" s="6"/>
       <c r="D1350" s="6"/>
       <c r="E1350" s="6"/>
-      <c r="F1350" s="7"/>
-      <c r="G1350" s="7"/>
+      <c r="F1350" s="6"/>
+      <c r="G1350" s="6"/>
       <c r="H1350" s="6"/>
       <c r="I1350" s="6"/>
     </row>
@@ -21451,7 +22637,7 @@
       <c r="D1351" s="6"/>
       <c r="E1351" s="6"/>
       <c r="F1351" s="6"/>
-      <c r="G1351" s="7"/>
+      <c r="G1351" s="6"/>
       <c r="H1351" s="6"/>
       <c r="I1351" s="6"/>
     </row>
@@ -21461,8 +22647,8 @@
       <c r="C1352" s="6"/>
       <c r="D1352" s="6"/>
       <c r="E1352" s="6"/>
-      <c r="F1352" s="7"/>
-      <c r="G1352" s="7"/>
+      <c r="F1352" s="6"/>
+      <c r="G1352" s="6"/>
       <c r="H1352" s="6"/>
       <c r="I1352" s="6"/>
     </row>
@@ -21473,7 +22659,7 @@
       <c r="D1353" s="6"/>
       <c r="E1353" s="6"/>
       <c r="F1353" s="6"/>
-      <c r="G1353" s="7"/>
+      <c r="G1353" s="6"/>
       <c r="H1353" s="6"/>
       <c r="I1353" s="6"/>
     </row>
@@ -21484,7 +22670,7 @@
       <c r="D1354" s="6"/>
       <c r="E1354" s="6"/>
       <c r="F1354" s="6"/>
-      <c r="G1354" s="7"/>
+      <c r="G1354" s="6"/>
       <c r="H1354" s="6"/>
       <c r="I1354" s="6"/>
     </row>
@@ -21495,7 +22681,7 @@
       <c r="D1355" s="6"/>
       <c r="E1355" s="6"/>
       <c r="F1355" s="6"/>
-      <c r="G1355" s="7"/>
+      <c r="G1355" s="6"/>
       <c r="H1355" s="6"/>
       <c r="I1355" s="6"/>
     </row>
@@ -21506,7 +22692,7 @@
       <c r="D1356" s="6"/>
       <c r="E1356" s="6"/>
       <c r="F1356" s="6"/>
-      <c r="G1356" s="7"/>
+      <c r="G1356" s="6"/>
       <c r="H1356" s="6"/>
       <c r="I1356" s="6"/>
     </row>
@@ -21516,8 +22702,8 @@
       <c r="C1357" s="6"/>
       <c r="D1357" s="6"/>
       <c r="E1357" s="6"/>
-      <c r="F1357" s="7"/>
-      <c r="G1357" s="7"/>
+      <c r="F1357" s="6"/>
+      <c r="G1357" s="6"/>
       <c r="H1357" s="6"/>
       <c r="I1357" s="6"/>
     </row>
@@ -21528,7 +22714,7 @@
       <c r="D1358" s="6"/>
       <c r="E1358" s="6"/>
       <c r="F1358" s="6"/>
-      <c r="G1358" s="7"/>
+      <c r="G1358" s="6"/>
       <c r="H1358" s="6"/>
       <c r="I1358" s="6"/>
     </row>
@@ -21539,7 +22725,7 @@
       <c r="D1359" s="6"/>
       <c r="E1359" s="6"/>
       <c r="F1359" s="6"/>
-      <c r="G1359" s="7"/>
+      <c r="G1359" s="6"/>
       <c r="H1359" s="6"/>
       <c r="I1359" s="6"/>
     </row>
@@ -21550,7 +22736,7 @@
       <c r="D1360" s="6"/>
       <c r="E1360" s="6"/>
       <c r="F1360" s="6"/>
-      <c r="G1360" s="7"/>
+      <c r="G1360" s="6"/>
       <c r="H1360" s="6"/>
       <c r="I1360" s="6"/>
     </row>
@@ -21561,7 +22747,7 @@
       <c r="D1361" s="6"/>
       <c r="E1361" s="6"/>
       <c r="F1361" s="6"/>
-      <c r="G1361" s="7"/>
+      <c r="G1361" s="6"/>
       <c r="H1361" s="6"/>
       <c r="I1361" s="6"/>
     </row>
@@ -21572,7 +22758,7 @@
       <c r="D1362" s="6"/>
       <c r="E1362" s="6"/>
       <c r="F1362" s="6"/>
-      <c r="G1362" s="7"/>
+      <c r="G1362" s="6"/>
       <c r="H1362" s="6"/>
       <c r="I1362" s="6"/>
     </row>
@@ -21583,7 +22769,7 @@
       <c r="D1363" s="6"/>
       <c r="E1363" s="6"/>
       <c r="F1363" s="6"/>
-      <c r="G1363" s="7"/>
+      <c r="G1363" s="6"/>
       <c r="H1363" s="6"/>
       <c r="I1363" s="6"/>
     </row>
@@ -21594,7 +22780,7 @@
       <c r="D1364" s="6"/>
       <c r="E1364" s="6"/>
       <c r="F1364" s="6"/>
-      <c r="G1364" s="7"/>
+      <c r="G1364" s="6"/>
       <c r="H1364" s="6"/>
       <c r="I1364" s="6"/>
     </row>
@@ -21604,8 +22790,8 @@
       <c r="C1365" s="6"/>
       <c r="D1365" s="6"/>
       <c r="E1365" s="6"/>
-      <c r="F1365" s="7"/>
-      <c r="G1365" s="7"/>
+      <c r="F1365" s="6"/>
+      <c r="G1365" s="6"/>
       <c r="H1365" s="6"/>
       <c r="I1365" s="6"/>
     </row>
@@ -21616,7 +22802,7 @@
       <c r="D1366" s="6"/>
       <c r="E1366" s="6"/>
       <c r="F1366" s="6"/>
-      <c r="G1366" s="7"/>
+      <c r="G1366" s="6"/>
       <c r="H1366" s="6"/>
       <c r="I1366" s="6"/>
     </row>
@@ -21627,7 +22813,7 @@
       <c r="D1367" s="6"/>
       <c r="E1367" s="6"/>
       <c r="F1367" s="6"/>
-      <c r="G1367" s="7"/>
+      <c r="G1367" s="6"/>
       <c r="H1367" s="6"/>
       <c r="I1367" s="6"/>
     </row>
@@ -21638,7 +22824,7 @@
       <c r="D1368" s="6"/>
       <c r="E1368" s="6"/>
       <c r="F1368" s="6"/>
-      <c r="G1368" s="7"/>
+      <c r="G1368" s="6"/>
       <c r="H1368" s="6"/>
       <c r="I1368" s="6"/>
     </row>
@@ -21649,7 +22835,7 @@
       <c r="D1369" s="6"/>
       <c r="E1369" s="6"/>
       <c r="F1369" s="6"/>
-      <c r="G1369" s="7"/>
+      <c r="G1369" s="6"/>
       <c r="H1369" s="6"/>
       <c r="I1369" s="6"/>
     </row>
@@ -21660,7 +22846,7 @@
       <c r="D1370" s="6"/>
       <c r="E1370" s="6"/>
       <c r="F1370" s="6"/>
-      <c r="G1370" s="7"/>
+      <c r="G1370" s="6"/>
       <c r="H1370" s="6"/>
       <c r="I1370" s="6"/>
     </row>
@@ -21671,7 +22857,7 @@
       <c r="D1371" s="6"/>
       <c r="E1371" s="6"/>
       <c r="F1371" s="6"/>
-      <c r="G1371" s="7"/>
+      <c r="G1371" s="6"/>
       <c r="H1371" s="6"/>
       <c r="I1371" s="6"/>
     </row>
@@ -21682,7 +22868,7 @@
       <c r="D1372" s="6"/>
       <c r="E1372" s="6"/>
       <c r="F1372" s="6"/>
-      <c r="G1372" s="7"/>
+      <c r="G1372" s="6"/>
       <c r="H1372" s="6"/>
       <c r="I1372" s="6"/>
     </row>
@@ -21693,7 +22879,7 @@
       <c r="D1373" s="6"/>
       <c r="E1373" s="6"/>
       <c r="F1373" s="6"/>
-      <c r="G1373" s="7"/>
+      <c r="G1373" s="6"/>
       <c r="H1373" s="6"/>
       <c r="I1373" s="6"/>
     </row>
@@ -21704,7 +22890,7 @@
       <c r="D1374" s="6"/>
       <c r="E1374" s="6"/>
       <c r="F1374" s="6"/>
-      <c r="G1374" s="7"/>
+      <c r="G1374" s="6"/>
       <c r="H1374" s="6"/>
       <c r="I1374" s="6"/>
     </row>
@@ -21715,7 +22901,7 @@
       <c r="D1375" s="6"/>
       <c r="E1375" s="6"/>
       <c r="F1375" s="6"/>
-      <c r="G1375" s="7"/>
+      <c r="G1375" s="6"/>
       <c r="H1375" s="6"/>
       <c r="I1375" s="6"/>
     </row>
@@ -21726,7 +22912,7 @@
       <c r="D1376" s="6"/>
       <c r="E1376" s="6"/>
       <c r="F1376" s="6"/>
-      <c r="G1376" s="7"/>
+      <c r="G1376" s="6"/>
       <c r="H1376" s="6"/>
       <c r="I1376" s="6"/>
     </row>
@@ -21736,8 +22922,8 @@
       <c r="C1377" s="6"/>
       <c r="D1377" s="6"/>
       <c r="E1377" s="6"/>
-      <c r="F1377" s="7"/>
-      <c r="G1377" s="7"/>
+      <c r="F1377" s="6"/>
+      <c r="G1377" s="6"/>
       <c r="H1377" s="6"/>
       <c r="I1377" s="6"/>
     </row>
@@ -21748,7 +22934,7 @@
       <c r="D1378" s="6"/>
       <c r="E1378" s="6"/>
       <c r="F1378" s="6"/>
-      <c r="G1378" s="7"/>
+      <c r="G1378" s="6"/>
       <c r="H1378" s="6"/>
       <c r="I1378" s="6"/>
     </row>
@@ -21759,7 +22945,7 @@
       <c r="D1379" s="6"/>
       <c r="E1379" s="6"/>
       <c r="F1379" s="6"/>
-      <c r="G1379" s="7"/>
+      <c r="G1379" s="6"/>
       <c r="H1379" s="6"/>
       <c r="I1379" s="6"/>
     </row>
@@ -21770,7 +22956,7 @@
       <c r="D1380" s="6"/>
       <c r="E1380" s="6"/>
       <c r="F1380" s="6"/>
-      <c r="G1380" s="7"/>
+      <c r="G1380" s="6"/>
       <c r="H1380" s="6"/>
       <c r="I1380" s="6"/>
     </row>
@@ -21781,7 +22967,7 @@
       <c r="D1381" s="6"/>
       <c r="E1381" s="6"/>
       <c r="F1381" s="6"/>
-      <c r="G1381" s="7"/>
+      <c r="G1381" s="6"/>
       <c r="H1381" s="6"/>
       <c r="I1381" s="6"/>
     </row>
@@ -21792,7 +22978,7 @@
       <c r="D1382" s="6"/>
       <c r="E1382" s="6"/>
       <c r="F1382" s="6"/>
-      <c r="G1382" s="7"/>
+      <c r="G1382" s="6"/>
       <c r="H1382" s="6"/>
       <c r="I1382" s="6"/>
     </row>
@@ -21803,7 +22989,7 @@
       <c r="D1383" s="6"/>
       <c r="E1383" s="6"/>
       <c r="F1383" s="6"/>
-      <c r="G1383" s="7"/>
+      <c r="G1383" s="6"/>
       <c r="H1383" s="6"/>
       <c r="I1383" s="6"/>
     </row>
@@ -21813,8 +22999,8 @@
       <c r="C1384" s="6"/>
       <c r="D1384" s="6"/>
       <c r="E1384" s="6"/>
-      <c r="F1384" s="7"/>
-      <c r="G1384" s="7"/>
+      <c r="F1384" s="6"/>
+      <c r="G1384" s="6"/>
       <c r="H1384" s="6"/>
       <c r="I1384" s="6"/>
     </row>
@@ -21825,7 +23011,7 @@
       <c r="D1385" s="6"/>
       <c r="E1385" s="6"/>
       <c r="F1385" s="6"/>
-      <c r="G1385" s="7"/>
+      <c r="G1385" s="6"/>
       <c r="H1385" s="6"/>
       <c r="I1385" s="6"/>
     </row>
@@ -21836,7 +23022,7 @@
       <c r="D1386" s="6"/>
       <c r="E1386" s="6"/>
       <c r="F1386" s="6"/>
-      <c r="G1386" s="7"/>
+      <c r="G1386" s="6"/>
       <c r="H1386" s="6"/>
       <c r="I1386" s="6"/>
     </row>
@@ -21847,7 +23033,7 @@
       <c r="D1387" s="6"/>
       <c r="E1387" s="6"/>
       <c r="F1387" s="6"/>
-      <c r="G1387" s="7"/>
+      <c r="G1387" s="6"/>
       <c r="H1387" s="6"/>
       <c r="I1387" s="6"/>
     </row>
@@ -21858,7 +23044,7 @@
       <c r="D1388" s="6"/>
       <c r="E1388" s="6"/>
       <c r="F1388" s="6"/>
-      <c r="G1388" s="7"/>
+      <c r="G1388" s="6"/>
       <c r="H1388" s="6"/>
       <c r="I1388" s="6"/>
     </row>
@@ -21868,8 +23054,8 @@
       <c r="C1389" s="6"/>
       <c r="D1389" s="6"/>
       <c r="E1389" s="6"/>
-      <c r="F1389" s="7"/>
-      <c r="G1389" s="7"/>
+      <c r="F1389" s="6"/>
+      <c r="G1389" s="6"/>
       <c r="H1389" s="6"/>
       <c r="I1389" s="6"/>
     </row>
@@ -21880,7 +23066,7 @@
       <c r="D1390" s="6"/>
       <c r="E1390" s="6"/>
       <c r="F1390" s="6"/>
-      <c r="G1390" s="7"/>
+      <c r="G1390" s="6"/>
       <c r="H1390" s="6"/>
       <c r="I1390" s="6"/>
     </row>
@@ -21891,7 +23077,7 @@
       <c r="D1391" s="6"/>
       <c r="E1391" s="6"/>
       <c r="F1391" s="6"/>
-      <c r="G1391" s="7"/>
+      <c r="G1391" s="6"/>
       <c r="H1391" s="6"/>
       <c r="I1391" s="6"/>
     </row>
@@ -21902,7 +23088,7 @@
       <c r="D1392" s="6"/>
       <c r="E1392" s="6"/>
       <c r="F1392" s="6"/>
-      <c r="G1392" s="7"/>
+      <c r="G1392" s="6"/>
       <c r="H1392" s="6"/>
       <c r="I1392" s="6"/>
     </row>
@@ -21913,7 +23099,7 @@
       <c r="D1393" s="6"/>
       <c r="E1393" s="6"/>
       <c r="F1393" s="6"/>
-      <c r="G1393" s="7"/>
+      <c r="G1393" s="6"/>
       <c r="H1393" s="6"/>
       <c r="I1393" s="6"/>
     </row>
@@ -21924,7 +23110,7 @@
       <c r="D1394" s="6"/>
       <c r="E1394" s="6"/>
       <c r="F1394" s="6"/>
-      <c r="G1394" s="7"/>
+      <c r="G1394" s="6"/>
       <c r="H1394" s="6"/>
       <c r="I1394" s="6"/>
     </row>
@@ -21934,8 +23120,8 @@
       <c r="C1395" s="6"/>
       <c r="D1395" s="6"/>
       <c r="E1395" s="6"/>
-      <c r="F1395" s="7"/>
-      <c r="G1395" s="7"/>
+      <c r="F1395" s="6"/>
+      <c r="G1395" s="6"/>
       <c r="H1395" s="6"/>
       <c r="I1395" s="6"/>
     </row>
@@ -21946,7 +23132,7 @@
       <c r="D1396" s="6"/>
       <c r="E1396" s="6"/>
       <c r="F1396" s="6"/>
-      <c r="G1396" s="7"/>
+      <c r="G1396" s="6"/>
       <c r="H1396" s="6"/>
       <c r="I1396" s="6"/>
     </row>
@@ -21957,7 +23143,7 @@
       <c r="D1397" s="6"/>
       <c r="E1397" s="6"/>
       <c r="F1397" s="6"/>
-      <c r="G1397" s="7"/>
+      <c r="G1397" s="6"/>
       <c r="H1397" s="6"/>
       <c r="I1397" s="6"/>
     </row>
@@ -21968,7 +23154,7 @@
       <c r="D1398" s="6"/>
       <c r="E1398" s="6"/>
       <c r="F1398" s="6"/>
-      <c r="G1398" s="7"/>
+      <c r="G1398" s="6"/>
       <c r="H1398" s="6"/>
       <c r="I1398" s="6"/>
     </row>
@@ -21979,7 +23165,7 @@
       <c r="D1399" s="6"/>
       <c r="E1399" s="6"/>
       <c r="F1399" s="6"/>
-      <c r="G1399" s="7"/>
+      <c r="G1399" s="6"/>
       <c r="H1399" s="6"/>
       <c r="I1399" s="6"/>
     </row>
@@ -21990,7 +23176,7 @@
       <c r="D1400" s="6"/>
       <c r="E1400" s="6"/>
       <c r="F1400" s="6"/>
-      <c r="G1400" s="7"/>
+      <c r="G1400" s="6"/>
       <c r="H1400" s="6"/>
       <c r="I1400" s="6"/>
     </row>
@@ -22001,7 +23187,7 @@
       <c r="D1401" s="6"/>
       <c r="E1401" s="6"/>
       <c r="F1401" s="6"/>
-      <c r="G1401" s="7"/>
+      <c r="G1401" s="6"/>
       <c r="H1401" s="6"/>
       <c r="I1401" s="6"/>
     </row>
@@ -22012,7 +23198,7 @@
       <c r="D1402" s="6"/>
       <c r="E1402" s="6"/>
       <c r="F1402" s="6"/>
-      <c r="G1402" s="7"/>
+      <c r="G1402" s="6"/>
       <c r="H1402" s="6"/>
       <c r="I1402" s="6"/>
     </row>
@@ -22022,8 +23208,8 @@
       <c r="C1403" s="6"/>
       <c r="D1403" s="6"/>
       <c r="E1403" s="6"/>
-      <c r="F1403" s="7"/>
-      <c r="G1403" s="7"/>
+      <c r="F1403" s="6"/>
+      <c r="G1403" s="6"/>
       <c r="H1403" s="6"/>
       <c r="I1403" s="6"/>
     </row>
@@ -22034,7 +23220,7 @@
       <c r="D1404" s="6"/>
       <c r="E1404" s="6"/>
       <c r="F1404" s="6"/>
-      <c r="G1404" s="7"/>
+      <c r="G1404" s="6"/>
       <c r="H1404" s="6"/>
       <c r="I1404" s="6"/>
     </row>
@@ -22045,7 +23231,7 @@
       <c r="D1405" s="6"/>
       <c r="E1405" s="6"/>
       <c r="F1405" s="6"/>
-      <c r="G1405" s="7"/>
+      <c r="G1405" s="6"/>
       <c r="H1405" s="6"/>
       <c r="I1405" s="6"/>
     </row>
@@ -22056,7 +23242,7 @@
       <c r="D1406" s="6"/>
       <c r="E1406" s="6"/>
       <c r="F1406" s="6"/>
-      <c r="G1406" s="7"/>
+      <c r="G1406" s="6"/>
       <c r="H1406" s="6"/>
       <c r="I1406" s="6"/>
     </row>
@@ -22067,7 +23253,7 @@
       <c r="D1407" s="6"/>
       <c r="E1407" s="6"/>
       <c r="F1407" s="6"/>
-      <c r="G1407" s="7"/>
+      <c r="G1407" s="6"/>
       <c r="H1407" s="6"/>
       <c r="I1407" s="6"/>
     </row>
@@ -22078,7 +23264,7 @@
       <c r="D1408" s="6"/>
       <c r="E1408" s="6"/>
       <c r="F1408" s="6"/>
-      <c r="G1408" s="7"/>
+      <c r="G1408" s="6"/>
       <c r="H1408" s="6"/>
       <c r="I1408" s="6"/>
     </row>
@@ -22089,7 +23275,7 @@
       <c r="D1409" s="6"/>
       <c r="E1409" s="6"/>
       <c r="F1409" s="6"/>
-      <c r="G1409" s="7"/>
+      <c r="G1409" s="6"/>
       <c r="H1409" s="6"/>
       <c r="I1409" s="6"/>
     </row>
@@ -22100,7 +23286,7 @@
       <c r="D1410" s="6"/>
       <c r="E1410" s="6"/>
       <c r="F1410" s="6"/>
-      <c r="G1410" s="7"/>
+      <c r="G1410" s="6"/>
       <c r="H1410" s="6"/>
       <c r="I1410" s="6"/>
     </row>
@@ -22111,7 +23297,7 @@
       <c r="D1411" s="6"/>
       <c r="E1411" s="6"/>
       <c r="F1411" s="6"/>
-      <c r="G1411" s="7"/>
+      <c r="G1411" s="6"/>
       <c r="H1411" s="6"/>
       <c r="I1411" s="6"/>
     </row>
@@ -22122,7 +23308,7 @@
       <c r="D1412" s="6"/>
       <c r="E1412" s="6"/>
       <c r="F1412" s="6"/>
-      <c r="G1412" s="7"/>
+      <c r="G1412" s="6"/>
       <c r="H1412" s="6"/>
       <c r="I1412" s="6"/>
     </row>
@@ -22132,8 +23318,8 @@
       <c r="C1413" s="6"/>
       <c r="D1413" s="6"/>
       <c r="E1413" s="6"/>
-      <c r="F1413" s="7"/>
-      <c r="G1413" s="7"/>
+      <c r="F1413" s="6"/>
+      <c r="G1413" s="6"/>
       <c r="H1413" s="6"/>
       <c r="I1413" s="6"/>
     </row>
@@ -22144,7 +23330,7 @@
       <c r="D1414" s="6"/>
       <c r="E1414" s="6"/>
       <c r="F1414" s="6"/>
-      <c r="G1414" s="7"/>
+      <c r="G1414" s="6"/>
       <c r="H1414" s="6"/>
       <c r="I1414" s="6"/>
     </row>
@@ -22155,7 +23341,7 @@
       <c r="D1415" s="6"/>
       <c r="E1415" s="6"/>
       <c r="F1415" s="6"/>
-      <c r="G1415" s="7"/>
+      <c r="G1415" s="6"/>
       <c r="H1415" s="6"/>
       <c r="I1415" s="6"/>
     </row>
@@ -22166,7 +23352,7 @@
       <c r="D1416" s="6"/>
       <c r="E1416" s="6"/>
       <c r="F1416" s="6"/>
-      <c r="G1416" s="7"/>
+      <c r="G1416" s="6"/>
       <c r="H1416" s="6"/>
       <c r="I1416" s="6"/>
     </row>
@@ -22177,7 +23363,7 @@
       <c r="D1417" s="6"/>
       <c r="E1417" s="6"/>
       <c r="F1417" s="6"/>
-      <c r="G1417" s="7"/>
+      <c r="G1417" s="6"/>
       <c r="H1417" s="6"/>
       <c r="I1417" s="6"/>
     </row>
@@ -22188,7 +23374,7 @@
       <c r="D1418" s="6"/>
       <c r="E1418" s="6"/>
       <c r="F1418" s="6"/>
-      <c r="G1418" s="7"/>
+      <c r="G1418" s="6"/>
       <c r="H1418" s="6"/>
       <c r="I1418" s="6"/>
     </row>
@@ -22199,7 +23385,7 @@
       <c r="D1419" s="6"/>
       <c r="E1419" s="6"/>
       <c r="F1419" s="6"/>
-      <c r="G1419" s="7"/>
+      <c r="G1419" s="6"/>
       <c r="H1419" s="6"/>
       <c r="I1419" s="6"/>
     </row>
@@ -22210,7 +23396,7 @@
       <c r="D1420" s="6"/>
       <c r="E1420" s="6"/>
       <c r="F1420" s="6"/>
-      <c r="G1420" s="7"/>
+      <c r="G1420" s="6"/>
       <c r="H1420" s="6"/>
       <c r="I1420" s="6"/>
     </row>
@@ -22221,7 +23407,7 @@
       <c r="D1421" s="6"/>
       <c r="E1421" s="6"/>
       <c r="F1421" s="6"/>
-      <c r="G1421" s="7"/>
+      <c r="G1421" s="6"/>
       <c r="H1421" s="6"/>
       <c r="I1421" s="6"/>
     </row>
@@ -22232,7 +23418,7 @@
       <c r="D1422" s="6"/>
       <c r="E1422" s="6"/>
       <c r="F1422" s="6"/>
-      <c r="G1422" s="7"/>
+      <c r="G1422" s="6"/>
       <c r="H1422" s="6"/>
       <c r="I1422" s="6"/>
     </row>
@@ -22243,7 +23429,7 @@
       <c r="D1423" s="6"/>
       <c r="E1423" s="6"/>
       <c r="F1423" s="6"/>
-      <c r="G1423" s="7"/>
+      <c r="G1423" s="6"/>
       <c r="H1423" s="6"/>
       <c r="I1423" s="6"/>
     </row>
@@ -22254,7 +23440,7 @@
       <c r="D1424" s="6"/>
       <c r="E1424" s="6"/>
       <c r="F1424" s="6"/>
-      <c r="G1424" s="7"/>
+      <c r="G1424" s="6"/>
       <c r="H1424" s="6"/>
       <c r="I1424" s="6"/>
     </row>
@@ -22265,7 +23451,7 @@
       <c r="D1425" s="6"/>
       <c r="E1425" s="6"/>
       <c r="F1425" s="6"/>
-      <c r="G1425" s="7"/>
+      <c r="G1425" s="6"/>
       <c r="H1425" s="6"/>
       <c r="I1425" s="6"/>
     </row>
@@ -22276,7 +23462,7 @@
       <c r="D1426" s="6"/>
       <c r="E1426" s="6"/>
       <c r="F1426" s="6"/>
-      <c r="G1426" s="7"/>
+      <c r="G1426" s="6"/>
       <c r="H1426" s="6"/>
       <c r="I1426" s="6"/>
     </row>
@@ -22287,7 +23473,7 @@
       <c r="D1427" s="6"/>
       <c r="E1427" s="6"/>
       <c r="F1427" s="6"/>
-      <c r="G1427" s="7"/>
+      <c r="G1427" s="6"/>
       <c r="H1427" s="6"/>
       <c r="I1427" s="6"/>
     </row>
@@ -22297,8 +23483,8 @@
       <c r="C1428" s="6"/>
       <c r="D1428" s="6"/>
       <c r="E1428" s="6"/>
-      <c r="F1428" s="7"/>
-      <c r="G1428" s="7"/>
+      <c r="F1428" s="6"/>
+      <c r="G1428" s="6"/>
       <c r="H1428" s="6"/>
       <c r="I1428" s="6"/>
     </row>
@@ -22309,7 +23495,7 @@
       <c r="D1429" s="6"/>
       <c r="E1429" s="6"/>
       <c r="F1429" s="6"/>
-      <c r="G1429" s="7"/>
+      <c r="G1429" s="6"/>
       <c r="H1429" s="6"/>
       <c r="I1429" s="6"/>
     </row>
@@ -22320,7 +23506,7 @@
       <c r="D1430" s="6"/>
       <c r="E1430" s="6"/>
       <c r="F1430" s="6"/>
-      <c r="G1430" s="7"/>
+      <c r="G1430" s="6"/>
       <c r="H1430" s="6"/>
       <c r="I1430" s="6"/>
     </row>
@@ -22331,7 +23517,7 @@
       <c r="D1431" s="6"/>
       <c r="E1431" s="6"/>
       <c r="F1431" s="6"/>
-      <c r="G1431" s="7"/>
+      <c r="G1431" s="6"/>
       <c r="H1431" s="6"/>
       <c r="I1431" s="6"/>
     </row>
@@ -22342,7 +23528,7 @@
       <c r="D1432" s="6"/>
       <c r="E1432" s="6"/>
       <c r="F1432" s="6"/>
-      <c r="G1432" s="7"/>
+      <c r="G1432" s="6"/>
       <c r="H1432" s="6"/>
       <c r="I1432" s="6"/>
     </row>
@@ -22353,7 +23539,7 @@
       <c r="D1433" s="6"/>
       <c r="E1433" s="6"/>
       <c r="F1433" s="6"/>
-      <c r="G1433" s="7"/>
+      <c r="G1433" s="6"/>
       <c r="H1433" s="6"/>
       <c r="I1433" s="6"/>
     </row>
@@ -22364,7 +23550,7 @@
       <c r="D1434" s="6"/>
       <c r="E1434" s="6"/>
       <c r="F1434" s="6"/>
-      <c r="G1434" s="7"/>
+      <c r="G1434" s="6"/>
       <c r="H1434" s="6"/>
       <c r="I1434" s="6"/>
     </row>
@@ -22375,7 +23561,7 @@
       <c r="D1435" s="6"/>
       <c r="E1435" s="6"/>
       <c r="F1435" s="6"/>
-      <c r="G1435" s="7"/>
+      <c r="G1435" s="6"/>
       <c r="H1435" s="6"/>
       <c r="I1435" s="6"/>
     </row>
@@ -22386,7 +23572,7 @@
       <c r="D1436" s="6"/>
       <c r="E1436" s="6"/>
       <c r="F1436" s="6"/>
-      <c r="G1436" s="7"/>
+      <c r="G1436" s="6"/>
       <c r="H1436" s="6"/>
       <c r="I1436" s="6"/>
     </row>
@@ -22397,7 +23583,7 @@
       <c r="D1437" s="6"/>
       <c r="E1437" s="6"/>
       <c r="F1437" s="6"/>
-      <c r="G1437" s="7"/>
+      <c r="G1437" s="6"/>
       <c r="H1437" s="6"/>
       <c r="I1437" s="6"/>
     </row>
@@ -22407,8 +23593,8 @@
       <c r="C1438" s="6"/>
       <c r="D1438" s="6"/>
       <c r="E1438" s="6"/>
-      <c r="F1438" s="7"/>
-      <c r="G1438" s="7"/>
+      <c r="F1438" s="6"/>
+      <c r="G1438" s="6"/>
       <c r="H1438" s="6"/>
       <c r="I1438" s="6"/>
     </row>
@@ -22419,7 +23605,7 @@
       <c r="D1439" s="6"/>
       <c r="E1439" s="6"/>
       <c r="F1439" s="6"/>
-      <c r="G1439" s="7"/>
+      <c r="G1439" s="6"/>
       <c r="H1439" s="6"/>
       <c r="I1439" s="6"/>
     </row>
@@ -22430,7 +23616,7 @@
       <c r="D1440" s="6"/>
       <c r="E1440" s="6"/>
       <c r="F1440" s="6"/>
-      <c r="G1440" s="7"/>
+      <c r="G1440" s="6"/>
       <c r="H1440" s="6"/>
       <c r="I1440" s="6"/>
     </row>
@@ -22441,7 +23627,7 @@
       <c r="D1441" s="6"/>
       <c r="E1441" s="6"/>
       <c r="F1441" s="6"/>
-      <c r="G1441" s="7"/>
+      <c r="G1441" s="6"/>
       <c r="H1441" s="6"/>
       <c r="I1441" s="6"/>
     </row>
@@ -22452,7 +23638,7 @@
       <c r="D1442" s="6"/>
       <c r="E1442" s="6"/>
       <c r="F1442" s="6"/>
-      <c r="G1442" s="7"/>
+      <c r="G1442" s="6"/>
       <c r="H1442" s="6"/>
       <c r="I1442" s="6"/>
     </row>
@@ -22463,7 +23649,7 @@
       <c r="D1443" s="6"/>
       <c r="E1443" s="6"/>
       <c r="F1443" s="6"/>
-      <c r="G1443" s="7"/>
+      <c r="G1443" s="6"/>
       <c r="H1443" s="6"/>
       <c r="I1443" s="6"/>
     </row>
@@ -22474,7 +23660,7 @@
       <c r="D1444" s="6"/>
       <c r="E1444" s="6"/>
       <c r="F1444" s="6"/>
-      <c r="G1444" s="7"/>
+      <c r="G1444" s="6"/>
       <c r="H1444" s="6"/>
       <c r="I1444" s="6"/>
     </row>
@@ -22485,7 +23671,7 @@
       <c r="D1445" s="6"/>
       <c r="E1445" s="6"/>
       <c r="F1445" s="6"/>
-      <c r="G1445" s="7"/>
+      <c r="G1445" s="6"/>
       <c r="H1445" s="6"/>
       <c r="I1445" s="6"/>
     </row>
@@ -22496,7 +23682,7 @@
       <c r="D1446" s="6"/>
       <c r="E1446" s="6"/>
       <c r="F1446" s="6"/>
-      <c r="G1446" s="7"/>
+      <c r="G1446" s="6"/>
       <c r="H1446" s="6"/>
       <c r="I1446" s="6"/>
     </row>
@@ -22507,7 +23693,7 @@
       <c r="D1447" s="6"/>
       <c r="E1447" s="6"/>
       <c r="F1447" s="6"/>
-      <c r="G1447" s="7"/>
+      <c r="G1447" s="6"/>
       <c r="H1447" s="6"/>
       <c r="I1447" s="6"/>
     </row>
@@ -22518,7 +23704,7 @@
       <c r="D1448" s="6"/>
       <c r="E1448" s="6"/>
       <c r="F1448" s="6"/>
-      <c r="G1448" s="7"/>
+      <c r="G1448" s="6"/>
       <c r="H1448" s="6"/>
       <c r="I1448" s="6"/>
     </row>
@@ -22529,7 +23715,7 @@
       <c r="D1449" s="6"/>
       <c r="E1449" s="6"/>
       <c r="F1449" s="6"/>
-      <c r="G1449" s="7"/>
+      <c r="G1449" s="6"/>
       <c r="H1449" s="6"/>
       <c r="I1449" s="6"/>
     </row>
@@ -22540,7 +23726,7 @@
       <c r="D1450" s="6"/>
       <c r="E1450" s="6"/>
       <c r="F1450" s="6"/>
-      <c r="G1450" s="7"/>
+      <c r="G1450" s="6"/>
       <c r="H1450" s="6"/>
       <c r="I1450" s="6"/>
     </row>
@@ -22551,7 +23737,7 @@
       <c r="D1451" s="6"/>
       <c r="E1451" s="6"/>
       <c r="F1451" s="6"/>
-      <c r="G1451" s="7"/>
+      <c r="G1451" s="6"/>
       <c r="H1451" s="6"/>
       <c r="I1451" s="6"/>
     </row>
@@ -22562,7 +23748,7 @@
       <c r="D1452" s="6"/>
       <c r="E1452" s="6"/>
       <c r="F1452" s="6"/>
-      <c r="G1452" s="7"/>
+      <c r="G1452" s="6"/>
       <c r="H1452" s="6"/>
       <c r="I1452" s="6"/>
     </row>
@@ -22572,8 +23758,8 @@
       <c r="C1453" s="6"/>
       <c r="D1453" s="6"/>
       <c r="E1453" s="6"/>
-      <c r="F1453" s="7"/>
-      <c r="G1453" s="7"/>
+      <c r="F1453" s="6"/>
+      <c r="G1453" s="6"/>
       <c r="H1453" s="6"/>
       <c r="I1453" s="6"/>
     </row>
@@ -22584,7 +23770,7 @@
       <c r="D1454" s="6"/>
       <c r="E1454" s="6"/>
       <c r="F1454" s="6"/>
-      <c r="G1454" s="7"/>
+      <c r="G1454" s="6"/>
       <c r="H1454" s="6"/>
       <c r="I1454" s="6"/>
     </row>
@@ -22595,7 +23781,7 @@
       <c r="D1455" s="6"/>
       <c r="E1455" s="6"/>
       <c r="F1455" s="6"/>
-      <c r="G1455" s="7"/>
+      <c r="G1455" s="6"/>
       <c r="H1455" s="6"/>
       <c r="I1455" s="6"/>
     </row>
@@ -22606,7 +23792,7 @@
       <c r="D1456" s="6"/>
       <c r="E1456" s="6"/>
       <c r="F1456" s="6"/>
-      <c r="G1456" s="7"/>
+      <c r="G1456" s="6"/>
       <c r="H1456" s="6"/>
       <c r="I1456" s="6"/>
     </row>
@@ -22616,8 +23802,8 @@
       <c r="C1457" s="6"/>
       <c r="D1457" s="6"/>
       <c r="E1457" s="6"/>
-      <c r="F1457" s="7"/>
-      <c r="G1457" s="7"/>
+      <c r="F1457" s="6"/>
+      <c r="G1457" s="6"/>
       <c r="H1457" s="6"/>
       <c r="I1457" s="6"/>
     </row>
@@ -22628,7 +23814,7 @@
       <c r="D1458" s="6"/>
       <c r="E1458" s="6"/>
       <c r="F1458" s="6"/>
-      <c r="G1458" s="7"/>
+      <c r="G1458" s="6"/>
       <c r="H1458" s="6"/>
       <c r="I1458" s="6"/>
     </row>
@@ -22639,7 +23825,7 @@
       <c r="D1459" s="6"/>
       <c r="E1459" s="6"/>
       <c r="F1459" s="6"/>
-      <c r="G1459" s="7"/>
+      <c r="G1459" s="6"/>
       <c r="H1459" s="6"/>
       <c r="I1459" s="6"/>
     </row>
@@ -22649,8 +23835,8 @@
       <c r="C1460" s="6"/>
       <c r="D1460" s="6"/>
       <c r="E1460" s="6"/>
-      <c r="F1460" s="7"/>
-      <c r="G1460" s="7"/>
+      <c r="F1460" s="6"/>
+      <c r="G1460" s="6"/>
       <c r="H1460" s="6"/>
       <c r="I1460" s="6"/>
     </row>
@@ -22661,7 +23847,7 @@
       <c r="D1461" s="6"/>
       <c r="E1461" s="6"/>
       <c r="F1461" s="6"/>
-      <c r="G1461" s="7"/>
+      <c r="G1461" s="6"/>
       <c r="H1461" s="6"/>
       <c r="I1461" s="6"/>
     </row>
@@ -22672,7 +23858,7 @@
       <c r="D1462" s="6"/>
       <c r="E1462" s="6"/>
       <c r="F1462" s="6"/>
-      <c r="G1462" s="7"/>
+      <c r="G1462" s="6"/>
       <c r="H1462" s="6"/>
       <c r="I1462" s="6"/>
     </row>
@@ -22683,7 +23869,7 @@
       <c r="D1463" s="6"/>
       <c r="E1463" s="6"/>
       <c r="F1463" s="6"/>
-      <c r="G1463" s="7"/>
+      <c r="G1463" s="6"/>
       <c r="H1463" s="6"/>
       <c r="I1463" s="6"/>
     </row>
@@ -22694,7 +23880,7 @@
       <c r="D1464" s="6"/>
       <c r="E1464" s="6"/>
       <c r="F1464" s="6"/>
-      <c r="G1464" s="7"/>
+      <c r="G1464" s="6"/>
       <c r="H1464" s="6"/>
       <c r="I1464" s="6"/>
     </row>
@@ -22705,7 +23891,7 @@
       <c r="D1465" s="6"/>
       <c r="E1465" s="6"/>
       <c r="F1465" s="6"/>
-      <c r="G1465" s="7"/>
+      <c r="G1465" s="6"/>
       <c r="H1465" s="6"/>
       <c r="I1465" s="6"/>
     </row>
@@ -22716,7 +23902,7 @@
       <c r="D1466" s="6"/>
       <c r="E1466" s="6"/>
       <c r="F1466" s="6"/>
-      <c r="G1466" s="7"/>
+      <c r="G1466" s="6"/>
       <c r="H1466" s="6"/>
       <c r="I1466" s="6"/>
     </row>
@@ -22727,7 +23913,7 @@
       <c r="D1467" s="6"/>
       <c r="E1467" s="6"/>
       <c r="F1467" s="6"/>
-      <c r="G1467" s="7"/>
+      <c r="G1467" s="6"/>
       <c r="H1467" s="6"/>
       <c r="I1467" s="6"/>
     </row>
@@ -22737,8 +23923,8 @@
       <c r="C1468" s="6"/>
       <c r="D1468" s="6"/>
       <c r="E1468" s="6"/>
-      <c r="F1468" s="7"/>
-      <c r="G1468" s="7"/>
+      <c r="F1468" s="6"/>
+      <c r="G1468" s="6"/>
       <c r="H1468" s="6"/>
       <c r="I1468" s="6"/>
     </row>
@@ -22749,7 +23935,7 @@
       <c r="D1469" s="6"/>
       <c r="E1469" s="6"/>
       <c r="F1469" s="6"/>
-      <c r="G1469" s="7"/>
+      <c r="G1469" s="6"/>
       <c r="H1469" s="6"/>
       <c r="I1469" s="6"/>
     </row>
@@ -22760,7 +23946,7 @@
       <c r="D1470" s="6"/>
       <c r="E1470" s="6"/>
       <c r="F1470" s="6"/>
-      <c r="G1470" s="7"/>
+      <c r="G1470" s="6"/>
       <c r="H1470" s="6"/>
       <c r="I1470" s="6"/>
     </row>
@@ -22771,7 +23957,7 @@
       <c r="D1471" s="6"/>
       <c r="E1471" s="6"/>
       <c r="F1471" s="6"/>
-      <c r="G1471" s="7"/>
+      <c r="G1471" s="6"/>
       <c r="H1471" s="6"/>
       <c r="I1471" s="6"/>
     </row>
@@ -22782,7 +23968,7 @@
       <c r="D1472" s="6"/>
       <c r="E1472" s="6"/>
       <c r="F1472" s="6"/>
-      <c r="G1472" s="7"/>
+      <c r="G1472" s="6"/>
       <c r="H1472" s="6"/>
       <c r="I1472" s="6"/>
     </row>
@@ -22792,8 +23978,8 @@
       <c r="C1473" s="6"/>
       <c r="D1473" s="6"/>
       <c r="E1473" s="6"/>
-      <c r="F1473" s="7"/>
-      <c r="G1473" s="7"/>
+      <c r="F1473" s="6"/>
+      <c r="G1473" s="6"/>
       <c r="H1473" s="6"/>
       <c r="I1473" s="6"/>
     </row>
@@ -22804,7 +23990,7 @@
       <c r="D1474" s="6"/>
       <c r="E1474" s="6"/>
       <c r="F1474" s="6"/>
-      <c r="G1474" s="7"/>
+      <c r="G1474" s="6"/>
       <c r="H1474" s="6"/>
       <c r="I1474" s="6"/>
     </row>
@@ -22815,7 +24001,7 @@
       <c r="D1475" s="6"/>
       <c r="E1475" s="6"/>
       <c r="F1475" s="6"/>
-      <c r="G1475" s="7"/>
+      <c r="G1475" s="6"/>
       <c r="H1475" s="6"/>
       <c r="I1475" s="6"/>
     </row>
@@ -22826,7 +24012,7 @@
       <c r="D1476" s="6"/>
       <c r="E1476" s="6"/>
       <c r="F1476" s="6"/>
-      <c r="G1476" s="7"/>
+      <c r="G1476" s="6"/>
       <c r="H1476" s="6"/>
       <c r="I1476" s="6"/>
     </row>
@@ -22837,7 +24023,7 @@
       <c r="D1477" s="6"/>
       <c r="E1477" s="6"/>
       <c r="F1477" s="6"/>
-      <c r="G1477" s="7"/>
+      <c r="G1477" s="6"/>
       <c r="H1477" s="6"/>
       <c r="I1477" s="6"/>
     </row>
@@ -22847,8 +24033,8 @@
       <c r="C1478" s="6"/>
       <c r="D1478" s="6"/>
       <c r="E1478" s="6"/>
-      <c r="F1478" s="7"/>
-      <c r="G1478" s="7"/>
+      <c r="F1478" s="6"/>
+      <c r="G1478" s="6"/>
       <c r="H1478" s="6"/>
       <c r="I1478" s="6"/>
     </row>
@@ -22859,7 +24045,7 @@
       <c r="D1479" s="6"/>
       <c r="E1479" s="6"/>
       <c r="F1479" s="6"/>
-      <c r="G1479" s="7"/>
+      <c r="G1479" s="6"/>
       <c r="H1479" s="6"/>
       <c r="I1479" s="6"/>
     </row>
@@ -22869,8 +24055,8 @@
       <c r="C1480" s="6"/>
       <c r="D1480" s="6"/>
       <c r="E1480" s="6"/>
-      <c r="F1480" s="7"/>
-      <c r="G1480" s="7"/>
+      <c r="F1480" s="6"/>
+      <c r="G1480" s="6"/>
       <c r="H1480" s="6"/>
       <c r="I1480" s="6"/>
     </row>
@@ -22881,7 +24067,7 @@
       <c r="D1481" s="6"/>
       <c r="E1481" s="6"/>
       <c r="F1481" s="6"/>
-      <c r="G1481" s="7"/>
+      <c r="G1481" s="6"/>
       <c r="H1481" s="6"/>
       <c r="I1481" s="6"/>
     </row>
@@ -22892,7 +24078,7 @@
       <c r="D1482" s="6"/>
       <c r="E1482" s="6"/>
       <c r="F1482" s="6"/>
-      <c r="G1482" s="7"/>
+      <c r="G1482" s="6"/>
       <c r="H1482" s="6"/>
       <c r="I1482" s="6"/>
     </row>
@@ -22903,7 +24089,7 @@
       <c r="D1483" s="6"/>
       <c r="E1483" s="6"/>
       <c r="F1483" s="6"/>
-      <c r="G1483" s="7"/>
+      <c r="G1483" s="6"/>
       <c r="H1483" s="6"/>
       <c r="I1483" s="6"/>
     </row>
@@ -22914,7 +24100,7 @@
       <c r="D1484" s="6"/>
       <c r="E1484" s="6"/>
       <c r="F1484" s="6"/>
-      <c r="G1484" s="7"/>
+      <c r="G1484" s="6"/>
       <c r="H1484" s="6"/>
       <c r="I1484" s="6"/>
     </row>
@@ -22924,8 +24110,8 @@
       <c r="C1485" s="6"/>
       <c r="D1485" s="6"/>
       <c r="E1485" s="6"/>
-      <c r="F1485" s="7"/>
-      <c r="G1485" s="7"/>
+      <c r="F1485" s="6"/>
+      <c r="G1485" s="6"/>
       <c r="H1485" s="6"/>
       <c r="I1485" s="6"/>
     </row>
@@ -22936,7 +24122,7 @@
       <c r="D1486" s="6"/>
       <c r="E1486" s="6"/>
       <c r="F1486" s="6"/>
-      <c r="G1486" s="7"/>
+      <c r="G1486" s="6"/>
       <c r="H1486" s="6"/>
       <c r="I1486" s="6"/>
     </row>
@@ -22947,7 +24133,7 @@
       <c r="D1487" s="6"/>
       <c r="E1487" s="6"/>
       <c r="F1487" s="6"/>
-      <c r="G1487" s="7"/>
+      <c r="G1487" s="6"/>
       <c r="H1487" s="6"/>
       <c r="I1487" s="6"/>
     </row>
@@ -22958,7 +24144,7 @@
       <c r="D1488" s="6"/>
       <c r="E1488" s="6"/>
       <c r="F1488" s="6"/>
-      <c r="G1488" s="7"/>
+      <c r="G1488" s="6"/>
       <c r="H1488" s="6"/>
       <c r="I1488" s="6"/>
     </row>
@@ -22969,7 +24155,7 @@
       <c r="D1489" s="6"/>
       <c r="E1489" s="6"/>
       <c r="F1489" s="6"/>
-      <c r="G1489" s="7"/>
+      <c r="G1489" s="6"/>
       <c r="H1489" s="6"/>
       <c r="I1489" s="6"/>
     </row>
@@ -22980,7 +24166,7 @@
       <c r="D1490" s="6"/>
       <c r="E1490" s="6"/>
       <c r="F1490" s="6"/>
-      <c r="G1490" s="7"/>
+      <c r="G1490" s="6"/>
       <c r="H1490" s="6"/>
       <c r="I1490" s="6"/>
     </row>
@@ -22991,7 +24177,7 @@
       <c r="D1491" s="6"/>
       <c r="E1491" s="6"/>
       <c r="F1491" s="6"/>
-      <c r="G1491" s="7"/>
+      <c r="G1491" s="6"/>
       <c r="H1491" s="6"/>
       <c r="I1491" s="6"/>
     </row>
@@ -23002,7 +24188,7 @@
       <c r="D1492" s="6"/>
       <c r="E1492" s="6"/>
       <c r="F1492" s="6"/>
-      <c r="G1492" s="7"/>
+      <c r="G1492" s="6"/>
       <c r="H1492" s="6"/>
       <c r="I1492" s="6"/>
     </row>
@@ -23012,8 +24198,8 @@
       <c r="C1493" s="6"/>
       <c r="D1493" s="6"/>
       <c r="E1493" s="6"/>
-      <c r="F1493" s="7"/>
-      <c r="G1493" s="7"/>
+      <c r="F1493" s="6"/>
+      <c r="G1493" s="6"/>
       <c r="H1493" s="6"/>
       <c r="I1493" s="6"/>
     </row>
@@ -23024,7 +24210,7 @@
       <c r="D1494" s="6"/>
       <c r="E1494" s="6"/>
       <c r="F1494" s="6"/>
-      <c r="G1494" s="7"/>
+      <c r="G1494" s="6"/>
       <c r="H1494" s="6"/>
       <c r="I1494" s="6"/>
     </row>
@@ -23035,7 +24221,7 @@
       <c r="D1495" s="6"/>
       <c r="E1495" s="6"/>
       <c r="F1495" s="6"/>
-      <c r="G1495" s="7"/>
+      <c r="G1495" s="6"/>
       <c r="H1495" s="6"/>
       <c r="I1495" s="6"/>
     </row>
@@ -23046,7 +24232,7 @@
       <c r="D1496" s="6"/>
       <c r="E1496" s="6"/>
       <c r="F1496" s="6"/>
-      <c r="G1496" s="7"/>
+      <c r="G1496" s="6"/>
       <c r="H1496" s="6"/>
       <c r="I1496" s="6"/>
     </row>
@@ -23057,7 +24243,7 @@
       <c r="D1497" s="6"/>
       <c r="E1497" s="6"/>
       <c r="F1497" s="6"/>
-      <c r="G1497" s="7"/>
+      <c r="G1497" s="6"/>
       <c r="H1497" s="6"/>
       <c r="I1497" s="6"/>
     </row>
@@ -23067,8 +24253,8 @@
       <c r="C1498" s="6"/>
       <c r="D1498" s="6"/>
       <c r="E1498" s="6"/>
-      <c r="F1498" s="7"/>
-      <c r="G1498" s="7"/>
+      <c r="F1498" s="6"/>
+      <c r="G1498" s="6"/>
       <c r="H1498" s="6"/>
       <c r="I1498" s="6"/>
     </row>
@@ -23079,7 +24265,7 @@
       <c r="D1499" s="6"/>
       <c r="E1499" s="6"/>
       <c r="F1499" s="6"/>
-      <c r="G1499" s="7"/>
+      <c r="G1499" s="6"/>
       <c r="H1499" s="6"/>
       <c r="I1499" s="6"/>
     </row>
@@ -23090,7 +24276,7 @@
       <c r="D1500" s="6"/>
       <c r="E1500" s="6"/>
       <c r="F1500" s="6"/>
-      <c r="G1500" s="7"/>
+      <c r="G1500" s="6"/>
       <c r="H1500" s="6"/>
       <c r="I1500" s="6"/>
     </row>
@@ -23101,7 +24287,7 @@
       <c r="D1501" s="6"/>
       <c r="E1501" s="6"/>
       <c r="F1501" s="6"/>
-      <c r="G1501" s="7"/>
+      <c r="G1501" s="6"/>
       <c r="H1501" s="6"/>
       <c r="I1501" s="6"/>
     </row>
@@ -23111,8 +24297,8 @@
       <c r="C1502" s="6"/>
       <c r="D1502" s="6"/>
       <c r="E1502" s="6"/>
-      <c r="F1502" s="7"/>
-      <c r="G1502" s="7"/>
+      <c r="F1502" s="6"/>
+      <c r="G1502" s="6"/>
       <c r="H1502" s="6"/>
       <c r="I1502" s="6"/>
     </row>
@@ -23123,7 +24309,7 @@
       <c r="D1503" s="6"/>
       <c r="E1503" s="6"/>
       <c r="F1503" s="6"/>
-      <c r="G1503" s="7"/>
+      <c r="G1503" s="6"/>
       <c r="H1503" s="6"/>
       <c r="I1503" s="6"/>
     </row>
@@ -23134,7 +24320,7 @@
       <c r="D1504" s="6"/>
       <c r="E1504" s="6"/>
       <c r="F1504" s="6"/>
-      <c r="G1504" s="7"/>
+      <c r="G1504" s="6"/>
       <c r="H1504" s="6"/>
       <c r="I1504" s="6"/>
     </row>
@@ -23145,7 +24331,7 @@
       <c r="D1505" s="6"/>
       <c r="E1505" s="6"/>
       <c r="F1505" s="6"/>
-      <c r="G1505" s="7"/>
+      <c r="G1505" s="6"/>
       <c r="H1505" s="6"/>
       <c r="I1505" s="6"/>
     </row>
@@ -23155,8 +24341,8 @@
       <c r="C1506" s="6"/>
       <c r="D1506" s="6"/>
       <c r="E1506" s="6"/>
-      <c r="F1506" s="7"/>
-      <c r="G1506" s="7"/>
+      <c r="F1506" s="6"/>
+      <c r="G1506" s="6"/>
       <c r="H1506" s="6"/>
       <c r="I1506" s="6"/>
     </row>
@@ -23167,7 +24353,7 @@
       <c r="D1507" s="6"/>
       <c r="E1507" s="6"/>
       <c r="F1507" s="6"/>
-      <c r="G1507" s="7"/>
+      <c r="G1507" s="6"/>
       <c r="H1507" s="6"/>
       <c r="I1507" s="6"/>
     </row>
@@ -23178,7 +24364,7 @@
       <c r="D1508" s="6"/>
       <c r="E1508" s="6"/>
       <c r="F1508" s="6"/>
-      <c r="G1508" s="7"/>
+      <c r="G1508" s="6"/>
       <c r="H1508" s="6"/>
       <c r="I1508" s="6"/>
     </row>
@@ -23189,7 +24375,7 @@
       <c r="D1509" s="6"/>
       <c r="E1509" s="6"/>
       <c r="F1509" s="6"/>
-      <c r="G1509" s="7"/>
+      <c r="G1509" s="6"/>
       <c r="H1509" s="6"/>
       <c r="I1509" s="6"/>
     </row>
@@ -23199,8 +24385,8 @@
       <c r="C1510" s="6"/>
       <c r="D1510" s="6"/>
       <c r="E1510" s="6"/>
-      <c r="F1510" s="7"/>
-      <c r="G1510" s="7"/>
+      <c r="F1510" s="6"/>
+      <c r="G1510" s="6"/>
       <c r="H1510" s="6"/>
       <c r="I1510" s="6"/>
     </row>
@@ -23211,7 +24397,7 @@
       <c r="D1511" s="6"/>
       <c r="E1511" s="6"/>
       <c r="F1511" s="6"/>
-      <c r="G1511" s="7"/>
+      <c r="G1511" s="6"/>
       <c r="H1511" s="6"/>
       <c r="I1511" s="6"/>
     </row>
@@ -23222,7 +24408,7 @@
       <c r="D1512" s="6"/>
       <c r="E1512" s="6"/>
       <c r="F1512" s="6"/>
-      <c r="G1512" s="7"/>
+      <c r="G1512" s="6"/>
       <c r="H1512" s="6"/>
       <c r="I1512" s="6"/>
     </row>
@@ -23232,8 +24418,8 @@
       <c r="C1513" s="6"/>
       <c r="D1513" s="6"/>
       <c r="E1513" s="6"/>
-      <c r="F1513" s="7"/>
-      <c r="G1513" s="7"/>
+      <c r="F1513" s="6"/>
+      <c r="G1513" s="6"/>
       <c r="H1513" s="6"/>
       <c r="I1513" s="6"/>
     </row>
@@ -23244,7 +24430,7 @@
       <c r="D1514" s="6"/>
       <c r="E1514" s="6"/>
       <c r="F1514" s="6"/>
-      <c r="G1514" s="7"/>
+      <c r="G1514" s="6"/>
       <c r="H1514" s="6"/>
       <c r="I1514" s="6"/>
     </row>
@@ -23255,7 +24441,7 @@
       <c r="D1515" s="6"/>
       <c r="E1515" s="6"/>
       <c r="F1515" s="6"/>
-      <c r="G1515" s="7"/>
+      <c r="G1515" s="6"/>
       <c r="H1515" s="6"/>
       <c r="I1515" s="6"/>
     </row>
@@ -23266,7 +24452,7 @@
       <c r="D1516" s="6"/>
       <c r="E1516" s="6"/>
       <c r="F1516" s="6"/>
-      <c r="G1516" s="7"/>
+      <c r="G1516" s="6"/>
       <c r="H1516" s="6"/>
       <c r="I1516" s="6"/>
     </row>
@@ -23277,7 +24463,7 @@
       <c r="D1517" s="6"/>
       <c r="E1517" s="6"/>
       <c r="F1517" s="6"/>
-      <c r="G1517" s="7"/>
+      <c r="G1517" s="6"/>
       <c r="H1517" s="6"/>
       <c r="I1517" s="6"/>
     </row>
@@ -23288,7 +24474,7 @@
       <c r="D1518" s="6"/>
       <c r="E1518" s="6"/>
       <c r="F1518" s="6"/>
-      <c r="G1518" s="7"/>
+      <c r="G1518" s="6"/>
       <c r="H1518" s="6"/>
       <c r="I1518" s="6"/>
     </row>
@@ -23299,7 +24485,7 @@
       <c r="D1519" s="6"/>
       <c r="E1519" s="6"/>
       <c r="F1519" s="6"/>
-      <c r="G1519" s="7"/>
+      <c r="G1519" s="6"/>
       <c r="H1519" s="6"/>
       <c r="I1519" s="6"/>
     </row>
@@ -23310,7 +24496,7 @@
       <c r="D1520" s="6"/>
       <c r="E1520" s="6"/>
       <c r="F1520" s="6"/>
-      <c r="G1520" s="7"/>
+      <c r="G1520" s="6"/>
       <c r="H1520" s="6"/>
       <c r="I1520" s="6"/>
     </row>
@@ -23321,7 +24507,7 @@
       <c r="D1521" s="6"/>
       <c r="E1521" s="6"/>
       <c r="F1521" s="6"/>
-      <c r="G1521" s="7"/>
+      <c r="G1521" s="6"/>
       <c r="H1521" s="6"/>
       <c r="I1521" s="6"/>
     </row>
@@ -23332,7 +24518,7 @@
       <c r="D1522" s="6"/>
       <c r="E1522" s="6"/>
       <c r="F1522" s="6"/>
-      <c r="G1522" s="7"/>
+      <c r="G1522" s="6"/>
       <c r="H1522" s="6"/>
       <c r="I1522" s="6"/>
     </row>
@@ -23343,7 +24529,7 @@
       <c r="D1523" s="6"/>
       <c r="E1523" s="6"/>
       <c r="F1523" s="6"/>
-      <c r="G1523" s="7"/>
+      <c r="G1523" s="6"/>
       <c r="H1523" s="6"/>
       <c r="I1523" s="6"/>
     </row>
@@ -23354,7 +24540,7 @@
       <c r="D1524" s="6"/>
       <c r="E1524" s="6"/>
       <c r="F1524" s="6"/>
-      <c r="G1524" s="7"/>
+      <c r="G1524" s="6"/>
       <c r="H1524" s="6"/>
       <c r="I1524" s="6"/>
     </row>
@@ -23365,7 +24551,7 @@
       <c r="D1525" s="6"/>
       <c r="E1525" s="6"/>
       <c r="F1525" s="6"/>
-      <c r="G1525" s="7"/>
+      <c r="G1525" s="6"/>
       <c r="H1525" s="6"/>
       <c r="I1525" s="6"/>
     </row>
@@ -23376,7 +24562,7 @@
       <c r="D1526" s="6"/>
       <c r="E1526" s="6"/>
       <c r="F1526" s="6"/>
-      <c r="G1526" s="7"/>
+      <c r="G1526" s="6"/>
       <c r="H1526" s="6"/>
       <c r="I1526" s="6"/>
     </row>
@@ -23386,8 +24572,8 @@
       <c r="C1527" s="6"/>
       <c r="D1527" s="6"/>
       <c r="E1527" s="6"/>
-      <c r="F1527" s="7"/>
-      <c r="G1527" s="7"/>
+      <c r="F1527" s="6"/>
+      <c r="G1527" s="6"/>
       <c r="H1527" s="6"/>
       <c r="I1527" s="6"/>
     </row>
@@ -23398,7 +24584,7 @@
       <c r="D1528" s="6"/>
       <c r="E1528" s="6"/>
       <c r="F1528" s="6"/>
-      <c r="G1528" s="7"/>
+      <c r="G1528" s="6"/>
       <c r="H1528" s="6"/>
       <c r="I1528" s="6"/>
     </row>
@@ -23409,7 +24595,7 @@
       <c r="D1529" s="6"/>
       <c r="E1529" s="6"/>
       <c r="F1529" s="6"/>
-      <c r="G1529" s="7"/>
+      <c r="G1529" s="6"/>
       <c r="H1529" s="6"/>
       <c r="I1529" s="6"/>
     </row>
@@ -23419,8 +24605,8 @@
       <c r="C1530" s="6"/>
       <c r="D1530" s="6"/>
       <c r="E1530" s="6"/>
-      <c r="F1530" s="7"/>
-      <c r="G1530" s="7"/>
+      <c r="F1530" s="6"/>
+      <c r="G1530" s="6"/>
       <c r="H1530" s="6"/>
       <c r="I1530" s="6"/>
     </row>
@@ -23431,7 +24617,7 @@
       <c r="D1531" s="6"/>
       <c r="E1531" s="6"/>
       <c r="F1531" s="6"/>
-      <c r="G1531" s="7"/>
+      <c r="G1531" s="6"/>
       <c r="H1531" s="6"/>
       <c r="I1531" s="6"/>
     </row>
@@ -23442,7 +24628,7 @@
       <c r="D1532" s="6"/>
       <c r="E1532" s="6"/>
       <c r="F1532" s="6"/>
-      <c r="G1532" s="7"/>
+      <c r="G1532" s="6"/>
       <c r="H1532" s="6"/>
       <c r="I1532" s="6"/>
     </row>
@@ -23452,8 +24638,8 @@
       <c r="C1533" s="6"/>
       <c r="D1533" s="6"/>
       <c r="E1533" s="6"/>
-      <c r="F1533" s="7"/>
-      <c r="G1533" s="7"/>
+      <c r="F1533" s="6"/>
+      <c r="G1533" s="6"/>
       <c r="H1533" s="6"/>
       <c r="I1533" s="6"/>
     </row>
@@ -23716,8 +24902,8 @@
       <c r="C1557" s="6"/>
       <c r="D1557" s="6"/>
       <c r="E1557" s="6"/>
-      <c r="F1557" s="7"/>
-      <c r="G1557" s="7"/>
+      <c r="F1557" s="6"/>
+      <c r="G1557" s="6"/>
       <c r="H1557" s="6"/>
       <c r="I1557" s="6"/>
     </row>
@@ -23728,7 +24914,7 @@
       <c r="D1558" s="6"/>
       <c r="E1558" s="6"/>
       <c r="F1558" s="6"/>
-      <c r="G1558" s="7"/>
+      <c r="G1558" s="6"/>
       <c r="H1558" s="6"/>
       <c r="I1558" s="6"/>
     </row>
@@ -23739,7 +24925,7 @@
       <c r="D1559" s="6"/>
       <c r="E1559" s="6"/>
       <c r="F1559" s="6"/>
-      <c r="G1559" s="7"/>
+      <c r="G1559" s="6"/>
       <c r="H1559" s="6"/>
       <c r="I1559" s="6"/>
     </row>
@@ -23750,7 +24936,7 @@
       <c r="D1560" s="6"/>
       <c r="E1560" s="6"/>
       <c r="F1560" s="6"/>
-      <c r="G1560" s="7"/>
+      <c r="G1560" s="6"/>
       <c r="H1560" s="6"/>
       <c r="I1560" s="6"/>
     </row>
@@ -23761,7 +24947,7 @@
       <c r="D1561" s="6"/>
       <c r="E1561" s="6"/>
       <c r="F1561" s="6"/>
-      <c r="G1561" s="7"/>
+      <c r="G1561" s="6"/>
       <c r="H1561" s="6"/>
       <c r="I1561" s="6"/>
     </row>
@@ -23772,7 +24958,7 @@
       <c r="D1562" s="6"/>
       <c r="E1562" s="6"/>
       <c r="F1562" s="6"/>
-      <c r="G1562" s="7"/>
+      <c r="G1562" s="6"/>
       <c r="H1562" s="6"/>
       <c r="I1562" s="6"/>
     </row>
@@ -23783,7 +24969,7 @@
       <c r="D1563" s="6"/>
       <c r="E1563" s="6"/>
       <c r="F1563" s="6"/>
-      <c r="G1563" s="7"/>
+      <c r="G1563" s="6"/>
       <c r="H1563" s="6"/>
       <c r="I1563" s="6"/>
     </row>
@@ -23794,7 +24980,7 @@
       <c r="D1564" s="6"/>
       <c r="E1564" s="6"/>
       <c r="F1564" s="6"/>
-      <c r="G1564" s="7"/>
+      <c r="G1564" s="6"/>
       <c r="H1564" s="6"/>
       <c r="I1564" s="6"/>
     </row>
@@ -23805,7 +24991,7 @@
       <c r="D1565" s="6"/>
       <c r="E1565" s="6"/>
       <c r="F1565" s="6"/>
-      <c r="G1565" s="7"/>
+      <c r="G1565" s="6"/>
       <c r="H1565" s="6"/>
       <c r="I1565" s="6"/>
     </row>
@@ -23816,7 +25002,7 @@
       <c r="D1566" s="6"/>
       <c r="E1566" s="6"/>
       <c r="F1566" s="6"/>
-      <c r="G1566" s="7"/>
+      <c r="G1566" s="6"/>
       <c r="H1566" s="6"/>
       <c r="I1566" s="6"/>
     </row>
@@ -23827,7 +25013,7 @@
       <c r="D1567" s="6"/>
       <c r="E1567" s="6"/>
       <c r="F1567" s="6"/>
-      <c r="G1567" s="7"/>
+      <c r="G1567" s="6"/>
       <c r="H1567" s="6"/>
       <c r="I1567" s="6"/>
     </row>
@@ -23837,8 +25023,8 @@
       <c r="C1568" s="6"/>
       <c r="D1568" s="6"/>
       <c r="E1568" s="6"/>
-      <c r="F1568" s="7"/>
-      <c r="G1568" s="7"/>
+      <c r="F1568" s="6"/>
+      <c r="G1568" s="6"/>
       <c r="H1568" s="6"/>
       <c r="I1568" s="6"/>
     </row>
@@ -23991,8 +25177,8 @@
       <c r="C1582" s="6"/>
       <c r="D1582" s="6"/>
       <c r="E1582" s="6"/>
-      <c r="F1582" s="7"/>
-      <c r="G1582" s="7"/>
+      <c r="F1582" s="6"/>
+      <c r="G1582" s="6"/>
       <c r="H1582" s="6"/>
       <c r="I1582" s="6"/>
     </row>
@@ -24266,8 +25452,8 @@
       <c r="C1607" s="6"/>
       <c r="D1607" s="6"/>
       <c r="E1607" s="6"/>
-      <c r="F1607" s="7"/>
-      <c r="G1607" s="7"/>
+      <c r="F1607" s="6"/>
+      <c r="G1607" s="6"/>
       <c r="H1607" s="6"/>
       <c r="I1607" s="6"/>
     </row>
@@ -24278,7 +25464,7 @@
       <c r="D1608" s="6"/>
       <c r="E1608" s="6"/>
       <c r="F1608" s="6"/>
-      <c r="G1608" s="7"/>
+      <c r="G1608" s="6"/>
       <c r="H1608" s="6"/>
       <c r="I1608" s="6"/>
     </row>
@@ -24289,7 +25475,7 @@
       <c r="D1609" s="6"/>
       <c r="E1609" s="6"/>
       <c r="F1609" s="6"/>
-      <c r="G1609" s="7"/>
+      <c r="G1609" s="6"/>
       <c r="H1609" s="6"/>
       <c r="I1609" s="6"/>
     </row>
@@ -24300,7 +25486,7 @@
       <c r="D1610" s="6"/>
       <c r="E1610" s="6"/>
       <c r="F1610" s="6"/>
-      <c r="G1610" s="7"/>
+      <c r="G1610" s="6"/>
       <c r="H1610" s="6"/>
       <c r="I1610" s="6"/>
     </row>
@@ -24311,7 +25497,7 @@
       <c r="D1611" s="6"/>
       <c r="E1611" s="6"/>
       <c r="F1611" s="6"/>
-      <c r="G1611" s="7"/>
+      <c r="G1611" s="6"/>
       <c r="H1611" s="6"/>
       <c r="I1611" s="6"/>
     </row>
@@ -24322,7 +25508,7 @@
       <c r="D1612" s="6"/>
       <c r="E1612" s="6"/>
       <c r="F1612" s="6"/>
-      <c r="G1612" s="7"/>
+      <c r="G1612" s="6"/>
       <c r="H1612" s="6"/>
       <c r="I1612" s="6"/>
     </row>
@@ -24332,8 +25518,8 @@
       <c r="C1613" s="6"/>
       <c r="D1613" s="6"/>
       <c r="E1613" s="6"/>
-      <c r="F1613" s="7"/>
-      <c r="G1613" s="7"/>
+      <c r="F1613" s="6"/>
+      <c r="G1613" s="6"/>
       <c r="H1613" s="6"/>
       <c r="I1613" s="6"/>
     </row>
@@ -24344,7 +25530,7 @@
       <c r="D1614" s="6"/>
       <c r="E1614" s="6"/>
       <c r="F1614" s="6"/>
-      <c r="G1614" s="7"/>
+      <c r="G1614" s="6"/>
       <c r="H1614" s="6"/>
       <c r="I1614" s="6"/>
     </row>
@@ -24355,7 +25541,7 @@
       <c r="D1615" s="6"/>
       <c r="E1615" s="6"/>
       <c r="F1615" s="6"/>
-      <c r="G1615" s="7"/>
+      <c r="G1615" s="6"/>
       <c r="H1615" s="6"/>
       <c r="I1615" s="6"/>
     </row>
@@ -24366,7 +25552,7 @@
       <c r="D1616" s="6"/>
       <c r="E1616" s="6"/>
       <c r="F1616" s="6"/>
-      <c r="G1616" s="7"/>
+      <c r="G1616" s="6"/>
       <c r="H1616" s="6"/>
       <c r="I1616" s="6"/>
     </row>
@@ -24377,7 +25563,7 @@
       <c r="D1617" s="6"/>
       <c r="E1617" s="6"/>
       <c r="F1617" s="6"/>
-      <c r="G1617" s="7"/>
+      <c r="G1617" s="6"/>
       <c r="H1617" s="6"/>
       <c r="I1617" s="6"/>
     </row>
@@ -24387,8 +25573,8 @@
       <c r="C1618" s="6"/>
       <c r="D1618" s="6"/>
       <c r="E1618" s="6"/>
-      <c r="F1618" s="7"/>
-      <c r="G1618" s="7"/>
+      <c r="F1618" s="6"/>
+      <c r="G1618" s="6"/>
       <c r="H1618" s="6"/>
       <c r="I1618" s="6"/>
     </row>
@@ -24399,7 +25585,7 @@
       <c r="D1619" s="6"/>
       <c r="E1619" s="6"/>
       <c r="F1619" s="6"/>
-      <c r="G1619" s="7"/>
+      <c r="G1619" s="6"/>
       <c r="H1619" s="6"/>
       <c r="I1619" s="6"/>
     </row>
@@ -24410,7 +25596,7 @@
       <c r="D1620" s="6"/>
       <c r="E1620" s="6"/>
       <c r="F1620" s="6"/>
-      <c r="G1620" s="7"/>
+      <c r="G1620" s="6"/>
       <c r="H1620" s="6"/>
       <c r="I1620" s="6"/>
     </row>
@@ -24421,7 +25607,7 @@
       <c r="D1621" s="6"/>
       <c r="E1621" s="6"/>
       <c r="F1621" s="6"/>
-      <c r="G1621" s="7"/>
+      <c r="G1621" s="6"/>
       <c r="H1621" s="6"/>
       <c r="I1621" s="6"/>
     </row>
@@ -24432,7 +25618,7 @@
       <c r="D1622" s="6"/>
       <c r="E1622" s="6"/>
       <c r="F1622" s="6"/>
-      <c r="G1622" s="7"/>
+      <c r="G1622" s="6"/>
       <c r="H1622" s="6"/>
       <c r="I1622" s="6"/>
     </row>
@@ -24442,8 +25628,8 @@
       <c r="C1623" s="6"/>
       <c r="D1623" s="6"/>
       <c r="E1623" s="6"/>
-      <c r="F1623" s="7"/>
-      <c r="G1623" s="7"/>
+      <c r="F1623" s="6"/>
+      <c r="G1623" s="6"/>
       <c r="H1623" s="6"/>
       <c r="I1623" s="6"/>
     </row>
@@ -24454,7 +25640,7 @@
       <c r="D1624" s="6"/>
       <c r="E1624" s="6"/>
       <c r="F1624" s="6"/>
-      <c r="G1624" s="7"/>
+      <c r="G1624" s="6"/>
       <c r="H1624" s="6"/>
       <c r="I1624" s="6"/>
     </row>
@@ -24465,7 +25651,7 @@
       <c r="D1625" s="6"/>
       <c r="E1625" s="6"/>
       <c r="F1625" s="6"/>
-      <c r="G1625" s="7"/>
+      <c r="G1625" s="6"/>
       <c r="H1625" s="6"/>
       <c r="I1625" s="6"/>
     </row>
@@ -24476,7 +25662,7 @@
       <c r="D1626" s="6"/>
       <c r="E1626" s="6"/>
       <c r="F1626" s="6"/>
-      <c r="G1626" s="7"/>
+      <c r="G1626" s="6"/>
       <c r="H1626" s="6"/>
       <c r="I1626" s="6"/>
     </row>
@@ -24487,7 +25673,7 @@
       <c r="D1627" s="6"/>
       <c r="E1627" s="6"/>
       <c r="F1627" s="6"/>
-      <c r="G1627" s="7"/>
+      <c r="G1627" s="6"/>
       <c r="H1627" s="6"/>
       <c r="I1627" s="6"/>
     </row>
@@ -24498,7 +25684,7 @@
       <c r="D1628" s="6"/>
       <c r="E1628" s="6"/>
       <c r="F1628" s="6"/>
-      <c r="G1628" s="7"/>
+      <c r="G1628" s="6"/>
       <c r="H1628" s="6"/>
       <c r="I1628" s="6"/>
     </row>
@@ -24509,7 +25695,7 @@
       <c r="D1629" s="6"/>
       <c r="E1629" s="6"/>
       <c r="F1629" s="6"/>
-      <c r="G1629" s="7"/>
+      <c r="G1629" s="6"/>
       <c r="H1629" s="6"/>
       <c r="I1629" s="6"/>
     </row>
@@ -24519,8 +25705,8 @@
       <c r="C1630" s="6"/>
       <c r="D1630" s="6"/>
       <c r="E1630" s="6"/>
-      <c r="F1630" s="7"/>
-      <c r="G1630" s="7"/>
+      <c r="F1630" s="6"/>
+      <c r="G1630" s="6"/>
       <c r="H1630" s="6"/>
       <c r="I1630" s="6"/>
     </row>
@@ -24531,7 +25717,7 @@
       <c r="D1631" s="6"/>
       <c r="E1631" s="6"/>
       <c r="F1631" s="6"/>
-      <c r="G1631" s="7"/>
+      <c r="G1631" s="6"/>
       <c r="H1631" s="6"/>
       <c r="I1631" s="6"/>
     </row>
@@ -24542,7 +25728,7 @@
       <c r="D1632" s="6"/>
       <c r="E1632" s="6"/>
       <c r="F1632" s="6"/>
-      <c r="G1632" s="7"/>
+      <c r="G1632" s="6"/>
       <c r="H1632" s="6"/>
       <c r="I1632" s="6"/>
     </row>
@@ -24553,7 +25739,7 @@
       <c r="D1633" s="6"/>
       <c r="E1633" s="6"/>
       <c r="F1633" s="6"/>
-      <c r="G1633" s="7"/>
+      <c r="G1633" s="6"/>
       <c r="H1633" s="6"/>
       <c r="I1633" s="6"/>
     </row>
@@ -24564,7 +25750,7 @@
       <c r="D1634" s="6"/>
       <c r="E1634" s="6"/>
       <c r="F1634" s="6"/>
-      <c r="G1634" s="7"/>
+      <c r="G1634" s="6"/>
       <c r="H1634" s="6"/>
       <c r="I1634" s="6"/>
     </row>
@@ -24575,7 +25761,7 @@
       <c r="D1635" s="6"/>
       <c r="E1635" s="6"/>
       <c r="F1635" s="6"/>
-      <c r="G1635" s="7"/>
+      <c r="G1635" s="6"/>
       <c r="H1635" s="6"/>
       <c r="I1635" s="6"/>
     </row>
@@ -24585,8 +25771,8 @@
       <c r="C1636" s="6"/>
       <c r="D1636" s="6"/>
       <c r="E1636" s="6"/>
-      <c r="F1636" s="7"/>
-      <c r="G1636" s="7"/>
+      <c r="F1636" s="6"/>
+      <c r="G1636" s="6"/>
       <c r="H1636" s="6"/>
       <c r="I1636" s="6"/>
     </row>
@@ -24597,7 +25783,7 @@
       <c r="D1637" s="6"/>
       <c r="E1637" s="6"/>
       <c r="F1637" s="6"/>
-      <c r="G1637" s="7"/>
+      <c r="G1637" s="6"/>
       <c r="H1637" s="6"/>
       <c r="I1637" s="6"/>
     </row>
@@ -24608,7 +25794,7 @@
       <c r="D1638" s="6"/>
       <c r="E1638" s="6"/>
       <c r="F1638" s="6"/>
-      <c r="G1638" s="7"/>
+      <c r="G1638" s="6"/>
       <c r="H1638" s="6"/>
       <c r="I1638" s="6"/>
     </row>
@@ -24618,8 +25804,8 @@
       <c r="C1639" s="6"/>
       <c r="D1639" s="6"/>
       <c r="E1639" s="6"/>
-      <c r="F1639" s="7"/>
-      <c r="G1639" s="7"/>
+      <c r="F1639" s="6"/>
+      <c r="G1639" s="6"/>
       <c r="H1639" s="6"/>
       <c r="I1639" s="6"/>
     </row>
@@ -24630,7 +25816,7 @@
       <c r="D1640" s="6"/>
       <c r="E1640" s="6"/>
       <c r="F1640" s="6"/>
-      <c r="G1640" s="7"/>
+      <c r="G1640" s="6"/>
       <c r="H1640" s="6"/>
       <c r="I1640" s="6"/>
     </row>
@@ -24641,7 +25827,7 @@
       <c r="D1641" s="6"/>
       <c r="E1641" s="6"/>
       <c r="F1641" s="6"/>
-      <c r="G1641" s="7"/>
+      <c r="G1641" s="6"/>
       <c r="H1641" s="6"/>
       <c r="I1641" s="6"/>
     </row>
@@ -24652,7 +25838,7 @@
       <c r="D1642" s="6"/>
       <c r="E1642" s="6"/>
       <c r="F1642" s="6"/>
-      <c r="G1642" s="7"/>
+      <c r="G1642" s="6"/>
       <c r="H1642" s="6"/>
       <c r="I1642" s="6"/>
     </row>
@@ -24663,7 +25849,7 @@
       <c r="D1643" s="6"/>
       <c r="E1643" s="6"/>
       <c r="F1643" s="6"/>
-      <c r="G1643" s="7"/>
+      <c r="G1643" s="6"/>
       <c r="H1643" s="6"/>
       <c r="I1643" s="6"/>
     </row>
@@ -24673,8 +25859,8 @@
       <c r="C1644" s="6"/>
       <c r="D1644" s="6"/>
       <c r="E1644" s="6"/>
-      <c r="F1644" s="7"/>
-      <c r="G1644" s="7"/>
+      <c r="F1644" s="6"/>
+      <c r="G1644" s="6"/>
       <c r="H1644" s="6"/>
       <c r="I1644" s="6"/>
     </row>
@@ -24685,7 +25871,7 @@
       <c r="D1645" s="6"/>
       <c r="E1645" s="6"/>
       <c r="F1645" s="6"/>
-      <c r="G1645" s="7"/>
+      <c r="G1645" s="6"/>
       <c r="H1645" s="6"/>
       <c r="I1645" s="6"/>
     </row>
@@ -24696,7 +25882,7 @@
       <c r="D1646" s="6"/>
       <c r="E1646" s="6"/>
       <c r="F1646" s="6"/>
-      <c r="G1646" s="7"/>
+      <c r="G1646" s="6"/>
       <c r="H1646" s="6"/>
       <c r="I1646" s="6"/>
     </row>
@@ -24707,7 +25893,7 @@
       <c r="D1647" s="6"/>
       <c r="E1647" s="6"/>
       <c r="F1647" s="6"/>
-      <c r="G1647" s="7"/>
+      <c r="G1647" s="6"/>
       <c r="H1647" s="6"/>
       <c r="I1647" s="6"/>
     </row>
@@ -24718,7 +25904,7 @@
       <c r="D1648" s="6"/>
       <c r="E1648" s="6"/>
       <c r="F1648" s="6"/>
-      <c r="G1648" s="7"/>
+      <c r="G1648" s="6"/>
       <c r="H1648" s="6"/>
       <c r="I1648" s="6"/>
     </row>
@@ -24729,7 +25915,7 @@
       <c r="D1649" s="6"/>
       <c r="E1649" s="6"/>
       <c r="F1649" s="6"/>
-      <c r="G1649" s="7"/>
+      <c r="G1649" s="6"/>
       <c r="H1649" s="6"/>
       <c r="I1649" s="6"/>
     </row>
@@ -24739,8 +25925,8 @@
       <c r="C1650" s="6"/>
       <c r="D1650" s="6"/>
       <c r="E1650" s="6"/>
-      <c r="F1650" s="7"/>
-      <c r="G1650" s="7"/>
+      <c r="F1650" s="6"/>
+      <c r="G1650" s="6"/>
       <c r="H1650" s="6"/>
       <c r="I1650" s="6"/>
     </row>
@@ -24751,7 +25937,7 @@
       <c r="D1651" s="6"/>
       <c r="E1651" s="6"/>
       <c r="F1651" s="6"/>
-      <c r="G1651" s="7"/>
+      <c r="G1651" s="6"/>
       <c r="H1651" s="6"/>
       <c r="I1651" s="6"/>
     </row>
@@ -24762,7 +25948,7 @@
       <c r="D1652" s="6"/>
       <c r="E1652" s="6"/>
       <c r="F1652" s="6"/>
-      <c r="G1652" s="7"/>
+      <c r="G1652" s="6"/>
       <c r="H1652" s="6"/>
       <c r="I1652" s="6"/>
     </row>
@@ -24772,8 +25958,8 @@
       <c r="C1653" s="6"/>
       <c r="D1653" s="6"/>
       <c r="E1653" s="6"/>
-      <c r="F1653" s="7"/>
-      <c r="G1653" s="7"/>
+      <c r="F1653" s="6"/>
+      <c r="G1653" s="6"/>
       <c r="H1653" s="6"/>
       <c r="I1653" s="6"/>
     </row>
@@ -24784,7 +25970,7 @@
       <c r="D1654" s="6"/>
       <c r="E1654" s="6"/>
       <c r="F1654" s="6"/>
-      <c r="G1654" s="7"/>
+      <c r="G1654" s="6"/>
       <c r="H1654" s="6"/>
       <c r="I1654" s="6"/>
     </row>
@@ -24795,7 +25981,7 @@
       <c r="D1655" s="6"/>
       <c r="E1655" s="6"/>
       <c r="F1655" s="6"/>
-      <c r="G1655" s="7"/>
+      <c r="G1655" s="6"/>
       <c r="H1655" s="6"/>
       <c r="I1655" s="6"/>
     </row>
@@ -24806,7 +25992,7 @@
       <c r="D1656" s="6"/>
       <c r="E1656" s="6"/>
       <c r="F1656" s="6"/>
-      <c r="G1656" s="7"/>
+      <c r="G1656" s="6"/>
       <c r="H1656" s="6"/>
       <c r="I1656" s="6"/>
     </row>
@@ -24816,8 +26002,8 @@
       <c r="C1657" s="6"/>
       <c r="D1657" s="6"/>
       <c r="E1657" s="6"/>
-      <c r="F1657" s="7"/>
-      <c r="G1657" s="7"/>
+      <c r="F1657" s="6"/>
+      <c r="G1657" s="6"/>
       <c r="H1657" s="6"/>
       <c r="I1657" s="6"/>
     </row>
@@ -24828,7 +26014,7 @@
       <c r="D1658" s="6"/>
       <c r="E1658" s="6"/>
       <c r="F1658" s="6"/>
-      <c r="G1658" s="7"/>
+      <c r="G1658" s="6"/>
       <c r="H1658" s="6"/>
       <c r="I1658" s="6"/>
     </row>
@@ -24839,7 +26025,7 @@
       <c r="D1659" s="6"/>
       <c r="E1659" s="6"/>
       <c r="F1659" s="6"/>
-      <c r="G1659" s="7"/>
+      <c r="G1659" s="6"/>
       <c r="H1659" s="6"/>
       <c r="I1659" s="6"/>
     </row>
@@ -24849,8 +26035,8 @@
       <c r="C1660" s="6"/>
       <c r="D1660" s="6"/>
       <c r="E1660" s="6"/>
-      <c r="F1660" s="7"/>
-      <c r="G1660" s="7"/>
+      <c r="F1660" s="6"/>
+      <c r="G1660" s="6"/>
       <c r="H1660" s="6"/>
       <c r="I1660" s="6"/>
     </row>
@@ -24861,7 +26047,7 @@
       <c r="D1661" s="6"/>
       <c r="E1661" s="6"/>
       <c r="F1661" s="6"/>
-      <c r="G1661" s="7"/>
+      <c r="G1661" s="6"/>
       <c r="H1661" s="6"/>
       <c r="I1661" s="6"/>
     </row>
@@ -24872,7 +26058,7 @@
       <c r="D1662" s="6"/>
       <c r="E1662" s="6"/>
       <c r="F1662" s="6"/>
-      <c r="G1662" s="7"/>
+      <c r="G1662" s="6"/>
       <c r="H1662" s="6"/>
       <c r="I1662" s="6"/>
     </row>
@@ -24883,7 +26069,7 @@
       <c r="D1663" s="6"/>
       <c r="E1663" s="6"/>
       <c r="F1663" s="6"/>
-      <c r="G1663" s="7"/>
+      <c r="G1663" s="6"/>
       <c r="H1663" s="6"/>
       <c r="I1663" s="6"/>
     </row>
@@ -24894,7 +26080,7 @@
       <c r="D1664" s="6"/>
       <c r="E1664" s="6"/>
       <c r="F1664" s="6"/>
-      <c r="G1664" s="7"/>
+      <c r="G1664" s="6"/>
       <c r="H1664" s="6"/>
       <c r="I1664" s="6"/>
     </row>
@@ -24905,7 +26091,7 @@
       <c r="D1665" s="6"/>
       <c r="E1665" s="6"/>
       <c r="F1665" s="6"/>
-      <c r="G1665" s="7"/>
+      <c r="G1665" s="6"/>
       <c r="H1665" s="6"/>
       <c r="I1665" s="6"/>
     </row>
@@ -24916,7 +26102,7 @@
       <c r="D1666" s="6"/>
       <c r="E1666" s="6"/>
       <c r="F1666" s="6"/>
-      <c r="G1666" s="7"/>
+      <c r="G1666" s="6"/>
       <c r="H1666" s="6"/>
       <c r="I1666" s="6"/>
     </row>
@@ -24926,8 +26112,8 @@
       <c r="C1667" s="6"/>
       <c r="D1667" s="6"/>
       <c r="E1667" s="6"/>
-      <c r="F1667" s="7"/>
-      <c r="G1667" s="7"/>
+      <c r="F1667" s="6"/>
+      <c r="G1667" s="6"/>
       <c r="H1667" s="6"/>
       <c r="I1667" s="6"/>
     </row>
@@ -25102,8 +26288,8 @@
       <c r="C1683" s="6"/>
       <c r="D1683" s="6"/>
       <c r="E1683" s="6"/>
-      <c r="F1683" s="7"/>
-      <c r="G1683" s="7"/>
+      <c r="F1683" s="6"/>
+      <c r="G1683" s="6"/>
       <c r="H1683" s="6"/>
       <c r="I1683" s="6"/>
     </row>
@@ -25333,8 +26519,8 @@
       <c r="C1704" s="6"/>
       <c r="D1704" s="6"/>
       <c r="E1704" s="6"/>
-      <c r="F1704" s="7"/>
-      <c r="G1704" s="7"/>
+      <c r="F1704" s="6"/>
+      <c r="G1704" s="6"/>
       <c r="H1704" s="6"/>
       <c r="I1704" s="6"/>
     </row>
@@ -25443,8 +26629,8 @@
       <c r="C1714" s="6"/>
       <c r="D1714" s="6"/>
       <c r="E1714" s="6"/>
-      <c r="F1714" s="7"/>
-      <c r="G1714" s="7"/>
+      <c r="F1714" s="6"/>
+      <c r="G1714" s="6"/>
       <c r="H1714" s="6"/>
       <c r="I1714" s="6"/>
     </row>
@@ -25619,8 +26805,8 @@
       <c r="C1730" s="6"/>
       <c r="D1730" s="6"/>
       <c r="E1730" s="6"/>
-      <c r="F1730" s="7"/>
-      <c r="G1730" s="7"/>
+      <c r="F1730" s="6"/>
+      <c r="G1730" s="6"/>
       <c r="H1730" s="6"/>
       <c r="I1730" s="6"/>
     </row>
@@ -25740,8 +26926,8 @@
       <c r="C1741" s="6"/>
       <c r="D1741" s="6"/>
       <c r="E1741" s="6"/>
-      <c r="F1741" s="7"/>
-      <c r="G1741" s="7"/>
+      <c r="F1741" s="6"/>
+      <c r="G1741" s="6"/>
       <c r="H1741" s="6"/>
       <c r="I1741" s="6"/>
     </row>

--- a/WEB-INF/efw/storage/templates/output_master.xlsx
+++ b/WEB-INF/efw/storage/templates/output_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="新店" sheetId="2" r:id="rId1"/>
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -135,6 +135,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -149,22 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -173,15 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -202,9 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,32 +218,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,15 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +266,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,37 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +306,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,43 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,13 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +396,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,17 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -525,6 +514,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,30 +569,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -600,6 +589,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,16 +620,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,115 +638,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,9 +1095,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I600"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7733,6 +7733,4406 @@
       <c r="H600" s="6"/>
       <c r="I600" s="6"/>
     </row>
+    <row r="601" spans="1:9">
+      <c r="A601" s="6"/>
+      <c r="B601" s="6"/>
+      <c r="C601" s="6"/>
+      <c r="D601" s="6"/>
+      <c r="E601" s="6"/>
+      <c r="F601" s="6"/>
+      <c r="G601" s="6"/>
+      <c r="H601" s="6"/>
+      <c r="I601" s="6"/>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" s="6"/>
+      <c r="B602" s="6"/>
+      <c r="C602" s="6"/>
+      <c r="D602" s="6"/>
+      <c r="E602" s="6"/>
+      <c r="F602" s="6"/>
+      <c r="G602" s="6"/>
+      <c r="H602" s="6"/>
+      <c r="I602" s="6"/>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" s="6"/>
+      <c r="B603" s="6"/>
+      <c r="C603" s="6"/>
+      <c r="D603" s="6"/>
+      <c r="E603" s="6"/>
+      <c r="F603" s="6"/>
+      <c r="G603" s="6"/>
+      <c r="H603" s="6"/>
+      <c r="I603" s="6"/>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" s="6"/>
+      <c r="B604" s="6"/>
+      <c r="C604" s="6"/>
+      <c r="D604" s="6"/>
+      <c r="E604" s="6"/>
+      <c r="F604" s="6"/>
+      <c r="G604" s="6"/>
+      <c r="H604" s="6"/>
+      <c r="I604" s="6"/>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605" s="6"/>
+      <c r="B605" s="6"/>
+      <c r="C605" s="6"/>
+      <c r="D605" s="6"/>
+      <c r="E605" s="6"/>
+      <c r="F605" s="6"/>
+      <c r="G605" s="6"/>
+      <c r="H605" s="6"/>
+      <c r="I605" s="6"/>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606" s="6"/>
+      <c r="B606" s="6"/>
+      <c r="C606" s="6"/>
+      <c r="D606" s="6"/>
+      <c r="E606" s="6"/>
+      <c r="F606" s="6"/>
+      <c r="G606" s="6"/>
+      <c r="H606" s="6"/>
+      <c r="I606" s="6"/>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607" s="6"/>
+      <c r="B607" s="6"/>
+      <c r="C607" s="6"/>
+      <c r="D607" s="6"/>
+      <c r="E607" s="6"/>
+      <c r="F607" s="6"/>
+      <c r="G607" s="6"/>
+      <c r="H607" s="6"/>
+      <c r="I607" s="6"/>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608" s="6"/>
+      <c r="B608" s="6"/>
+      <c r="C608" s="6"/>
+      <c r="D608" s="6"/>
+      <c r="E608" s="6"/>
+      <c r="F608" s="6"/>
+      <c r="G608" s="6"/>
+      <c r="H608" s="6"/>
+      <c r="I608" s="6"/>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609" s="6"/>
+      <c r="B609" s="6"/>
+      <c r="C609" s="6"/>
+      <c r="D609" s="6"/>
+      <c r="E609" s="6"/>
+      <c r="F609" s="6"/>
+      <c r="G609" s="6"/>
+      <c r="H609" s="6"/>
+      <c r="I609" s="6"/>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610" s="6"/>
+      <c r="B610" s="6"/>
+      <c r="C610" s="6"/>
+      <c r="D610" s="6"/>
+      <c r="E610" s="6"/>
+      <c r="F610" s="6"/>
+      <c r="G610" s="6"/>
+      <c r="H610" s="6"/>
+      <c r="I610" s="6"/>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" s="6"/>
+      <c r="B611" s="6"/>
+      <c r="C611" s="6"/>
+      <c r="D611" s="6"/>
+      <c r="E611" s="6"/>
+      <c r="F611" s="6"/>
+      <c r="G611" s="6"/>
+      <c r="H611" s="6"/>
+      <c r="I611" s="6"/>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" s="6"/>
+      <c r="B612" s="6"/>
+      <c r="C612" s="6"/>
+      <c r="D612" s="6"/>
+      <c r="E612" s="6"/>
+      <c r="F612" s="6"/>
+      <c r="G612" s="6"/>
+      <c r="H612" s="6"/>
+      <c r="I612" s="6"/>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" s="6"/>
+      <c r="B613" s="6"/>
+      <c r="C613" s="6"/>
+      <c r="D613" s="6"/>
+      <c r="E613" s="6"/>
+      <c r="F613" s="6"/>
+      <c r="G613" s="6"/>
+      <c r="H613" s="6"/>
+      <c r="I613" s="6"/>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" s="6"/>
+      <c r="B614" s="6"/>
+      <c r="C614" s="6"/>
+      <c r="D614" s="6"/>
+      <c r="E614" s="6"/>
+      <c r="F614" s="6"/>
+      <c r="G614" s="6"/>
+      <c r="H614" s="6"/>
+      <c r="I614" s="6"/>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" s="6"/>
+      <c r="B615" s="6"/>
+      <c r="C615" s="6"/>
+      <c r="D615" s="6"/>
+      <c r="E615" s="6"/>
+      <c r="F615" s="6"/>
+      <c r="G615" s="6"/>
+      <c r="H615" s="6"/>
+      <c r="I615" s="6"/>
+    </row>
+    <row r="616" spans="1:9">
+      <c r="A616" s="6"/>
+      <c r="B616" s="6"/>
+      <c r="C616" s="6"/>
+      <c r="D616" s="6"/>
+      <c r="E616" s="6"/>
+      <c r="F616" s="6"/>
+      <c r="G616" s="6"/>
+      <c r="H616" s="6"/>
+      <c r="I616" s="6"/>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617" s="6"/>
+      <c r="B617" s="6"/>
+      <c r="C617" s="6"/>
+      <c r="D617" s="6"/>
+      <c r="E617" s="6"/>
+      <c r="F617" s="6"/>
+      <c r="G617" s="6"/>
+      <c r="H617" s="6"/>
+      <c r="I617" s="6"/>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618" s="6"/>
+      <c r="B618" s="6"/>
+      <c r="C618" s="6"/>
+      <c r="D618" s="6"/>
+      <c r="E618" s="6"/>
+      <c r="F618" s="6"/>
+      <c r="G618" s="6"/>
+      <c r="H618" s="6"/>
+      <c r="I618" s="6"/>
+    </row>
+    <row r="619" spans="1:9">
+      <c r="A619" s="6"/>
+      <c r="B619" s="6"/>
+      <c r="C619" s="6"/>
+      <c r="D619" s="6"/>
+      <c r="E619" s="6"/>
+      <c r="F619" s="6"/>
+      <c r="G619" s="6"/>
+      <c r="H619" s="6"/>
+      <c r="I619" s="6"/>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620" s="6"/>
+      <c r="B620" s="6"/>
+      <c r="C620" s="6"/>
+      <c r="D620" s="6"/>
+      <c r="E620" s="6"/>
+      <c r="F620" s="6"/>
+      <c r="G620" s="6"/>
+      <c r="H620" s="6"/>
+      <c r="I620" s="6"/>
+    </row>
+    <row r="621" spans="1:9">
+      <c r="A621" s="6"/>
+      <c r="B621" s="6"/>
+      <c r="C621" s="6"/>
+      <c r="D621" s="6"/>
+      <c r="E621" s="6"/>
+      <c r="F621" s="6"/>
+      <c r="G621" s="6"/>
+      <c r="H621" s="6"/>
+      <c r="I621" s="6"/>
+    </row>
+    <row r="622" spans="1:9">
+      <c r="A622" s="6"/>
+      <c r="B622" s="6"/>
+      <c r="C622" s="6"/>
+      <c r="D622" s="6"/>
+      <c r="E622" s="6"/>
+      <c r="F622" s="6"/>
+      <c r="G622" s="6"/>
+      <c r="H622" s="6"/>
+      <c r="I622" s="6"/>
+    </row>
+    <row r="623" spans="1:9">
+      <c r="A623" s="6"/>
+      <c r="B623" s="6"/>
+      <c r="C623" s="6"/>
+      <c r="D623" s="6"/>
+      <c r="E623" s="6"/>
+      <c r="F623" s="6"/>
+      <c r="G623" s="6"/>
+      <c r="H623" s="6"/>
+      <c r="I623" s="6"/>
+    </row>
+    <row r="624" spans="1:9">
+      <c r="A624" s="6"/>
+      <c r="B624" s="6"/>
+      <c r="C624" s="6"/>
+      <c r="D624" s="6"/>
+      <c r="E624" s="6"/>
+      <c r="F624" s="6"/>
+      <c r="G624" s="6"/>
+      <c r="H624" s="6"/>
+      <c r="I624" s="6"/>
+    </row>
+    <row r="625" spans="1:9">
+      <c r="A625" s="6"/>
+      <c r="B625" s="6"/>
+      <c r="C625" s="6"/>
+      <c r="D625" s="6"/>
+      <c r="E625" s="6"/>
+      <c r="F625" s="6"/>
+      <c r="G625" s="6"/>
+      <c r="H625" s="6"/>
+      <c r="I625" s="6"/>
+    </row>
+    <row r="626" spans="1:9">
+      <c r="A626" s="6"/>
+      <c r="B626" s="6"/>
+      <c r="C626" s="6"/>
+      <c r="D626" s="6"/>
+      <c r="E626" s="6"/>
+      <c r="F626" s="6"/>
+      <c r="G626" s="6"/>
+      <c r="H626" s="6"/>
+      <c r="I626" s="6"/>
+    </row>
+    <row r="627" spans="1:9">
+      <c r="A627" s="6"/>
+      <c r="B627" s="6"/>
+      <c r="C627" s="6"/>
+      <c r="D627" s="6"/>
+      <c r="E627" s="6"/>
+      <c r="F627" s="6"/>
+      <c r="G627" s="6"/>
+      <c r="H627" s="6"/>
+      <c r="I627" s="6"/>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="A628" s="6"/>
+      <c r="B628" s="6"/>
+      <c r="C628" s="6"/>
+      <c r="D628" s="6"/>
+      <c r="E628" s="6"/>
+      <c r="F628" s="6"/>
+      <c r="G628" s="6"/>
+      <c r="H628" s="6"/>
+      <c r="I628" s="6"/>
+    </row>
+    <row r="629" spans="1:9">
+      <c r="A629" s="6"/>
+      <c r="B629" s="6"/>
+      <c r="C629" s="6"/>
+      <c r="D629" s="6"/>
+      <c r="E629" s="6"/>
+      <c r="F629" s="6"/>
+      <c r="G629" s="6"/>
+      <c r="H629" s="6"/>
+      <c r="I629" s="6"/>
+    </row>
+    <row r="630" spans="1:9">
+      <c r="A630" s="6"/>
+      <c r="B630" s="6"/>
+      <c r="C630" s="6"/>
+      <c r="D630" s="6"/>
+      <c r="E630" s="6"/>
+      <c r="F630" s="6"/>
+      <c r="G630" s="6"/>
+      <c r="H630" s="6"/>
+      <c r="I630" s="6"/>
+    </row>
+    <row r="631" spans="1:9">
+      <c r="A631" s="6"/>
+      <c r="B631" s="6"/>
+      <c r="C631" s="6"/>
+      <c r="D631" s="6"/>
+      <c r="E631" s="6"/>
+      <c r="F631" s="6"/>
+      <c r="G631" s="6"/>
+      <c r="H631" s="6"/>
+      <c r="I631" s="6"/>
+    </row>
+    <row r="632" spans="1:9">
+      <c r="A632" s="6"/>
+      <c r="B632" s="6"/>
+      <c r="C632" s="6"/>
+      <c r="D632" s="6"/>
+      <c r="E632" s="6"/>
+      <c r="F632" s="6"/>
+      <c r="G632" s="6"/>
+      <c r="H632" s="6"/>
+      <c r="I632" s="6"/>
+    </row>
+    <row r="633" spans="1:9">
+      <c r="A633" s="6"/>
+      <c r="B633" s="6"/>
+      <c r="C633" s="6"/>
+      <c r="D633" s="6"/>
+      <c r="E633" s="6"/>
+      <c r="F633" s="6"/>
+      <c r="G633" s="6"/>
+      <c r="H633" s="6"/>
+      <c r="I633" s="6"/>
+    </row>
+    <row r="634" spans="1:9">
+      <c r="A634" s="6"/>
+      <c r="B634" s="6"/>
+      <c r="C634" s="6"/>
+      <c r="D634" s="6"/>
+      <c r="E634" s="6"/>
+      <c r="F634" s="6"/>
+      <c r="G634" s="6"/>
+      <c r="H634" s="6"/>
+      <c r="I634" s="6"/>
+    </row>
+    <row r="635" spans="1:9">
+      <c r="A635" s="6"/>
+      <c r="B635" s="6"/>
+      <c r="C635" s="6"/>
+      <c r="D635" s="6"/>
+      <c r="E635" s="6"/>
+      <c r="F635" s="6"/>
+      <c r="G635" s="6"/>
+      <c r="H635" s="6"/>
+      <c r="I635" s="6"/>
+    </row>
+    <row r="636" spans="1:9">
+      <c r="A636" s="6"/>
+      <c r="B636" s="6"/>
+      <c r="C636" s="6"/>
+      <c r="D636" s="6"/>
+      <c r="E636" s="6"/>
+      <c r="F636" s="6"/>
+      <c r="G636" s="6"/>
+      <c r="H636" s="6"/>
+      <c r="I636" s="6"/>
+    </row>
+    <row r="637" spans="1:9">
+      <c r="A637" s="6"/>
+      <c r="B637" s="6"/>
+      <c r="C637" s="6"/>
+      <c r="D637" s="6"/>
+      <c r="E637" s="6"/>
+      <c r="F637" s="6"/>
+      <c r="G637" s="6"/>
+      <c r="H637" s="6"/>
+      <c r="I637" s="6"/>
+    </row>
+    <row r="638" spans="1:9">
+      <c r="A638" s="6"/>
+      <c r="B638" s="6"/>
+      <c r="C638" s="6"/>
+      <c r="D638" s="6"/>
+      <c r="E638" s="6"/>
+      <c r="F638" s="6"/>
+      <c r="G638" s="6"/>
+      <c r="H638" s="6"/>
+      <c r="I638" s="6"/>
+    </row>
+    <row r="639" spans="1:9">
+      <c r="A639" s="6"/>
+      <c r="B639" s="6"/>
+      <c r="C639" s="6"/>
+      <c r="D639" s="6"/>
+      <c r="E639" s="6"/>
+      <c r="F639" s="6"/>
+      <c r="G639" s="6"/>
+      <c r="H639" s="6"/>
+      <c r="I639" s="6"/>
+    </row>
+    <row r="640" spans="1:9">
+      <c r="A640" s="6"/>
+      <c r="B640" s="6"/>
+      <c r="C640" s="6"/>
+      <c r="D640" s="6"/>
+      <c r="E640" s="6"/>
+      <c r="F640" s="6"/>
+      <c r="G640" s="6"/>
+      <c r="H640" s="6"/>
+      <c r="I640" s="6"/>
+    </row>
+    <row r="641" spans="1:9">
+      <c r="A641" s="6"/>
+      <c r="B641" s="6"/>
+      <c r="C641" s="6"/>
+      <c r="D641" s="6"/>
+      <c r="E641" s="6"/>
+      <c r="F641" s="6"/>
+      <c r="G641" s="6"/>
+      <c r="H641" s="6"/>
+      <c r="I641" s="6"/>
+    </row>
+    <row r="642" spans="1:9">
+      <c r="A642" s="6"/>
+      <c r="B642" s="6"/>
+      <c r="C642" s="6"/>
+      <c r="D642" s="6"/>
+      <c r="E642" s="6"/>
+      <c r="F642" s="6"/>
+      <c r="G642" s="6"/>
+      <c r="H642" s="6"/>
+      <c r="I642" s="6"/>
+    </row>
+    <row r="643" spans="1:9">
+      <c r="A643" s="6"/>
+      <c r="B643" s="6"/>
+      <c r="C643" s="6"/>
+      <c r="D643" s="6"/>
+      <c r="E643" s="6"/>
+      <c r="F643" s="6"/>
+      <c r="G643" s="6"/>
+      <c r="H643" s="6"/>
+      <c r="I643" s="6"/>
+    </row>
+    <row r="644" spans="1:9">
+      <c r="A644" s="6"/>
+      <c r="B644" s="6"/>
+      <c r="C644" s="6"/>
+      <c r="D644" s="6"/>
+      <c r="E644" s="6"/>
+      <c r="F644" s="6"/>
+      <c r="G644" s="6"/>
+      <c r="H644" s="6"/>
+      <c r="I644" s="6"/>
+    </row>
+    <row r="645" spans="1:9">
+      <c r="A645" s="6"/>
+      <c r="B645" s="6"/>
+      <c r="C645" s="6"/>
+      <c r="D645" s="6"/>
+      <c r="E645" s="6"/>
+      <c r="F645" s="6"/>
+      <c r="G645" s="6"/>
+      <c r="H645" s="6"/>
+      <c r="I645" s="6"/>
+    </row>
+    <row r="646" spans="1:9">
+      <c r="A646" s="6"/>
+      <c r="B646" s="6"/>
+      <c r="C646" s="6"/>
+      <c r="D646" s="6"/>
+      <c r="E646" s="6"/>
+      <c r="F646" s="6"/>
+      <c r="G646" s="6"/>
+      <c r="H646" s="6"/>
+      <c r="I646" s="6"/>
+    </row>
+    <row r="647" spans="1:9">
+      <c r="A647" s="6"/>
+      <c r="B647" s="6"/>
+      <c r="C647" s="6"/>
+      <c r="D647" s="6"/>
+      <c r="E647" s="6"/>
+      <c r="F647" s="6"/>
+      <c r="G647" s="6"/>
+      <c r="H647" s="6"/>
+      <c r="I647" s="6"/>
+    </row>
+    <row r="648" spans="1:9">
+      <c r="A648" s="6"/>
+      <c r="B648" s="6"/>
+      <c r="C648" s="6"/>
+      <c r="D648" s="6"/>
+      <c r="E648" s="6"/>
+      <c r="F648" s="6"/>
+      <c r="G648" s="6"/>
+      <c r="H648" s="6"/>
+      <c r="I648" s="6"/>
+    </row>
+    <row r="649" spans="1:9">
+      <c r="A649" s="6"/>
+      <c r="B649" s="6"/>
+      <c r="C649" s="6"/>
+      <c r="D649" s="6"/>
+      <c r="E649" s="6"/>
+      <c r="F649" s="6"/>
+      <c r="G649" s="6"/>
+      <c r="H649" s="6"/>
+      <c r="I649" s="6"/>
+    </row>
+    <row r="650" spans="1:9">
+      <c r="A650" s="6"/>
+      <c r="B650" s="6"/>
+      <c r="C650" s="6"/>
+      <c r="D650" s="6"/>
+      <c r="E650" s="6"/>
+      <c r="F650" s="6"/>
+      <c r="G650" s="6"/>
+      <c r="H650" s="6"/>
+      <c r="I650" s="6"/>
+    </row>
+    <row r="651" spans="1:9">
+      <c r="A651" s="6"/>
+      <c r="B651" s="6"/>
+      <c r="C651" s="6"/>
+      <c r="D651" s="6"/>
+      <c r="E651" s="6"/>
+      <c r="F651" s="6"/>
+      <c r="G651" s="6"/>
+      <c r="H651" s="6"/>
+      <c r="I651" s="6"/>
+    </row>
+    <row r="652" spans="1:9">
+      <c r="A652" s="6"/>
+      <c r="B652" s="6"/>
+      <c r="C652" s="6"/>
+      <c r="D652" s="6"/>
+      <c r="E652" s="6"/>
+      <c r="F652" s="6"/>
+      <c r="G652" s="6"/>
+      <c r="H652" s="6"/>
+      <c r="I652" s="6"/>
+    </row>
+    <row r="653" spans="1:9">
+      <c r="A653" s="6"/>
+      <c r="B653" s="6"/>
+      <c r="C653" s="6"/>
+      <c r="D653" s="6"/>
+      <c r="E653" s="6"/>
+      <c r="F653" s="6"/>
+      <c r="G653" s="6"/>
+      <c r="H653" s="6"/>
+      <c r="I653" s="6"/>
+    </row>
+    <row r="654" spans="1:9">
+      <c r="A654" s="6"/>
+      <c r="B654" s="6"/>
+      <c r="C654" s="6"/>
+      <c r="D654" s="6"/>
+      <c r="E654" s="6"/>
+      <c r="F654" s="6"/>
+      <c r="G654" s="6"/>
+      <c r="H654" s="6"/>
+      <c r="I654" s="6"/>
+    </row>
+    <row r="655" spans="1:9">
+      <c r="A655" s="6"/>
+      <c r="B655" s="6"/>
+      <c r="C655" s="6"/>
+      <c r="D655" s="6"/>
+      <c r="E655" s="6"/>
+      <c r="F655" s="6"/>
+      <c r="G655" s="6"/>
+      <c r="H655" s="6"/>
+      <c r="I655" s="6"/>
+    </row>
+    <row r="656" spans="1:9">
+      <c r="A656" s="6"/>
+      <c r="B656" s="6"/>
+      <c r="C656" s="6"/>
+      <c r="D656" s="6"/>
+      <c r="E656" s="6"/>
+      <c r="F656" s="6"/>
+      <c r="G656" s="6"/>
+      <c r="H656" s="6"/>
+      <c r="I656" s="6"/>
+    </row>
+    <row r="657" spans="1:9">
+      <c r="A657" s="6"/>
+      <c r="B657" s="6"/>
+      <c r="C657" s="6"/>
+      <c r="D657" s="6"/>
+      <c r="E657" s="6"/>
+      <c r="F657" s="6"/>
+      <c r="G657" s="6"/>
+      <c r="H657" s="6"/>
+      <c r="I657" s="6"/>
+    </row>
+    <row r="658" spans="1:9">
+      <c r="A658" s="6"/>
+      <c r="B658" s="6"/>
+      <c r="C658" s="6"/>
+      <c r="D658" s="6"/>
+      <c r="E658" s="6"/>
+      <c r="F658" s="6"/>
+      <c r="G658" s="6"/>
+      <c r="H658" s="6"/>
+      <c r="I658" s="6"/>
+    </row>
+    <row r="659" spans="1:9">
+      <c r="A659" s="6"/>
+      <c r="B659" s="6"/>
+      <c r="C659" s="6"/>
+      <c r="D659" s="6"/>
+      <c r="E659" s="6"/>
+      <c r="F659" s="6"/>
+      <c r="G659" s="6"/>
+      <c r="H659" s="6"/>
+      <c r="I659" s="6"/>
+    </row>
+    <row r="660" spans="1:9">
+      <c r="A660" s="6"/>
+      <c r="B660" s="6"/>
+      <c r="C660" s="6"/>
+      <c r="D660" s="6"/>
+      <c r="E660" s="6"/>
+      <c r="F660" s="6"/>
+      <c r="G660" s="6"/>
+      <c r="H660" s="6"/>
+      <c r="I660" s="6"/>
+    </row>
+    <row r="661" spans="1:9">
+      <c r="A661" s="6"/>
+      <c r="B661" s="6"/>
+      <c r="C661" s="6"/>
+      <c r="D661" s="6"/>
+      <c r="E661" s="6"/>
+      <c r="F661" s="6"/>
+      <c r="G661" s="6"/>
+      <c r="H661" s="6"/>
+      <c r="I661" s="6"/>
+    </row>
+    <row r="662" spans="1:9">
+      <c r="A662" s="6"/>
+      <c r="B662" s="6"/>
+      <c r="C662" s="6"/>
+      <c r="D662" s="6"/>
+      <c r="E662" s="6"/>
+      <c r="F662" s="6"/>
+      <c r="G662" s="6"/>
+      <c r="H662" s="6"/>
+      <c r="I662" s="6"/>
+    </row>
+    <row r="663" spans="1:9">
+      <c r="A663" s="6"/>
+      <c r="B663" s="6"/>
+      <c r="C663" s="6"/>
+      <c r="D663" s="6"/>
+      <c r="E663" s="6"/>
+      <c r="F663" s="6"/>
+      <c r="G663" s="6"/>
+      <c r="H663" s="6"/>
+      <c r="I663" s="6"/>
+    </row>
+    <row r="664" spans="1:9">
+      <c r="A664" s="6"/>
+      <c r="B664" s="6"/>
+      <c r="C664" s="6"/>
+      <c r="D664" s="6"/>
+      <c r="E664" s="6"/>
+      <c r="F664" s="6"/>
+      <c r="G664" s="6"/>
+      <c r="H664" s="6"/>
+      <c r="I664" s="6"/>
+    </row>
+    <row r="665" spans="1:9">
+      <c r="A665" s="6"/>
+      <c r="B665" s="6"/>
+      <c r="C665" s="6"/>
+      <c r="D665" s="6"/>
+      <c r="E665" s="6"/>
+      <c r="F665" s="6"/>
+      <c r="G665" s="6"/>
+      <c r="H665" s="6"/>
+      <c r="I665" s="6"/>
+    </row>
+    <row r="666" spans="1:9">
+      <c r="A666" s="6"/>
+      <c r="B666" s="6"/>
+      <c r="C666" s="6"/>
+      <c r="D666" s="6"/>
+      <c r="E666" s="6"/>
+      <c r="F666" s="6"/>
+      <c r="G666" s="6"/>
+      <c r="H666" s="6"/>
+      <c r="I666" s="6"/>
+    </row>
+    <row r="667" spans="1:9">
+      <c r="A667" s="6"/>
+      <c r="B667" s="6"/>
+      <c r="C667" s="6"/>
+      <c r="D667" s="6"/>
+      <c r="E667" s="6"/>
+      <c r="F667" s="6"/>
+      <c r="G667" s="6"/>
+      <c r="H667" s="6"/>
+      <c r="I667" s="6"/>
+    </row>
+    <row r="668" spans="1:9">
+      <c r="A668" s="6"/>
+      <c r="B668" s="6"/>
+      <c r="C668" s="6"/>
+      <c r="D668" s="6"/>
+      <c r="E668" s="6"/>
+      <c r="F668" s="6"/>
+      <c r="G668" s="6"/>
+      <c r="H668" s="6"/>
+      <c r="I668" s="6"/>
+    </row>
+    <row r="669" spans="1:9">
+      <c r="A669" s="6"/>
+      <c r="B669" s="6"/>
+      <c r="C669" s="6"/>
+      <c r="D669" s="6"/>
+      <c r="E669" s="6"/>
+      <c r="F669" s="6"/>
+      <c r="G669" s="6"/>
+      <c r="H669" s="6"/>
+      <c r="I669" s="6"/>
+    </row>
+    <row r="670" spans="1:9">
+      <c r="A670" s="6"/>
+      <c r="B670" s="6"/>
+      <c r="C670" s="6"/>
+      <c r="D670" s="6"/>
+      <c r="E670" s="6"/>
+      <c r="F670" s="6"/>
+      <c r="G670" s="6"/>
+      <c r="H670" s="6"/>
+      <c r="I670" s="6"/>
+    </row>
+    <row r="671" spans="1:9">
+      <c r="A671" s="6"/>
+      <c r="B671" s="6"/>
+      <c r="C671" s="6"/>
+      <c r="D671" s="6"/>
+      <c r="E671" s="6"/>
+      <c r="F671" s="6"/>
+      <c r="G671" s="6"/>
+      <c r="H671" s="6"/>
+      <c r="I671" s="6"/>
+    </row>
+    <row r="672" spans="1:9">
+      <c r="A672" s="6"/>
+      <c r="B672" s="6"/>
+      <c r="C672" s="6"/>
+      <c r="D672" s="6"/>
+      <c r="E672" s="6"/>
+      <c r="F672" s="6"/>
+      <c r="G672" s="6"/>
+      <c r="H672" s="6"/>
+      <c r="I672" s="6"/>
+    </row>
+    <row r="673" spans="1:9">
+      <c r="A673" s="6"/>
+      <c r="B673" s="6"/>
+      <c r="C673" s="6"/>
+      <c r="D673" s="6"/>
+      <c r="E673" s="6"/>
+      <c r="F673" s="6"/>
+      <c r="G673" s="6"/>
+      <c r="H673" s="6"/>
+      <c r="I673" s="6"/>
+    </row>
+    <row r="674" spans="1:9">
+      <c r="A674" s="6"/>
+      <c r="B674" s="6"/>
+      <c r="C674" s="6"/>
+      <c r="D674" s="6"/>
+      <c r="E674" s="6"/>
+      <c r="F674" s="6"/>
+      <c r="G674" s="6"/>
+      <c r="H674" s="6"/>
+      <c r="I674" s="6"/>
+    </row>
+    <row r="675" spans="1:9">
+      <c r="A675" s="6"/>
+      <c r="B675" s="6"/>
+      <c r="C675" s="6"/>
+      <c r="D675" s="6"/>
+      <c r="E675" s="6"/>
+      <c r="F675" s="6"/>
+      <c r="G675" s="6"/>
+      <c r="H675" s="6"/>
+      <c r="I675" s="6"/>
+    </row>
+    <row r="676" spans="1:9">
+      <c r="A676" s="6"/>
+      <c r="B676" s="6"/>
+      <c r="C676" s="6"/>
+      <c r="D676" s="6"/>
+      <c r="E676" s="6"/>
+      <c r="F676" s="6"/>
+      <c r="G676" s="6"/>
+      <c r="H676" s="6"/>
+      <c r="I676" s="6"/>
+    </row>
+    <row r="677" spans="1:9">
+      <c r="A677" s="6"/>
+      <c r="B677" s="6"/>
+      <c r="C677" s="6"/>
+      <c r="D677" s="6"/>
+      <c r="E677" s="6"/>
+      <c r="F677" s="6"/>
+      <c r="G677" s="6"/>
+      <c r="H677" s="6"/>
+      <c r="I677" s="6"/>
+    </row>
+    <row r="678" spans="1:9">
+      <c r="A678" s="6"/>
+      <c r="B678" s="6"/>
+      <c r="C678" s="6"/>
+      <c r="D678" s="6"/>
+      <c r="E678" s="6"/>
+      <c r="F678" s="6"/>
+      <c r="G678" s="6"/>
+      <c r="H678" s="6"/>
+      <c r="I678" s="6"/>
+    </row>
+    <row r="679" spans="1:9">
+      <c r="A679" s="6"/>
+      <c r="B679" s="6"/>
+      <c r="C679" s="6"/>
+      <c r="D679" s="6"/>
+      <c r="E679" s="6"/>
+      <c r="F679" s="6"/>
+      <c r="G679" s="6"/>
+      <c r="H679" s="6"/>
+      <c r="I679" s="6"/>
+    </row>
+    <row r="680" spans="1:9">
+      <c r="A680" s="6"/>
+      <c r="B680" s="6"/>
+      <c r="C680" s="6"/>
+      <c r="D680" s="6"/>
+      <c r="E680" s="6"/>
+      <c r="F680" s="6"/>
+      <c r="G680" s="6"/>
+      <c r="H680" s="6"/>
+      <c r="I680" s="6"/>
+    </row>
+    <row r="681" spans="1:9">
+      <c r="A681" s="6"/>
+      <c r="B681" s="6"/>
+      <c r="C681" s="6"/>
+      <c r="D681" s="6"/>
+      <c r="E681" s="6"/>
+      <c r="F681" s="6"/>
+      <c r="G681" s="6"/>
+      <c r="H681" s="6"/>
+      <c r="I681" s="6"/>
+    </row>
+    <row r="682" spans="1:9">
+      <c r="A682" s="6"/>
+      <c r="B682" s="6"/>
+      <c r="C682" s="6"/>
+      <c r="D682" s="6"/>
+      <c r="E682" s="6"/>
+      <c r="F682" s="6"/>
+      <c r="G682" s="6"/>
+      <c r="H682" s="6"/>
+      <c r="I682" s="6"/>
+    </row>
+    <row r="683" spans="1:9">
+      <c r="A683" s="6"/>
+      <c r="B683" s="6"/>
+      <c r="C683" s="6"/>
+      <c r="D683" s="6"/>
+      <c r="E683" s="6"/>
+      <c r="F683" s="6"/>
+      <c r="G683" s="6"/>
+      <c r="H683" s="6"/>
+      <c r="I683" s="6"/>
+    </row>
+    <row r="684" spans="1:9">
+      <c r="A684" s="6"/>
+      <c r="B684" s="6"/>
+      <c r="C684" s="6"/>
+      <c r="D684" s="6"/>
+      <c r="E684" s="6"/>
+      <c r="F684" s="6"/>
+      <c r="G684" s="6"/>
+      <c r="H684" s="6"/>
+      <c r="I684" s="6"/>
+    </row>
+    <row r="685" spans="1:9">
+      <c r="A685" s="6"/>
+      <c r="B685" s="6"/>
+      <c r="C685" s="6"/>
+      <c r="D685" s="6"/>
+      <c r="E685" s="6"/>
+      <c r="F685" s="6"/>
+      <c r="G685" s="6"/>
+      <c r="H685" s="6"/>
+      <c r="I685" s="6"/>
+    </row>
+    <row r="686" spans="1:9">
+      <c r="A686" s="6"/>
+      <c r="B686" s="6"/>
+      <c r="C686" s="6"/>
+      <c r="D686" s="6"/>
+      <c r="E686" s="6"/>
+      <c r="F686" s="6"/>
+      <c r="G686" s="6"/>
+      <c r="H686" s="6"/>
+      <c r="I686" s="6"/>
+    </row>
+    <row r="687" spans="1:9">
+      <c r="A687" s="6"/>
+      <c r="B687" s="6"/>
+      <c r="C687" s="6"/>
+      <c r="D687" s="6"/>
+      <c r="E687" s="6"/>
+      <c r="F687" s="6"/>
+      <c r="G687" s="6"/>
+      <c r="H687" s="6"/>
+      <c r="I687" s="6"/>
+    </row>
+    <row r="688" spans="1:9">
+      <c r="A688" s="6"/>
+      <c r="B688" s="6"/>
+      <c r="C688" s="6"/>
+      <c r="D688" s="6"/>
+      <c r="E688" s="6"/>
+      <c r="F688" s="6"/>
+      <c r="G688" s="6"/>
+      <c r="H688" s="6"/>
+      <c r="I688" s="6"/>
+    </row>
+    <row r="689" spans="1:9">
+      <c r="A689" s="6"/>
+      <c r="B689" s="6"/>
+      <c r="C689" s="6"/>
+      <c r="D689" s="6"/>
+      <c r="E689" s="6"/>
+      <c r="F689" s="6"/>
+      <c r="G689" s="6"/>
+      <c r="H689" s="6"/>
+      <c r="I689" s="6"/>
+    </row>
+    <row r="690" spans="1:9">
+      <c r="A690" s="6"/>
+      <c r="B690" s="6"/>
+      <c r="C690" s="6"/>
+      <c r="D690" s="6"/>
+      <c r="E690" s="6"/>
+      <c r="F690" s="6"/>
+      <c r="G690" s="6"/>
+      <c r="H690" s="6"/>
+      <c r="I690" s="6"/>
+    </row>
+    <row r="691" spans="1:9">
+      <c r="A691" s="6"/>
+      <c r="B691" s="6"/>
+      <c r="C691" s="6"/>
+      <c r="D691" s="6"/>
+      <c r="E691" s="6"/>
+      <c r="F691" s="6"/>
+      <c r="G691" s="6"/>
+      <c r="H691" s="6"/>
+      <c r="I691" s="6"/>
+    </row>
+    <row r="692" spans="1:9">
+      <c r="A692" s="6"/>
+      <c r="B692" s="6"/>
+      <c r="C692" s="6"/>
+      <c r="D692" s="6"/>
+      <c r="E692" s="6"/>
+      <c r="F692" s="6"/>
+      <c r="G692" s="6"/>
+      <c r="H692" s="6"/>
+      <c r="I692" s="6"/>
+    </row>
+    <row r="693" spans="1:9">
+      <c r="A693" s="6"/>
+      <c r="B693" s="6"/>
+      <c r="C693" s="6"/>
+      <c r="D693" s="6"/>
+      <c r="E693" s="6"/>
+      <c r="F693" s="6"/>
+      <c r="G693" s="6"/>
+      <c r="H693" s="6"/>
+      <c r="I693" s="6"/>
+    </row>
+    <row r="694" spans="1:9">
+      <c r="A694" s="6"/>
+      <c r="B694" s="6"/>
+      <c r="C694" s="6"/>
+      <c r="D694" s="6"/>
+      <c r="E694" s="6"/>
+      <c r="F694" s="6"/>
+      <c r="G694" s="6"/>
+      <c r="H694" s="6"/>
+      <c r="I694" s="6"/>
+    </row>
+    <row r="695" spans="1:9">
+      <c r="A695" s="6"/>
+      <c r="B695" s="6"/>
+      <c r="C695" s="6"/>
+      <c r="D695" s="6"/>
+      <c r="E695" s="6"/>
+      <c r="F695" s="6"/>
+      <c r="G695" s="6"/>
+      <c r="H695" s="6"/>
+      <c r="I695" s="6"/>
+    </row>
+    <row r="696" spans="1:9">
+      <c r="A696" s="6"/>
+      <c r="B696" s="6"/>
+      <c r="C696" s="6"/>
+      <c r="D696" s="6"/>
+      <c r="E696" s="6"/>
+      <c r="F696" s="6"/>
+      <c r="G696" s="6"/>
+      <c r="H696" s="6"/>
+      <c r="I696" s="6"/>
+    </row>
+    <row r="697" spans="1:9">
+      <c r="A697" s="6"/>
+      <c r="B697" s="6"/>
+      <c r="C697" s="6"/>
+      <c r="D697" s="6"/>
+      <c r="E697" s="6"/>
+      <c r="F697" s="6"/>
+      <c r="G697" s="6"/>
+      <c r="H697" s="6"/>
+      <c r="I697" s="6"/>
+    </row>
+    <row r="698" spans="1:9">
+      <c r="A698" s="6"/>
+      <c r="B698" s="6"/>
+      <c r="C698" s="6"/>
+      <c r="D698" s="6"/>
+      <c r="E698" s="6"/>
+      <c r="F698" s="6"/>
+      <c r="G698" s="6"/>
+      <c r="H698" s="6"/>
+      <c r="I698" s="6"/>
+    </row>
+    <row r="699" spans="1:9">
+      <c r="A699" s="6"/>
+      <c r="B699" s="6"/>
+      <c r="C699" s="6"/>
+      <c r="D699" s="6"/>
+      <c r="E699" s="6"/>
+      <c r="F699" s="6"/>
+      <c r="G699" s="6"/>
+      <c r="H699" s="6"/>
+      <c r="I699" s="6"/>
+    </row>
+    <row r="700" spans="1:9">
+      <c r="A700" s="6"/>
+      <c r="B700" s="6"/>
+      <c r="C700" s="6"/>
+      <c r="D700" s="6"/>
+      <c r="E700" s="6"/>
+      <c r="F700" s="6"/>
+      <c r="G700" s="6"/>
+      <c r="H700" s="6"/>
+      <c r="I700" s="6"/>
+    </row>
+    <row r="701" spans="1:9">
+      <c r="A701" s="6"/>
+      <c r="B701" s="6"/>
+      <c r="C701" s="6"/>
+      <c r="D701" s="6"/>
+      <c r="E701" s="6"/>
+      <c r="F701" s="6"/>
+      <c r="G701" s="6"/>
+      <c r="H701" s="6"/>
+      <c r="I701" s="6"/>
+    </row>
+    <row r="702" spans="1:9">
+      <c r="A702" s="6"/>
+      <c r="B702" s="6"/>
+      <c r="C702" s="6"/>
+      <c r="D702" s="6"/>
+      <c r="E702" s="6"/>
+      <c r="F702" s="6"/>
+      <c r="G702" s="6"/>
+      <c r="H702" s="6"/>
+      <c r="I702" s="6"/>
+    </row>
+    <row r="703" spans="1:9">
+      <c r="A703" s="6"/>
+      <c r="B703" s="6"/>
+      <c r="C703" s="6"/>
+      <c r="D703" s="6"/>
+      <c r="E703" s="6"/>
+      <c r="F703" s="6"/>
+      <c r="G703" s="6"/>
+      <c r="H703" s="6"/>
+      <c r="I703" s="6"/>
+    </row>
+    <row r="704" spans="1:9">
+      <c r="A704" s="6"/>
+      <c r="B704" s="6"/>
+      <c r="C704" s="6"/>
+      <c r="D704" s="6"/>
+      <c r="E704" s="6"/>
+      <c r="F704" s="6"/>
+      <c r="G704" s="6"/>
+      <c r="H704" s="6"/>
+      <c r="I704" s="6"/>
+    </row>
+    <row r="705" spans="1:9">
+      <c r="A705" s="6"/>
+      <c r="B705" s="6"/>
+      <c r="C705" s="6"/>
+      <c r="D705" s="6"/>
+      <c r="E705" s="6"/>
+      <c r="F705" s="6"/>
+      <c r="G705" s="6"/>
+      <c r="H705" s="6"/>
+      <c r="I705" s="6"/>
+    </row>
+    <row r="706" spans="1:9">
+      <c r="A706" s="6"/>
+      <c r="B706" s="6"/>
+      <c r="C706" s="6"/>
+      <c r="D706" s="6"/>
+      <c r="E706" s="6"/>
+      <c r="F706" s="6"/>
+      <c r="G706" s="6"/>
+      <c r="H706" s="6"/>
+      <c r="I706" s="6"/>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707" s="6"/>
+      <c r="B707" s="6"/>
+      <c r="C707" s="6"/>
+      <c r="D707" s="6"/>
+      <c r="E707" s="6"/>
+      <c r="F707" s="6"/>
+      <c r="G707" s="6"/>
+      <c r="H707" s="6"/>
+      <c r="I707" s="6"/>
+    </row>
+    <row r="708" spans="1:9">
+      <c r="A708" s="6"/>
+      <c r="B708" s="6"/>
+      <c r="C708" s="6"/>
+      <c r="D708" s="6"/>
+      <c r="E708" s="6"/>
+      <c r="F708" s="6"/>
+      <c r="G708" s="6"/>
+      <c r="H708" s="6"/>
+      <c r="I708" s="6"/>
+    </row>
+    <row r="709" spans="1:9">
+      <c r="A709" s="6"/>
+      <c r="B709" s="6"/>
+      <c r="C709" s="6"/>
+      <c r="D709" s="6"/>
+      <c r="E709" s="6"/>
+      <c r="F709" s="6"/>
+      <c r="G709" s="6"/>
+      <c r="H709" s="6"/>
+      <c r="I709" s="6"/>
+    </row>
+    <row r="710" spans="1:9">
+      <c r="A710" s="6"/>
+      <c r="B710" s="6"/>
+      <c r="C710" s="6"/>
+      <c r="D710" s="6"/>
+      <c r="E710" s="6"/>
+      <c r="F710" s="6"/>
+      <c r="G710" s="6"/>
+      <c r="H710" s="6"/>
+      <c r="I710" s="6"/>
+    </row>
+    <row r="711" spans="1:9">
+      <c r="A711" s="6"/>
+      <c r="B711" s="6"/>
+      <c r="C711" s="6"/>
+      <c r="D711" s="6"/>
+      <c r="E711" s="6"/>
+      <c r="F711" s="6"/>
+      <c r="G711" s="6"/>
+      <c r="H711" s="6"/>
+      <c r="I711" s="6"/>
+    </row>
+    <row r="712" spans="1:9">
+      <c r="A712" s="6"/>
+      <c r="B712" s="6"/>
+      <c r="C712" s="6"/>
+      <c r="D712" s="6"/>
+      <c r="E712" s="6"/>
+      <c r="F712" s="6"/>
+      <c r="G712" s="6"/>
+      <c r="H712" s="6"/>
+      <c r="I712" s="6"/>
+    </row>
+    <row r="713" spans="1:9">
+      <c r="A713" s="6"/>
+      <c r="B713" s="6"/>
+      <c r="C713" s="6"/>
+      <c r="D713" s="6"/>
+      <c r="E713" s="6"/>
+      <c r="F713" s="6"/>
+      <c r="G713" s="6"/>
+      <c r="H713" s="6"/>
+      <c r="I713" s="6"/>
+    </row>
+    <row r="714" spans="1:9">
+      <c r="A714" s="6"/>
+      <c r="B714" s="6"/>
+      <c r="C714" s="6"/>
+      <c r="D714" s="6"/>
+      <c r="E714" s="6"/>
+      <c r="F714" s="6"/>
+      <c r="G714" s="6"/>
+      <c r="H714" s="6"/>
+      <c r="I714" s="6"/>
+    </row>
+    <row r="715" spans="1:9">
+      <c r="A715" s="6"/>
+      <c r="B715" s="6"/>
+      <c r="C715" s="6"/>
+      <c r="D715" s="6"/>
+      <c r="E715" s="6"/>
+      <c r="F715" s="6"/>
+      <c r="G715" s="6"/>
+      <c r="H715" s="6"/>
+      <c r="I715" s="6"/>
+    </row>
+    <row r="716" spans="1:9">
+      <c r="A716" s="6"/>
+      <c r="B716" s="6"/>
+      <c r="C716" s="6"/>
+      <c r="D716" s="6"/>
+      <c r="E716" s="6"/>
+      <c r="F716" s="6"/>
+      <c r="G716" s="6"/>
+      <c r="H716" s="6"/>
+      <c r="I716" s="6"/>
+    </row>
+    <row r="717" spans="1:9">
+      <c r="A717" s="6"/>
+      <c r="B717" s="6"/>
+      <c r="C717" s="6"/>
+      <c r="D717" s="6"/>
+      <c r="E717" s="6"/>
+      <c r="F717" s="6"/>
+      <c r="G717" s="6"/>
+      <c r="H717" s="6"/>
+      <c r="I717" s="6"/>
+    </row>
+    <row r="718" spans="1:9">
+      <c r="A718" s="6"/>
+      <c r="B718" s="6"/>
+      <c r="C718" s="6"/>
+      <c r="D718" s="6"/>
+      <c r="E718" s="6"/>
+      <c r="F718" s="6"/>
+      <c r="G718" s="6"/>
+      <c r="H718" s="6"/>
+      <c r="I718" s="6"/>
+    </row>
+    <row r="719" spans="1:9">
+      <c r="A719" s="6"/>
+      <c r="B719" s="6"/>
+      <c r="C719" s="6"/>
+      <c r="D719" s="6"/>
+      <c r="E719" s="6"/>
+      <c r="F719" s="6"/>
+      <c r="G719" s="6"/>
+      <c r="H719" s="6"/>
+      <c r="I719" s="6"/>
+    </row>
+    <row r="720" spans="1:9">
+      <c r="A720" s="6"/>
+      <c r="B720" s="6"/>
+      <c r="C720" s="6"/>
+      <c r="D720" s="6"/>
+      <c r="E720" s="6"/>
+      <c r="F720" s="6"/>
+      <c r="G720" s="6"/>
+      <c r="H720" s="6"/>
+      <c r="I720" s="6"/>
+    </row>
+    <row r="721" spans="1:9">
+      <c r="A721" s="6"/>
+      <c r="B721" s="6"/>
+      <c r="C721" s="6"/>
+      <c r="D721" s="6"/>
+      <c r="E721" s="6"/>
+      <c r="F721" s="6"/>
+      <c r="G721" s="6"/>
+      <c r="H721" s="6"/>
+      <c r="I721" s="6"/>
+    </row>
+    <row r="722" spans="1:9">
+      <c r="A722" s="6"/>
+      <c r="B722" s="6"/>
+      <c r="C722" s="6"/>
+      <c r="D722" s="6"/>
+      <c r="E722" s="6"/>
+      <c r="F722" s="6"/>
+      <c r="G722" s="6"/>
+      <c r="H722" s="6"/>
+      <c r="I722" s="6"/>
+    </row>
+    <row r="723" spans="1:9">
+      <c r="A723" s="6"/>
+      <c r="B723" s="6"/>
+      <c r="C723" s="6"/>
+      <c r="D723" s="6"/>
+      <c r="E723" s="6"/>
+      <c r="F723" s="6"/>
+      <c r="G723" s="6"/>
+      <c r="H723" s="6"/>
+      <c r="I723" s="6"/>
+    </row>
+    <row r="724" spans="1:9">
+      <c r="A724" s="6"/>
+      <c r="B724" s="6"/>
+      <c r="C724" s="6"/>
+      <c r="D724" s="6"/>
+      <c r="E724" s="6"/>
+      <c r="F724" s="6"/>
+      <c r="G724" s="6"/>
+      <c r="H724" s="6"/>
+      <c r="I724" s="6"/>
+    </row>
+    <row r="725" spans="1:9">
+      <c r="A725" s="6"/>
+      <c r="B725" s="6"/>
+      <c r="C725" s="6"/>
+      <c r="D725" s="6"/>
+      <c r="E725" s="6"/>
+      <c r="F725" s="6"/>
+      <c r="G725" s="6"/>
+      <c r="H725" s="6"/>
+      <c r="I725" s="6"/>
+    </row>
+    <row r="726" spans="1:9">
+      <c r="A726" s="6"/>
+      <c r="B726" s="6"/>
+      <c r="C726" s="6"/>
+      <c r="D726" s="6"/>
+      <c r="E726" s="6"/>
+      <c r="F726" s="6"/>
+      <c r="G726" s="6"/>
+      <c r="H726" s="6"/>
+      <c r="I726" s="6"/>
+    </row>
+    <row r="727" spans="1:9">
+      <c r="A727" s="6"/>
+      <c r="B727" s="6"/>
+      <c r="C727" s="6"/>
+      <c r="D727" s="6"/>
+      <c r="E727" s="6"/>
+      <c r="F727" s="6"/>
+      <c r="G727" s="6"/>
+      <c r="H727" s="6"/>
+      <c r="I727" s="6"/>
+    </row>
+    <row r="728" spans="1:9">
+      <c r="A728" s="6"/>
+      <c r="B728" s="6"/>
+      <c r="C728" s="6"/>
+      <c r="D728" s="6"/>
+      <c r="E728" s="6"/>
+      <c r="F728" s="6"/>
+      <c r="G728" s="6"/>
+      <c r="H728" s="6"/>
+      <c r="I728" s="6"/>
+    </row>
+    <row r="729" spans="1:9">
+      <c r="A729" s="6"/>
+      <c r="B729" s="6"/>
+      <c r="C729" s="6"/>
+      <c r="D729" s="6"/>
+      <c r="E729" s="6"/>
+      <c r="F729" s="6"/>
+      <c r="G729" s="6"/>
+      <c r="H729" s="6"/>
+      <c r="I729" s="6"/>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730" s="6"/>
+      <c r="B730" s="6"/>
+      <c r="C730" s="6"/>
+      <c r="D730" s="6"/>
+      <c r="E730" s="6"/>
+      <c r="F730" s="6"/>
+      <c r="G730" s="6"/>
+      <c r="H730" s="6"/>
+      <c r="I730" s="6"/>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731" s="6"/>
+      <c r="B731" s="6"/>
+      <c r="C731" s="6"/>
+      <c r="D731" s="6"/>
+      <c r="E731" s="6"/>
+      <c r="F731" s="6"/>
+      <c r="G731" s="6"/>
+      <c r="H731" s="6"/>
+      <c r="I731" s="6"/>
+    </row>
+    <row r="732" spans="1:9">
+      <c r="A732" s="6"/>
+      <c r="B732" s="6"/>
+      <c r="C732" s="6"/>
+      <c r="D732" s="6"/>
+      <c r="E732" s="6"/>
+      <c r="F732" s="6"/>
+      <c r="G732" s="6"/>
+      <c r="H732" s="6"/>
+      <c r="I732" s="6"/>
+    </row>
+    <row r="733" spans="1:9">
+      <c r="A733" s="6"/>
+      <c r="B733" s="6"/>
+      <c r="C733" s="6"/>
+      <c r="D733" s="6"/>
+      <c r="E733" s="6"/>
+      <c r="F733" s="6"/>
+      <c r="G733" s="6"/>
+      <c r="H733" s="6"/>
+      <c r="I733" s="6"/>
+    </row>
+    <row r="734" spans="1:9">
+      <c r="A734" s="6"/>
+      <c r="B734" s="6"/>
+      <c r="C734" s="6"/>
+      <c r="D734" s="6"/>
+      <c r="E734" s="6"/>
+      <c r="F734" s="6"/>
+      <c r="G734" s="6"/>
+      <c r="H734" s="6"/>
+      <c r="I734" s="6"/>
+    </row>
+    <row r="735" spans="1:9">
+      <c r="A735" s="6"/>
+      <c r="B735" s="6"/>
+      <c r="C735" s="6"/>
+      <c r="D735" s="6"/>
+      <c r="E735" s="6"/>
+      <c r="F735" s="6"/>
+      <c r="G735" s="6"/>
+      <c r="H735" s="6"/>
+      <c r="I735" s="6"/>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736" s="6"/>
+      <c r="B736" s="6"/>
+      <c r="C736" s="6"/>
+      <c r="D736" s="6"/>
+      <c r="E736" s="6"/>
+      <c r="F736" s="6"/>
+      <c r="G736" s="6"/>
+      <c r="H736" s="6"/>
+      <c r="I736" s="6"/>
+    </row>
+    <row r="737" spans="1:9">
+      <c r="A737" s="6"/>
+      <c r="B737" s="6"/>
+      <c r="C737" s="6"/>
+      <c r="D737" s="6"/>
+      <c r="E737" s="6"/>
+      <c r="F737" s="6"/>
+      <c r="G737" s="6"/>
+      <c r="H737" s="6"/>
+      <c r="I737" s="6"/>
+    </row>
+    <row r="738" spans="1:9">
+      <c r="A738" s="6"/>
+      <c r="B738" s="6"/>
+      <c r="C738" s="6"/>
+      <c r="D738" s="6"/>
+      <c r="E738" s="6"/>
+      <c r="F738" s="6"/>
+      <c r="G738" s="6"/>
+      <c r="H738" s="6"/>
+      <c r="I738" s="6"/>
+    </row>
+    <row r="739" spans="1:9">
+      <c r="A739" s="6"/>
+      <c r="B739" s="6"/>
+      <c r="C739" s="6"/>
+      <c r="D739" s="6"/>
+      <c r="E739" s="6"/>
+      <c r="F739" s="6"/>
+      <c r="G739" s="6"/>
+      <c r="H739" s="6"/>
+      <c r="I739" s="6"/>
+    </row>
+    <row r="740" spans="1:9">
+      <c r="A740" s="6"/>
+      <c r="B740" s="6"/>
+      <c r="C740" s="6"/>
+      <c r="D740" s="6"/>
+      <c r="E740" s="6"/>
+      <c r="F740" s="6"/>
+      <c r="G740" s="6"/>
+      <c r="H740" s="6"/>
+      <c r="I740" s="6"/>
+    </row>
+    <row r="741" spans="1:9">
+      <c r="A741" s="6"/>
+      <c r="B741" s="6"/>
+      <c r="C741" s="6"/>
+      <c r="D741" s="6"/>
+      <c r="E741" s="6"/>
+      <c r="F741" s="6"/>
+      <c r="G741" s="6"/>
+      <c r="H741" s="6"/>
+      <c r="I741" s="6"/>
+    </row>
+    <row r="742" spans="1:9">
+      <c r="A742" s="6"/>
+      <c r="B742" s="6"/>
+      <c r="C742" s="6"/>
+      <c r="D742" s="6"/>
+      <c r="E742" s="6"/>
+      <c r="F742" s="6"/>
+      <c r="G742" s="6"/>
+      <c r="H742" s="6"/>
+      <c r="I742" s="6"/>
+    </row>
+    <row r="743" spans="1:9">
+      <c r="A743" s="6"/>
+      <c r="B743" s="6"/>
+      <c r="C743" s="6"/>
+      <c r="D743" s="6"/>
+      <c r="E743" s="6"/>
+      <c r="F743" s="6"/>
+      <c r="G743" s="6"/>
+      <c r="H743" s="6"/>
+      <c r="I743" s="6"/>
+    </row>
+    <row r="744" spans="1:9">
+      <c r="A744" s="6"/>
+      <c r="B744" s="6"/>
+      <c r="C744" s="6"/>
+      <c r="D744" s="6"/>
+      <c r="E744" s="6"/>
+      <c r="F744" s="6"/>
+      <c r="G744" s="6"/>
+      <c r="H744" s="6"/>
+      <c r="I744" s="6"/>
+    </row>
+    <row r="745" spans="1:9">
+      <c r="A745" s="6"/>
+      <c r="B745" s="6"/>
+      <c r="C745" s="6"/>
+      <c r="D745" s="6"/>
+      <c r="E745" s="6"/>
+      <c r="F745" s="6"/>
+      <c r="G745" s="6"/>
+      <c r="H745" s="6"/>
+      <c r="I745" s="6"/>
+    </row>
+    <row r="746" spans="1:9">
+      <c r="A746" s="6"/>
+      <c r="B746" s="6"/>
+      <c r="C746" s="6"/>
+      <c r="D746" s="6"/>
+      <c r="E746" s="6"/>
+      <c r="F746" s="6"/>
+      <c r="G746" s="6"/>
+      <c r="H746" s="6"/>
+      <c r="I746" s="6"/>
+    </row>
+    <row r="747" spans="1:9">
+      <c r="A747" s="6"/>
+      <c r="B747" s="6"/>
+      <c r="C747" s="6"/>
+      <c r="D747" s="6"/>
+      <c r="E747" s="6"/>
+      <c r="F747" s="6"/>
+      <c r="G747" s="6"/>
+      <c r="H747" s="6"/>
+      <c r="I747" s="6"/>
+    </row>
+    <row r="748" spans="1:9">
+      <c r="A748" s="6"/>
+      <c r="B748" s="6"/>
+      <c r="C748" s="6"/>
+      <c r="D748" s="6"/>
+      <c r="E748" s="6"/>
+      <c r="F748" s="6"/>
+      <c r="G748" s="6"/>
+      <c r="H748" s="6"/>
+      <c r="I748" s="6"/>
+    </row>
+    <row r="749" spans="1:9">
+      <c r="A749" s="6"/>
+      <c r="B749" s="6"/>
+      <c r="C749" s="6"/>
+      <c r="D749" s="6"/>
+      <c r="E749" s="6"/>
+      <c r="F749" s="6"/>
+      <c r="G749" s="6"/>
+      <c r="H749" s="6"/>
+      <c r="I749" s="6"/>
+    </row>
+    <row r="750" spans="1:9">
+      <c r="A750" s="6"/>
+      <c r="B750" s="6"/>
+      <c r="C750" s="6"/>
+      <c r="D750" s="6"/>
+      <c r="E750" s="6"/>
+      <c r="F750" s="6"/>
+      <c r="G750" s="6"/>
+      <c r="H750" s="6"/>
+      <c r="I750" s="6"/>
+    </row>
+    <row r="751" spans="1:9">
+      <c r="A751" s="6"/>
+      <c r="B751" s="6"/>
+      <c r="C751" s="6"/>
+      <c r="D751" s="6"/>
+      <c r="E751" s="6"/>
+      <c r="F751" s="6"/>
+      <c r="G751" s="6"/>
+      <c r="H751" s="6"/>
+      <c r="I751" s="6"/>
+    </row>
+    <row r="752" spans="1:9">
+      <c r="A752" s="6"/>
+      <c r="B752" s="6"/>
+      <c r="C752" s="6"/>
+      <c r="D752" s="6"/>
+      <c r="E752" s="6"/>
+      <c r="F752" s="6"/>
+      <c r="G752" s="6"/>
+      <c r="H752" s="6"/>
+      <c r="I752" s="6"/>
+    </row>
+    <row r="753" spans="1:9">
+      <c r="A753" s="6"/>
+      <c r="B753" s="6"/>
+      <c r="C753" s="6"/>
+      <c r="D753" s="6"/>
+      <c r="E753" s="6"/>
+      <c r="F753" s="6"/>
+      <c r="G753" s="6"/>
+      <c r="H753" s="6"/>
+      <c r="I753" s="6"/>
+    </row>
+    <row r="754" spans="1:9">
+      <c r="A754" s="6"/>
+      <c r="B754" s="6"/>
+      <c r="C754" s="6"/>
+      <c r="D754" s="6"/>
+      <c r="E754" s="6"/>
+      <c r="F754" s="6"/>
+      <c r="G754" s="6"/>
+      <c r="H754" s="6"/>
+      <c r="I754" s="6"/>
+    </row>
+    <row r="755" spans="1:9">
+      <c r="A755" s="6"/>
+      <c r="B755" s="6"/>
+      <c r="C755" s="6"/>
+      <c r="D755" s="6"/>
+      <c r="E755" s="6"/>
+      <c r="F755" s="6"/>
+      <c r="G755" s="6"/>
+      <c r="H755" s="6"/>
+      <c r="I755" s="6"/>
+    </row>
+    <row r="756" spans="1:9">
+      <c r="A756" s="6"/>
+      <c r="B756" s="6"/>
+      <c r="C756" s="6"/>
+      <c r="D756" s="6"/>
+      <c r="E756" s="6"/>
+      <c r="F756" s="6"/>
+      <c r="G756" s="6"/>
+      <c r="H756" s="6"/>
+      <c r="I756" s="6"/>
+    </row>
+    <row r="757" spans="1:9">
+      <c r="A757" s="6"/>
+      <c r="B757" s="6"/>
+      <c r="C757" s="6"/>
+      <c r="D757" s="6"/>
+      <c r="E757" s="6"/>
+      <c r="F757" s="6"/>
+      <c r="G757" s="6"/>
+      <c r="H757" s="6"/>
+      <c r="I757" s="6"/>
+    </row>
+    <row r="758" spans="1:9">
+      <c r="A758" s="6"/>
+      <c r="B758" s="6"/>
+      <c r="C758" s="6"/>
+      <c r="D758" s="6"/>
+      <c r="E758" s="6"/>
+      <c r="F758" s="6"/>
+      <c r="G758" s="6"/>
+      <c r="H758" s="6"/>
+      <c r="I758" s="6"/>
+    </row>
+    <row r="759" spans="1:9">
+      <c r="A759" s="6"/>
+      <c r="B759" s="6"/>
+      <c r="C759" s="6"/>
+      <c r="D759" s="6"/>
+      <c r="E759" s="6"/>
+      <c r="F759" s="6"/>
+      <c r="G759" s="6"/>
+      <c r="H759" s="6"/>
+      <c r="I759" s="6"/>
+    </row>
+    <row r="760" spans="1:9">
+      <c r="A760" s="6"/>
+      <c r="B760" s="6"/>
+      <c r="C760" s="6"/>
+      <c r="D760" s="6"/>
+      <c r="E760" s="6"/>
+      <c r="F760" s="6"/>
+      <c r="G760" s="6"/>
+      <c r="H760" s="6"/>
+      <c r="I760" s="6"/>
+    </row>
+    <row r="761" spans="1:9">
+      <c r="A761" s="6"/>
+      <c r="B761" s="6"/>
+      <c r="C761" s="6"/>
+      <c r="D761" s="6"/>
+      <c r="E761" s="6"/>
+      <c r="F761" s="6"/>
+      <c r="G761" s="6"/>
+      <c r="H761" s="6"/>
+      <c r="I761" s="6"/>
+    </row>
+    <row r="762" spans="1:9">
+      <c r="A762" s="6"/>
+      <c r="B762" s="6"/>
+      <c r="C762" s="6"/>
+      <c r="D762" s="6"/>
+      <c r="E762" s="6"/>
+      <c r="F762" s="6"/>
+      <c r="G762" s="6"/>
+      <c r="H762" s="6"/>
+      <c r="I762" s="6"/>
+    </row>
+    <row r="763" spans="1:9">
+      <c r="A763" s="6"/>
+      <c r="B763" s="6"/>
+      <c r="C763" s="6"/>
+      <c r="D763" s="6"/>
+      <c r="E763" s="6"/>
+      <c r="F763" s="6"/>
+      <c r="G763" s="6"/>
+      <c r="H763" s="6"/>
+      <c r="I763" s="6"/>
+    </row>
+    <row r="764" spans="1:9">
+      <c r="A764" s="6"/>
+      <c r="B764" s="6"/>
+      <c r="C764" s="6"/>
+      <c r="D764" s="6"/>
+      <c r="E764" s="6"/>
+      <c r="F764" s="6"/>
+      <c r="G764" s="6"/>
+      <c r="H764" s="6"/>
+      <c r="I764" s="6"/>
+    </row>
+    <row r="765" spans="1:9">
+      <c r="A765" s="6"/>
+      <c r="B765" s="6"/>
+      <c r="C765" s="6"/>
+      <c r="D765" s="6"/>
+      <c r="E765" s="6"/>
+      <c r="F765" s="6"/>
+      <c r="G765" s="6"/>
+      <c r="H765" s="6"/>
+      <c r="I765" s="6"/>
+    </row>
+    <row r="766" spans="1:9">
+      <c r="A766" s="6"/>
+      <c r="B766" s="6"/>
+      <c r="C766" s="6"/>
+      <c r="D766" s="6"/>
+      <c r="E766" s="6"/>
+      <c r="F766" s="6"/>
+      <c r="G766" s="6"/>
+      <c r="H766" s="6"/>
+      <c r="I766" s="6"/>
+    </row>
+    <row r="767" spans="1:9">
+      <c r="A767" s="6"/>
+      <c r="B767" s="6"/>
+      <c r="C767" s="6"/>
+      <c r="D767" s="6"/>
+      <c r="E767" s="6"/>
+      <c r="F767" s="6"/>
+      <c r="G767" s="6"/>
+      <c r="H767" s="6"/>
+      <c r="I767" s="6"/>
+    </row>
+    <row r="768" spans="1:9">
+      <c r="A768" s="6"/>
+      <c r="B768" s="6"/>
+      <c r="C768" s="6"/>
+      <c r="D768" s="6"/>
+      <c r="E768" s="6"/>
+      <c r="F768" s="6"/>
+      <c r="G768" s="6"/>
+      <c r="H768" s="6"/>
+      <c r="I768" s="6"/>
+    </row>
+    <row r="769" spans="1:9">
+      <c r="A769" s="6"/>
+      <c r="B769" s="6"/>
+      <c r="C769" s="6"/>
+      <c r="D769" s="6"/>
+      <c r="E769" s="6"/>
+      <c r="F769" s="6"/>
+      <c r="G769" s="6"/>
+      <c r="H769" s="6"/>
+      <c r="I769" s="6"/>
+    </row>
+    <row r="770" spans="1:9">
+      <c r="A770" s="6"/>
+      <c r="B770" s="6"/>
+      <c r="C770" s="6"/>
+      <c r="D770" s="6"/>
+      <c r="E770" s="6"/>
+      <c r="F770" s="6"/>
+      <c r="G770" s="6"/>
+      <c r="H770" s="6"/>
+      <c r="I770" s="6"/>
+    </row>
+    <row r="771" spans="1:9">
+      <c r="A771" s="6"/>
+      <c r="B771" s="6"/>
+      <c r="C771" s="6"/>
+      <c r="D771" s="6"/>
+      <c r="E771" s="6"/>
+      <c r="F771" s="6"/>
+      <c r="G771" s="6"/>
+      <c r="H771" s="6"/>
+      <c r="I771" s="6"/>
+    </row>
+    <row r="772" spans="1:9">
+      <c r="A772" s="6"/>
+      <c r="B772" s="6"/>
+      <c r="C772" s="6"/>
+      <c r="D772" s="6"/>
+      <c r="E772" s="6"/>
+      <c r="F772" s="6"/>
+      <c r="G772" s="6"/>
+      <c r="H772" s="6"/>
+      <c r="I772" s="6"/>
+    </row>
+    <row r="773" spans="1:9">
+      <c r="A773" s="6"/>
+      <c r="B773" s="6"/>
+      <c r="C773" s="6"/>
+      <c r="D773" s="6"/>
+      <c r="E773" s="6"/>
+      <c r="F773" s="6"/>
+      <c r="G773" s="6"/>
+      <c r="H773" s="6"/>
+      <c r="I773" s="6"/>
+    </row>
+    <row r="774" spans="1:9">
+      <c r="A774" s="6"/>
+      <c r="B774" s="6"/>
+      <c r="C774" s="6"/>
+      <c r="D774" s="6"/>
+      <c r="E774" s="6"/>
+      <c r="F774" s="6"/>
+      <c r="G774" s="6"/>
+      <c r="H774" s="6"/>
+      <c r="I774" s="6"/>
+    </row>
+    <row r="775" spans="1:9">
+      <c r="A775" s="6"/>
+      <c r="B775" s="6"/>
+      <c r="C775" s="6"/>
+      <c r="D775" s="6"/>
+      <c r="E775" s="6"/>
+      <c r="F775" s="6"/>
+      <c r="G775" s="6"/>
+      <c r="H775" s="6"/>
+      <c r="I775" s="6"/>
+    </row>
+    <row r="776" spans="1:9">
+      <c r="A776" s="6"/>
+      <c r="B776" s="6"/>
+      <c r="C776" s="6"/>
+      <c r="D776" s="6"/>
+      <c r="E776" s="6"/>
+      <c r="F776" s="6"/>
+      <c r="G776" s="6"/>
+      <c r="H776" s="6"/>
+      <c r="I776" s="6"/>
+    </row>
+    <row r="777" spans="1:9">
+      <c r="A777" s="6"/>
+      <c r="B777" s="6"/>
+      <c r="C777" s="6"/>
+      <c r="D777" s="6"/>
+      <c r="E777" s="6"/>
+      <c r="F777" s="6"/>
+      <c r="G777" s="6"/>
+      <c r="H777" s="6"/>
+      <c r="I777" s="6"/>
+    </row>
+    <row r="778" spans="1:9">
+      <c r="A778" s="6"/>
+      <c r="B778" s="6"/>
+      <c r="C778" s="6"/>
+      <c r="D778" s="6"/>
+      <c r="E778" s="6"/>
+      <c r="F778" s="6"/>
+      <c r="G778" s="6"/>
+      <c r="H778" s="6"/>
+      <c r="I778" s="6"/>
+    </row>
+    <row r="779" spans="1:9">
+      <c r="A779" s="6"/>
+      <c r="B779" s="6"/>
+      <c r="C779" s="6"/>
+      <c r="D779" s="6"/>
+      <c r="E779" s="6"/>
+      <c r="F779" s="6"/>
+      <c r="G779" s="6"/>
+      <c r="H779" s="6"/>
+      <c r="I779" s="6"/>
+    </row>
+    <row r="780" spans="1:9">
+      <c r="A780" s="6"/>
+      <c r="B780" s="6"/>
+      <c r="C780" s="6"/>
+      <c r="D780" s="6"/>
+      <c r="E780" s="6"/>
+      <c r="F780" s="6"/>
+      <c r="G780" s="6"/>
+      <c r="H780" s="6"/>
+      <c r="I780" s="6"/>
+    </row>
+    <row r="781" spans="1:9">
+      <c r="A781" s="6"/>
+      <c r="B781" s="6"/>
+      <c r="C781" s="6"/>
+      <c r="D781" s="6"/>
+      <c r="E781" s="6"/>
+      <c r="F781" s="6"/>
+      <c r="G781" s="6"/>
+      <c r="H781" s="6"/>
+      <c r="I781" s="6"/>
+    </row>
+    <row r="782" spans="1:9">
+      <c r="A782" s="6"/>
+      <c r="B782" s="6"/>
+      <c r="C782" s="6"/>
+      <c r="D782" s="6"/>
+      <c r="E782" s="6"/>
+      <c r="F782" s="6"/>
+      <c r="G782" s="6"/>
+      <c r="H782" s="6"/>
+      <c r="I782" s="6"/>
+    </row>
+    <row r="783" spans="1:9">
+      <c r="A783" s="6"/>
+      <c r="B783" s="6"/>
+      <c r="C783" s="6"/>
+      <c r="D783" s="6"/>
+      <c r="E783" s="6"/>
+      <c r="F783" s="6"/>
+      <c r="G783" s="6"/>
+      <c r="H783" s="6"/>
+      <c r="I783" s="6"/>
+    </row>
+    <row r="784" spans="1:9">
+      <c r="A784" s="6"/>
+      <c r="B784" s="6"/>
+      <c r="C784" s="6"/>
+      <c r="D784" s="6"/>
+      <c r="E784" s="6"/>
+      <c r="F784" s="6"/>
+      <c r="G784" s="6"/>
+      <c r="H784" s="6"/>
+      <c r="I784" s="6"/>
+    </row>
+    <row r="785" spans="1:9">
+      <c r="A785" s="6"/>
+      <c r="B785" s="6"/>
+      <c r="C785" s="6"/>
+      <c r="D785" s="6"/>
+      <c r="E785" s="6"/>
+      <c r="F785" s="6"/>
+      <c r="G785" s="6"/>
+      <c r="H785" s="6"/>
+      <c r="I785" s="6"/>
+    </row>
+    <row r="786" spans="1:9">
+      <c r="A786" s="6"/>
+      <c r="B786" s="6"/>
+      <c r="C786" s="6"/>
+      <c r="D786" s="6"/>
+      <c r="E786" s="6"/>
+      <c r="F786" s="6"/>
+      <c r="G786" s="6"/>
+      <c r="H786" s="6"/>
+      <c r="I786" s="6"/>
+    </row>
+    <row r="787" spans="1:9">
+      <c r="A787" s="6"/>
+      <c r="B787" s="6"/>
+      <c r="C787" s="6"/>
+      <c r="D787" s="6"/>
+      <c r="E787" s="6"/>
+      <c r="F787" s="6"/>
+      <c r="G787" s="6"/>
+      <c r="H787" s="6"/>
+      <c r="I787" s="6"/>
+    </row>
+    <row r="788" spans="1:9">
+      <c r="A788" s="6"/>
+      <c r="B788" s="6"/>
+      <c r="C788" s="6"/>
+      <c r="D788" s="6"/>
+      <c r="E788" s="6"/>
+      <c r="F788" s="6"/>
+      <c r="G788" s="6"/>
+      <c r="H788" s="6"/>
+      <c r="I788" s="6"/>
+    </row>
+    <row r="789" spans="1:9">
+      <c r="A789" s="6"/>
+      <c r="B789" s="6"/>
+      <c r="C789" s="6"/>
+      <c r="D789" s="6"/>
+      <c r="E789" s="6"/>
+      <c r="F789" s="6"/>
+      <c r="G789" s="6"/>
+      <c r="H789" s="6"/>
+      <c r="I789" s="6"/>
+    </row>
+    <row r="790" spans="1:9">
+      <c r="A790" s="6"/>
+      <c r="B790" s="6"/>
+      <c r="C790" s="6"/>
+      <c r="D790" s="6"/>
+      <c r="E790" s="6"/>
+      <c r="F790" s="6"/>
+      <c r="G790" s="6"/>
+      <c r="H790" s="6"/>
+      <c r="I790" s="6"/>
+    </row>
+    <row r="791" spans="1:9">
+      <c r="A791" s="6"/>
+      <c r="B791" s="6"/>
+      <c r="C791" s="6"/>
+      <c r="D791" s="6"/>
+      <c r="E791" s="6"/>
+      <c r="F791" s="6"/>
+      <c r="G791" s="6"/>
+      <c r="H791" s="6"/>
+      <c r="I791" s="6"/>
+    </row>
+    <row r="792" spans="1:9">
+      <c r="A792" s="6"/>
+      <c r="B792" s="6"/>
+      <c r="C792" s="6"/>
+      <c r="D792" s="6"/>
+      <c r="E792" s="6"/>
+      <c r="F792" s="6"/>
+      <c r="G792" s="6"/>
+      <c r="H792" s="6"/>
+      <c r="I792" s="6"/>
+    </row>
+    <row r="793" spans="1:9">
+      <c r="A793" s="6"/>
+      <c r="B793" s="6"/>
+      <c r="C793" s="6"/>
+      <c r="D793" s="6"/>
+      <c r="E793" s="6"/>
+      <c r="F793" s="6"/>
+      <c r="G793" s="6"/>
+      <c r="H793" s="6"/>
+      <c r="I793" s="6"/>
+    </row>
+    <row r="794" spans="1:9">
+      <c r="A794" s="6"/>
+      <c r="B794" s="6"/>
+      <c r="C794" s="6"/>
+      <c r="D794" s="6"/>
+      <c r="E794" s="6"/>
+      <c r="F794" s="6"/>
+      <c r="G794" s="6"/>
+      <c r="H794" s="6"/>
+      <c r="I794" s="6"/>
+    </row>
+    <row r="795" spans="1:9">
+      <c r="A795" s="6"/>
+      <c r="B795" s="6"/>
+      <c r="C795" s="6"/>
+      <c r="D795" s="6"/>
+      <c r="E795" s="6"/>
+      <c r="F795" s="6"/>
+      <c r="G795" s="6"/>
+      <c r="H795" s="6"/>
+      <c r="I795" s="6"/>
+    </row>
+    <row r="796" spans="1:9">
+      <c r="A796" s="6"/>
+      <c r="B796" s="6"/>
+      <c r="C796" s="6"/>
+      <c r="D796" s="6"/>
+      <c r="E796" s="6"/>
+      <c r="F796" s="6"/>
+      <c r="G796" s="6"/>
+      <c r="H796" s="6"/>
+      <c r="I796" s="6"/>
+    </row>
+    <row r="797" spans="1:9">
+      <c r="A797" s="6"/>
+      <c r="B797" s="6"/>
+      <c r="C797" s="6"/>
+      <c r="D797" s="6"/>
+      <c r="E797" s="6"/>
+      <c r="F797" s="6"/>
+      <c r="G797" s="6"/>
+      <c r="H797" s="6"/>
+      <c r="I797" s="6"/>
+    </row>
+    <row r="798" spans="1:9">
+      <c r="A798" s="6"/>
+      <c r="B798" s="6"/>
+      <c r="C798" s="6"/>
+      <c r="D798" s="6"/>
+      <c r="E798" s="6"/>
+      <c r="F798" s="6"/>
+      <c r="G798" s="6"/>
+      <c r="H798" s="6"/>
+      <c r="I798" s="6"/>
+    </row>
+    <row r="799" spans="1:9">
+      <c r="A799" s="6"/>
+      <c r="B799" s="6"/>
+      <c r="C799" s="6"/>
+      <c r="D799" s="6"/>
+      <c r="E799" s="6"/>
+      <c r="F799" s="6"/>
+      <c r="G799" s="6"/>
+      <c r="H799" s="6"/>
+      <c r="I799" s="6"/>
+    </row>
+    <row r="800" spans="1:9">
+      <c r="A800" s="6"/>
+      <c r="B800" s="6"/>
+      <c r="C800" s="6"/>
+      <c r="D800" s="6"/>
+      <c r="E800" s="6"/>
+      <c r="F800" s="6"/>
+      <c r="G800" s="6"/>
+      <c r="H800" s="6"/>
+      <c r="I800" s="6"/>
+    </row>
+    <row r="801" spans="1:9">
+      <c r="A801" s="6"/>
+      <c r="B801" s="6"/>
+      <c r="C801" s="6"/>
+      <c r="D801" s="6"/>
+      <c r="E801" s="6"/>
+      <c r="F801" s="6"/>
+      <c r="G801" s="6"/>
+      <c r="H801" s="6"/>
+      <c r="I801" s="6"/>
+    </row>
+    <row r="802" spans="1:9">
+      <c r="A802" s="6"/>
+      <c r="B802" s="6"/>
+      <c r="C802" s="6"/>
+      <c r="D802" s="6"/>
+      <c r="E802" s="6"/>
+      <c r="F802" s="6"/>
+      <c r="G802" s="6"/>
+      <c r="H802" s="6"/>
+      <c r="I802" s="6"/>
+    </row>
+    <row r="803" spans="1:9">
+      <c r="A803" s="6"/>
+      <c r="B803" s="6"/>
+      <c r="C803" s="6"/>
+      <c r="D803" s="6"/>
+      <c r="E803" s="6"/>
+      <c r="F803" s="6"/>
+      <c r="G803" s="6"/>
+      <c r="H803" s="6"/>
+      <c r="I803" s="6"/>
+    </row>
+    <row r="804" spans="1:9">
+      <c r="A804" s="6"/>
+      <c r="B804" s="6"/>
+      <c r="C804" s="6"/>
+      <c r="D804" s="6"/>
+      <c r="E804" s="6"/>
+      <c r="F804" s="6"/>
+      <c r="G804" s="6"/>
+      <c r="H804" s="6"/>
+      <c r="I804" s="6"/>
+    </row>
+    <row r="805" spans="1:9">
+      <c r="A805" s="6"/>
+      <c r="B805" s="6"/>
+      <c r="C805" s="6"/>
+      <c r="D805" s="6"/>
+      <c r="E805" s="6"/>
+      <c r="F805" s="6"/>
+      <c r="G805" s="6"/>
+      <c r="H805" s="6"/>
+      <c r="I805" s="6"/>
+    </row>
+    <row r="806" spans="1:9">
+      <c r="A806" s="6"/>
+      <c r="B806" s="6"/>
+      <c r="C806" s="6"/>
+      <c r="D806" s="6"/>
+      <c r="E806" s="6"/>
+      <c r="F806" s="6"/>
+      <c r="G806" s="6"/>
+      <c r="H806" s="6"/>
+      <c r="I806" s="6"/>
+    </row>
+    <row r="807" spans="1:9">
+      <c r="A807" s="6"/>
+      <c r="B807" s="6"/>
+      <c r="C807" s="6"/>
+      <c r="D807" s="6"/>
+      <c r="E807" s="6"/>
+      <c r="F807" s="6"/>
+      <c r="G807" s="6"/>
+      <c r="H807" s="6"/>
+      <c r="I807" s="6"/>
+    </row>
+    <row r="808" spans="1:9">
+      <c r="A808" s="6"/>
+      <c r="B808" s="6"/>
+      <c r="C808" s="6"/>
+      <c r="D808" s="6"/>
+      <c r="E808" s="6"/>
+      <c r="F808" s="6"/>
+      <c r="G808" s="6"/>
+      <c r="H808" s="6"/>
+      <c r="I808" s="6"/>
+    </row>
+    <row r="809" spans="1:9">
+      <c r="A809" s="6"/>
+      <c r="B809" s="6"/>
+      <c r="C809" s="6"/>
+      <c r="D809" s="6"/>
+      <c r="E809" s="6"/>
+      <c r="F809" s="6"/>
+      <c r="G809" s="6"/>
+      <c r="H809" s="6"/>
+      <c r="I809" s="6"/>
+    </row>
+    <row r="810" spans="1:9">
+      <c r="A810" s="6"/>
+      <c r="B810" s="6"/>
+      <c r="C810" s="6"/>
+      <c r="D810" s="6"/>
+      <c r="E810" s="6"/>
+      <c r="F810" s="6"/>
+      <c r="G810" s="6"/>
+      <c r="H810" s="6"/>
+      <c r="I810" s="6"/>
+    </row>
+    <row r="811" spans="1:9">
+      <c r="A811" s="6"/>
+      <c r="B811" s="6"/>
+      <c r="C811" s="6"/>
+      <c r="D811" s="6"/>
+      <c r="E811" s="6"/>
+      <c r="F811" s="6"/>
+      <c r="G811" s="6"/>
+      <c r="H811" s="6"/>
+      <c r="I811" s="6"/>
+    </row>
+    <row r="812" spans="1:9">
+      <c r="A812" s="6"/>
+      <c r="B812" s="6"/>
+      <c r="C812" s="6"/>
+      <c r="D812" s="6"/>
+      <c r="E812" s="6"/>
+      <c r="F812" s="6"/>
+      <c r="G812" s="6"/>
+      <c r="H812" s="6"/>
+      <c r="I812" s="6"/>
+    </row>
+    <row r="813" spans="1:9">
+      <c r="A813" s="6"/>
+      <c r="B813" s="6"/>
+      <c r="C813" s="6"/>
+      <c r="D813" s="6"/>
+      <c r="E813" s="6"/>
+      <c r="F813" s="6"/>
+      <c r="G813" s="6"/>
+      <c r="H813" s="6"/>
+      <c r="I813" s="6"/>
+    </row>
+    <row r="814" spans="1:9">
+      <c r="A814" s="6"/>
+      <c r="B814" s="6"/>
+      <c r="C814" s="6"/>
+      <c r="D814" s="6"/>
+      <c r="E814" s="6"/>
+      <c r="F814" s="6"/>
+      <c r="G814" s="6"/>
+      <c r="H814" s="6"/>
+      <c r="I814" s="6"/>
+    </row>
+    <row r="815" spans="1:9">
+      <c r="A815" s="6"/>
+      <c r="B815" s="6"/>
+      <c r="C815" s="6"/>
+      <c r="D815" s="6"/>
+      <c r="E815" s="6"/>
+      <c r="F815" s="6"/>
+      <c r="G815" s="6"/>
+      <c r="H815" s="6"/>
+      <c r="I815" s="6"/>
+    </row>
+    <row r="816" spans="1:9">
+      <c r="A816" s="6"/>
+      <c r="B816" s="6"/>
+      <c r="C816" s="6"/>
+      <c r="D816" s="6"/>
+      <c r="E816" s="6"/>
+      <c r="F816" s="6"/>
+      <c r="G816" s="6"/>
+      <c r="H816" s="6"/>
+      <c r="I816" s="6"/>
+    </row>
+    <row r="817" spans="1:9">
+      <c r="A817" s="6"/>
+      <c r="B817" s="6"/>
+      <c r="C817" s="6"/>
+      <c r="D817" s="6"/>
+      <c r="E817" s="6"/>
+      <c r="F817" s="6"/>
+      <c r="G817" s="6"/>
+      <c r="H817" s="6"/>
+      <c r="I817" s="6"/>
+    </row>
+    <row r="818" spans="1:9">
+      <c r="A818" s="6"/>
+      <c r="B818" s="6"/>
+      <c r="C818" s="6"/>
+      <c r="D818" s="6"/>
+      <c r="E818" s="6"/>
+      <c r="F818" s="6"/>
+      <c r="G818" s="6"/>
+      <c r="H818" s="6"/>
+      <c r="I818" s="6"/>
+    </row>
+    <row r="819" spans="1:9">
+      <c r="A819" s="6"/>
+      <c r="B819" s="6"/>
+      <c r="C819" s="6"/>
+      <c r="D819" s="6"/>
+      <c r="E819" s="6"/>
+      <c r="F819" s="6"/>
+      <c r="G819" s="6"/>
+      <c r="H819" s="6"/>
+      <c r="I819" s="6"/>
+    </row>
+    <row r="820" spans="1:9">
+      <c r="A820" s="6"/>
+      <c r="B820" s="6"/>
+      <c r="C820" s="6"/>
+      <c r="D820" s="6"/>
+      <c r="E820" s="6"/>
+      <c r="F820" s="6"/>
+      <c r="G820" s="6"/>
+      <c r="H820" s="6"/>
+      <c r="I820" s="6"/>
+    </row>
+    <row r="821" spans="1:9">
+      <c r="A821" s="6"/>
+      <c r="B821" s="6"/>
+      <c r="C821" s="6"/>
+      <c r="D821" s="6"/>
+      <c r="E821" s="6"/>
+      <c r="F821" s="6"/>
+      <c r="G821" s="6"/>
+      <c r="H821" s="6"/>
+      <c r="I821" s="6"/>
+    </row>
+    <row r="822" spans="1:9">
+      <c r="A822" s="6"/>
+      <c r="B822" s="6"/>
+      <c r="C822" s="6"/>
+      <c r="D822" s="6"/>
+      <c r="E822" s="6"/>
+      <c r="F822" s="6"/>
+      <c r="G822" s="6"/>
+      <c r="H822" s="6"/>
+      <c r="I822" s="6"/>
+    </row>
+    <row r="823" spans="1:9">
+      <c r="A823" s="6"/>
+      <c r="B823" s="6"/>
+      <c r="C823" s="6"/>
+      <c r="D823" s="6"/>
+      <c r="E823" s="6"/>
+      <c r="F823" s="6"/>
+      <c r="G823" s="6"/>
+      <c r="H823" s="6"/>
+      <c r="I823" s="6"/>
+    </row>
+    <row r="824" spans="1:9">
+      <c r="A824" s="6"/>
+      <c r="B824" s="6"/>
+      <c r="C824" s="6"/>
+      <c r="D824" s="6"/>
+      <c r="E824" s="6"/>
+      <c r="F824" s="6"/>
+      <c r="G824" s="6"/>
+      <c r="H824" s="6"/>
+      <c r="I824" s="6"/>
+    </row>
+    <row r="825" spans="1:9">
+      <c r="A825" s="6"/>
+      <c r="B825" s="6"/>
+      <c r="C825" s="6"/>
+      <c r="D825" s="6"/>
+      <c r="E825" s="6"/>
+      <c r="F825" s="6"/>
+      <c r="G825" s="6"/>
+      <c r="H825" s="6"/>
+      <c r="I825" s="6"/>
+    </row>
+    <row r="826" spans="1:9">
+      <c r="A826" s="6"/>
+      <c r="B826" s="6"/>
+      <c r="C826" s="6"/>
+      <c r="D826" s="6"/>
+      <c r="E826" s="6"/>
+      <c r="F826" s="6"/>
+      <c r="G826" s="6"/>
+      <c r="H826" s="6"/>
+      <c r="I826" s="6"/>
+    </row>
+    <row r="827" spans="1:9">
+      <c r="A827" s="6"/>
+      <c r="B827" s="6"/>
+      <c r="C827" s="6"/>
+      <c r="D827" s="6"/>
+      <c r="E827" s="6"/>
+      <c r="F827" s="6"/>
+      <c r="G827" s="6"/>
+      <c r="H827" s="6"/>
+      <c r="I827" s="6"/>
+    </row>
+    <row r="828" spans="1:9">
+      <c r="A828" s="6"/>
+      <c r="B828" s="6"/>
+      <c r="C828" s="6"/>
+      <c r="D828" s="6"/>
+      <c r="E828" s="6"/>
+      <c r="F828" s="6"/>
+      <c r="G828" s="6"/>
+      <c r="H828" s="6"/>
+      <c r="I828" s="6"/>
+    </row>
+    <row r="829" spans="1:9">
+      <c r="A829" s="6"/>
+      <c r="B829" s="6"/>
+      <c r="C829" s="6"/>
+      <c r="D829" s="6"/>
+      <c r="E829" s="6"/>
+      <c r="F829" s="6"/>
+      <c r="G829" s="6"/>
+      <c r="H829" s="6"/>
+      <c r="I829" s="6"/>
+    </row>
+    <row r="830" spans="1:9">
+      <c r="A830" s="6"/>
+      <c r="B830" s="6"/>
+      <c r="C830" s="6"/>
+      <c r="D830" s="6"/>
+      <c r="E830" s="6"/>
+      <c r="F830" s="6"/>
+      <c r="G830" s="6"/>
+      <c r="H830" s="6"/>
+      <c r="I830" s="6"/>
+    </row>
+    <row r="831" spans="1:9">
+      <c r="A831" s="6"/>
+      <c r="B831" s="6"/>
+      <c r="C831" s="6"/>
+      <c r="D831" s="6"/>
+      <c r="E831" s="6"/>
+      <c r="F831" s="6"/>
+      <c r="G831" s="6"/>
+      <c r="H831" s="6"/>
+      <c r="I831" s="6"/>
+    </row>
+    <row r="832" spans="1:9">
+      <c r="A832" s="6"/>
+      <c r="B832" s="6"/>
+      <c r="C832" s="6"/>
+      <c r="D832" s="6"/>
+      <c r="E832" s="6"/>
+      <c r="F832" s="6"/>
+      <c r="G832" s="6"/>
+      <c r="H832" s="6"/>
+      <c r="I832" s="6"/>
+    </row>
+    <row r="833" spans="1:9">
+      <c r="A833" s="6"/>
+      <c r="B833" s="6"/>
+      <c r="C833" s="6"/>
+      <c r="D833" s="6"/>
+      <c r="E833" s="6"/>
+      <c r="F833" s="6"/>
+      <c r="G833" s="6"/>
+      <c r="H833" s="6"/>
+      <c r="I833" s="6"/>
+    </row>
+    <row r="834" spans="1:9">
+      <c r="A834" s="6"/>
+      <c r="B834" s="6"/>
+      <c r="C834" s="6"/>
+      <c r="D834" s="6"/>
+      <c r="E834" s="6"/>
+      <c r="F834" s="6"/>
+      <c r="G834" s="6"/>
+      <c r="H834" s="6"/>
+      <c r="I834" s="6"/>
+    </row>
+    <row r="835" spans="1:9">
+      <c r="A835" s="6"/>
+      <c r="B835" s="6"/>
+      <c r="C835" s="6"/>
+      <c r="D835" s="6"/>
+      <c r="E835" s="6"/>
+      <c r="F835" s="6"/>
+      <c r="G835" s="6"/>
+      <c r="H835" s="6"/>
+      <c r="I835" s="6"/>
+    </row>
+    <row r="836" spans="1:9">
+      <c r="A836" s="6"/>
+      <c r="B836" s="6"/>
+      <c r="C836" s="6"/>
+      <c r="D836" s="6"/>
+      <c r="E836" s="6"/>
+      <c r="F836" s="6"/>
+      <c r="G836" s="6"/>
+      <c r="H836" s="6"/>
+      <c r="I836" s="6"/>
+    </row>
+    <row r="837" spans="1:9">
+      <c r="A837" s="6"/>
+      <c r="B837" s="6"/>
+      <c r="C837" s="6"/>
+      <c r="D837" s="6"/>
+      <c r="E837" s="6"/>
+      <c r="F837" s="6"/>
+      <c r="G837" s="6"/>
+      <c r="H837" s="6"/>
+      <c r="I837" s="6"/>
+    </row>
+    <row r="838" spans="1:9">
+      <c r="A838" s="6"/>
+      <c r="B838" s="6"/>
+      <c r="C838" s="6"/>
+      <c r="D838" s="6"/>
+      <c r="E838" s="6"/>
+      <c r="F838" s="6"/>
+      <c r="G838" s="6"/>
+      <c r="H838" s="6"/>
+      <c r="I838" s="6"/>
+    </row>
+    <row r="839" spans="1:9">
+      <c r="A839" s="6"/>
+      <c r="B839" s="6"/>
+      <c r="C839" s="6"/>
+      <c r="D839" s="6"/>
+      <c r="E839" s="6"/>
+      <c r="F839" s="6"/>
+      <c r="G839" s="6"/>
+      <c r="H839" s="6"/>
+      <c r="I839" s="6"/>
+    </row>
+    <row r="840" spans="1:9">
+      <c r="A840" s="6"/>
+      <c r="B840" s="6"/>
+      <c r="C840" s="6"/>
+      <c r="D840" s="6"/>
+      <c r="E840" s="6"/>
+      <c r="F840" s="6"/>
+      <c r="G840" s="6"/>
+      <c r="H840" s="6"/>
+      <c r="I840" s="6"/>
+    </row>
+    <row r="841" spans="1:9">
+      <c r="A841" s="6"/>
+      <c r="B841" s="6"/>
+      <c r="C841" s="6"/>
+      <c r="D841" s="6"/>
+      <c r="E841" s="6"/>
+      <c r="F841" s="6"/>
+      <c r="G841" s="6"/>
+      <c r="H841" s="6"/>
+      <c r="I841" s="6"/>
+    </row>
+    <row r="842" spans="1:9">
+      <c r="A842" s="6"/>
+      <c r="B842" s="6"/>
+      <c r="C842" s="6"/>
+      <c r="D842" s="6"/>
+      <c r="E842" s="6"/>
+      <c r="F842" s="6"/>
+      <c r="G842" s="6"/>
+      <c r="H842" s="6"/>
+      <c r="I842" s="6"/>
+    </row>
+    <row r="843" spans="1:9">
+      <c r="A843" s="6"/>
+      <c r="B843" s="6"/>
+      <c r="C843" s="6"/>
+      <c r="D843" s="6"/>
+      <c r="E843" s="6"/>
+      <c r="F843" s="6"/>
+      <c r="G843" s="6"/>
+      <c r="H843" s="6"/>
+      <c r="I843" s="6"/>
+    </row>
+    <row r="844" spans="1:9">
+      <c r="A844" s="6"/>
+      <c r="B844" s="6"/>
+      <c r="C844" s="6"/>
+      <c r="D844" s="6"/>
+      <c r="E844" s="6"/>
+      <c r="F844" s="6"/>
+      <c r="G844" s="6"/>
+      <c r="H844" s="6"/>
+      <c r="I844" s="6"/>
+    </row>
+    <row r="845" spans="1:9">
+      <c r="A845" s="6"/>
+      <c r="B845" s="6"/>
+      <c r="C845" s="6"/>
+      <c r="D845" s="6"/>
+      <c r="E845" s="6"/>
+      <c r="F845" s="6"/>
+      <c r="G845" s="6"/>
+      <c r="H845" s="6"/>
+      <c r="I845" s="6"/>
+    </row>
+    <row r="846" spans="1:9">
+      <c r="A846" s="6"/>
+      <c r="B846" s="6"/>
+      <c r="C846" s="6"/>
+      <c r="D846" s="6"/>
+      <c r="E846" s="6"/>
+      <c r="F846" s="6"/>
+      <c r="G846" s="6"/>
+      <c r="H846" s="6"/>
+      <c r="I846" s="6"/>
+    </row>
+    <row r="847" spans="1:9">
+      <c r="A847" s="6"/>
+      <c r="B847" s="6"/>
+      <c r="C847" s="6"/>
+      <c r="D847" s="6"/>
+      <c r="E847" s="6"/>
+      <c r="F847" s="6"/>
+      <c r="G847" s="6"/>
+      <c r="H847" s="6"/>
+      <c r="I847" s="6"/>
+    </row>
+    <row r="848" spans="1:9">
+      <c r="A848" s="6"/>
+      <c r="B848" s="6"/>
+      <c r="C848" s="6"/>
+      <c r="D848" s="6"/>
+      <c r="E848" s="6"/>
+      <c r="F848" s="6"/>
+      <c r="G848" s="6"/>
+      <c r="H848" s="6"/>
+      <c r="I848" s="6"/>
+    </row>
+    <row r="849" spans="1:9">
+      <c r="A849" s="6"/>
+      <c r="B849" s="6"/>
+      <c r="C849" s="6"/>
+      <c r="D849" s="6"/>
+      <c r="E849" s="6"/>
+      <c r="F849" s="6"/>
+      <c r="G849" s="6"/>
+      <c r="H849" s="6"/>
+      <c r="I849" s="6"/>
+    </row>
+    <row r="850" spans="1:9">
+      <c r="A850" s="6"/>
+      <c r="B850" s="6"/>
+      <c r="C850" s="6"/>
+      <c r="D850" s="6"/>
+      <c r="E850" s="6"/>
+      <c r="F850" s="6"/>
+      <c r="G850" s="6"/>
+      <c r="H850" s="6"/>
+      <c r="I850" s="6"/>
+    </row>
+    <row r="851" spans="1:9">
+      <c r="A851" s="6"/>
+      <c r="B851" s="6"/>
+      <c r="C851" s="6"/>
+      <c r="D851" s="6"/>
+      <c r="E851" s="6"/>
+      <c r="F851" s="6"/>
+      <c r="G851" s="6"/>
+      <c r="H851" s="6"/>
+      <c r="I851" s="6"/>
+    </row>
+    <row r="852" spans="1:9">
+      <c r="A852" s="6"/>
+      <c r="B852" s="6"/>
+      <c r="C852" s="6"/>
+      <c r="D852" s="6"/>
+      <c r="E852" s="6"/>
+      <c r="F852" s="6"/>
+      <c r="G852" s="6"/>
+      <c r="H852" s="6"/>
+      <c r="I852" s="6"/>
+    </row>
+    <row r="853" spans="1:9">
+      <c r="A853" s="6"/>
+      <c r="B853" s="6"/>
+      <c r="C853" s="6"/>
+      <c r="D853" s="6"/>
+      <c r="E853" s="6"/>
+      <c r="F853" s="6"/>
+      <c r="G853" s="6"/>
+      <c r="H853" s="6"/>
+      <c r="I853" s="6"/>
+    </row>
+    <row r="854" spans="1:9">
+      <c r="A854" s="6"/>
+      <c r="B854" s="6"/>
+      <c r="C854" s="6"/>
+      <c r="D854" s="6"/>
+      <c r="E854" s="6"/>
+      <c r="F854" s="6"/>
+      <c r="G854" s="6"/>
+      <c r="H854" s="6"/>
+      <c r="I854" s="6"/>
+    </row>
+    <row r="855" spans="1:9">
+      <c r="A855" s="6"/>
+      <c r="B855" s="6"/>
+      <c r="C855" s="6"/>
+      <c r="D855" s="6"/>
+      <c r="E855" s="6"/>
+      <c r="F855" s="6"/>
+      <c r="G855" s="6"/>
+      <c r="H855" s="6"/>
+      <c r="I855" s="6"/>
+    </row>
+    <row r="856" spans="1:9">
+      <c r="A856" s="6"/>
+      <c r="B856" s="6"/>
+      <c r="C856" s="6"/>
+      <c r="D856" s="6"/>
+      <c r="E856" s="6"/>
+      <c r="F856" s="6"/>
+      <c r="G856" s="6"/>
+      <c r="H856" s="6"/>
+      <c r="I856" s="6"/>
+    </row>
+    <row r="857" spans="1:9">
+      <c r="A857" s="6"/>
+      <c r="B857" s="6"/>
+      <c r="C857" s="6"/>
+      <c r="D857" s="6"/>
+      <c r="E857" s="6"/>
+      <c r="F857" s="6"/>
+      <c r="G857" s="6"/>
+      <c r="H857" s="6"/>
+      <c r="I857" s="6"/>
+    </row>
+    <row r="858" spans="1:9">
+      <c r="A858" s="6"/>
+      <c r="B858" s="6"/>
+      <c r="C858" s="6"/>
+      <c r="D858" s="6"/>
+      <c r="E858" s="6"/>
+      <c r="F858" s="6"/>
+      <c r="G858" s="6"/>
+      <c r="H858" s="6"/>
+      <c r="I858" s="6"/>
+    </row>
+    <row r="859" spans="1:9">
+      <c r="A859" s="6"/>
+      <c r="B859" s="6"/>
+      <c r="C859" s="6"/>
+      <c r="D859" s="6"/>
+      <c r="E859" s="6"/>
+      <c r="F859" s="6"/>
+      <c r="G859" s="6"/>
+      <c r="H859" s="6"/>
+      <c r="I859" s="6"/>
+    </row>
+    <row r="860" spans="1:9">
+      <c r="A860" s="6"/>
+      <c r="B860" s="6"/>
+      <c r="C860" s="6"/>
+      <c r="D860" s="6"/>
+      <c r="E860" s="6"/>
+      <c r="F860" s="6"/>
+      <c r="G860" s="6"/>
+      <c r="H860" s="6"/>
+      <c r="I860" s="6"/>
+    </row>
+    <row r="861" spans="1:9">
+      <c r="A861" s="6"/>
+      <c r="B861" s="6"/>
+      <c r="C861" s="6"/>
+      <c r="D861" s="6"/>
+      <c r="E861" s="6"/>
+      <c r="F861" s="6"/>
+      <c r="G861" s="6"/>
+      <c r="H861" s="6"/>
+      <c r="I861" s="6"/>
+    </row>
+    <row r="862" spans="1:9">
+      <c r="A862" s="6"/>
+      <c r="B862" s="6"/>
+      <c r="C862" s="6"/>
+      <c r="D862" s="6"/>
+      <c r="E862" s="6"/>
+      <c r="F862" s="6"/>
+      <c r="G862" s="6"/>
+      <c r="H862" s="6"/>
+      <c r="I862" s="6"/>
+    </row>
+    <row r="863" spans="1:9">
+      <c r="A863" s="6"/>
+      <c r="B863" s="6"/>
+      <c r="C863" s="6"/>
+      <c r="D863" s="6"/>
+      <c r="E863" s="6"/>
+      <c r="F863" s="6"/>
+      <c r="G863" s="6"/>
+      <c r="H863" s="6"/>
+      <c r="I863" s="6"/>
+    </row>
+    <row r="864" spans="1:9">
+      <c r="A864" s="6"/>
+      <c r="B864" s="6"/>
+      <c r="C864" s="6"/>
+      <c r="D864" s="6"/>
+      <c r="E864" s="6"/>
+      <c r="F864" s="6"/>
+      <c r="G864" s="6"/>
+      <c r="H864" s="6"/>
+      <c r="I864" s="6"/>
+    </row>
+    <row r="865" spans="1:9">
+      <c r="A865" s="6"/>
+      <c r="B865" s="6"/>
+      <c r="C865" s="6"/>
+      <c r="D865" s="6"/>
+      <c r="E865" s="6"/>
+      <c r="F865" s="6"/>
+      <c r="G865" s="6"/>
+      <c r="H865" s="6"/>
+      <c r="I865" s="6"/>
+    </row>
+    <row r="866" spans="1:9">
+      <c r="A866" s="6"/>
+      <c r="B866" s="6"/>
+      <c r="C866" s="6"/>
+      <c r="D866" s="6"/>
+      <c r="E866" s="6"/>
+      <c r="F866" s="6"/>
+      <c r="G866" s="6"/>
+      <c r="H866" s="6"/>
+      <c r="I866" s="6"/>
+    </row>
+    <row r="867" spans="1:9">
+      <c r="A867" s="6"/>
+      <c r="B867" s="6"/>
+      <c r="C867" s="6"/>
+      <c r="D867" s="6"/>
+      <c r="E867" s="6"/>
+      <c r="F867" s="6"/>
+      <c r="G867" s="6"/>
+      <c r="H867" s="6"/>
+      <c r="I867" s="6"/>
+    </row>
+    <row r="868" spans="1:9">
+      <c r="A868" s="6"/>
+      <c r="B868" s="6"/>
+      <c r="C868" s="6"/>
+      <c r="D868" s="6"/>
+      <c r="E868" s="6"/>
+      <c r="F868" s="6"/>
+      <c r="G868" s="6"/>
+      <c r="H868" s="6"/>
+      <c r="I868" s="6"/>
+    </row>
+    <row r="869" spans="1:9">
+      <c r="A869" s="6"/>
+      <c r="B869" s="6"/>
+      <c r="C869" s="6"/>
+      <c r="D869" s="6"/>
+      <c r="E869" s="6"/>
+      <c r="F869" s="6"/>
+      <c r="G869" s="6"/>
+      <c r="H869" s="6"/>
+      <c r="I869" s="6"/>
+    </row>
+    <row r="870" spans="1:9">
+      <c r="A870" s="6"/>
+      <c r="B870" s="6"/>
+      <c r="C870" s="6"/>
+      <c r="D870" s="6"/>
+      <c r="E870" s="6"/>
+      <c r="F870" s="6"/>
+      <c r="G870" s="6"/>
+      <c r="H870" s="6"/>
+      <c r="I870" s="6"/>
+    </row>
+    <row r="871" spans="1:9">
+      <c r="A871" s="6"/>
+      <c r="B871" s="6"/>
+      <c r="C871" s="6"/>
+      <c r="D871" s="6"/>
+      <c r="E871" s="6"/>
+      <c r="F871" s="6"/>
+      <c r="G871" s="6"/>
+      <c r="H871" s="6"/>
+      <c r="I871" s="6"/>
+    </row>
+    <row r="872" spans="1:9">
+      <c r="A872" s="6"/>
+      <c r="B872" s="6"/>
+      <c r="C872" s="6"/>
+      <c r="D872" s="6"/>
+      <c r="E872" s="6"/>
+      <c r="F872" s="6"/>
+      <c r="G872" s="6"/>
+      <c r="H872" s="6"/>
+      <c r="I872" s="6"/>
+    </row>
+    <row r="873" spans="1:9">
+      <c r="A873" s="6"/>
+      <c r="B873" s="6"/>
+      <c r="C873" s="6"/>
+      <c r="D873" s="6"/>
+      <c r="E873" s="6"/>
+      <c r="F873" s="6"/>
+      <c r="G873" s="6"/>
+      <c r="H873" s="6"/>
+      <c r="I873" s="6"/>
+    </row>
+    <row r="874" spans="1:9">
+      <c r="A874" s="6"/>
+      <c r="B874" s="6"/>
+      <c r="C874" s="6"/>
+      <c r="D874" s="6"/>
+      <c r="E874" s="6"/>
+      <c r="F874" s="6"/>
+      <c r="G874" s="6"/>
+      <c r="H874" s="6"/>
+      <c r="I874" s="6"/>
+    </row>
+    <row r="875" spans="1:9">
+      <c r="A875" s="6"/>
+      <c r="B875" s="6"/>
+      <c r="C875" s="6"/>
+      <c r="D875" s="6"/>
+      <c r="E875" s="6"/>
+      <c r="F875" s="6"/>
+      <c r="G875" s="6"/>
+      <c r="H875" s="6"/>
+      <c r="I875" s="6"/>
+    </row>
+    <row r="876" spans="1:9">
+      <c r="A876" s="6"/>
+      <c r="B876" s="6"/>
+      <c r="C876" s="6"/>
+      <c r="D876" s="6"/>
+      <c r="E876" s="6"/>
+      <c r="F876" s="6"/>
+      <c r="G876" s="6"/>
+      <c r="H876" s="6"/>
+      <c r="I876" s="6"/>
+    </row>
+    <row r="877" spans="1:9">
+      <c r="A877" s="6"/>
+      <c r="B877" s="6"/>
+      <c r="C877" s="6"/>
+      <c r="D877" s="6"/>
+      <c r="E877" s="6"/>
+      <c r="F877" s="6"/>
+      <c r="G877" s="6"/>
+      <c r="H877" s="6"/>
+      <c r="I877" s="6"/>
+    </row>
+    <row r="878" spans="1:9">
+      <c r="A878" s="6"/>
+      <c r="B878" s="6"/>
+      <c r="C878" s="6"/>
+      <c r="D878" s="6"/>
+      <c r="E878" s="6"/>
+      <c r="F878" s="6"/>
+      <c r="G878" s="6"/>
+      <c r="H878" s="6"/>
+      <c r="I878" s="6"/>
+    </row>
+    <row r="879" spans="1:9">
+      <c r="A879" s="6"/>
+      <c r="B879" s="6"/>
+      <c r="C879" s="6"/>
+      <c r="D879" s="6"/>
+      <c r="E879" s="6"/>
+      <c r="F879" s="6"/>
+      <c r="G879" s="6"/>
+      <c r="H879" s="6"/>
+      <c r="I879" s="6"/>
+    </row>
+    <row r="880" spans="1:9">
+      <c r="A880" s="6"/>
+      <c r="B880" s="6"/>
+      <c r="C880" s="6"/>
+      <c r="D880" s="6"/>
+      <c r="E880" s="6"/>
+      <c r="F880" s="6"/>
+      <c r="G880" s="6"/>
+      <c r="H880" s="6"/>
+      <c r="I880" s="6"/>
+    </row>
+    <row r="881" spans="1:9">
+      <c r="A881" s="6"/>
+      <c r="B881" s="6"/>
+      <c r="C881" s="6"/>
+      <c r="D881" s="6"/>
+      <c r="E881" s="6"/>
+      <c r="F881" s="6"/>
+      <c r="G881" s="6"/>
+      <c r="H881" s="6"/>
+      <c r="I881" s="6"/>
+    </row>
+    <row r="882" spans="1:9">
+      <c r="A882" s="6"/>
+      <c r="B882" s="6"/>
+      <c r="C882" s="6"/>
+      <c r="D882" s="6"/>
+      <c r="E882" s="6"/>
+      <c r="F882" s="6"/>
+      <c r="G882" s="6"/>
+      <c r="H882" s="6"/>
+      <c r="I882" s="6"/>
+    </row>
+    <row r="883" spans="1:9">
+      <c r="A883" s="6"/>
+      <c r="B883" s="6"/>
+      <c r="C883" s="6"/>
+      <c r="D883" s="6"/>
+      <c r="E883" s="6"/>
+      <c r="F883" s="6"/>
+      <c r="G883" s="6"/>
+      <c r="H883" s="6"/>
+      <c r="I883" s="6"/>
+    </row>
+    <row r="884" spans="1:9">
+      <c r="A884" s="6"/>
+      <c r="B884" s="6"/>
+      <c r="C884" s="6"/>
+      <c r="D884" s="6"/>
+      <c r="E884" s="6"/>
+      <c r="F884" s="6"/>
+      <c r="G884" s="6"/>
+      <c r="H884" s="6"/>
+      <c r="I884" s="6"/>
+    </row>
+    <row r="885" spans="1:9">
+      <c r="A885" s="6"/>
+      <c r="B885" s="6"/>
+      <c r="C885" s="6"/>
+      <c r="D885" s="6"/>
+      <c r="E885" s="6"/>
+      <c r="F885" s="6"/>
+      <c r="G885" s="6"/>
+      <c r="H885" s="6"/>
+      <c r="I885" s="6"/>
+    </row>
+    <row r="886" spans="1:9">
+      <c r="A886" s="6"/>
+      <c r="B886" s="6"/>
+      <c r="C886" s="6"/>
+      <c r="D886" s="6"/>
+      <c r="E886" s="6"/>
+      <c r="F886" s="6"/>
+      <c r="G886" s="6"/>
+      <c r="H886" s="6"/>
+      <c r="I886" s="6"/>
+    </row>
+    <row r="887" spans="1:9">
+      <c r="A887" s="6"/>
+      <c r="B887" s="6"/>
+      <c r="C887" s="6"/>
+      <c r="D887" s="6"/>
+      <c r="E887" s="6"/>
+      <c r="F887" s="6"/>
+      <c r="G887" s="6"/>
+      <c r="H887" s="6"/>
+      <c r="I887" s="6"/>
+    </row>
+    <row r="888" spans="1:9">
+      <c r="A888" s="6"/>
+      <c r="B888" s="6"/>
+      <c r="C888" s="6"/>
+      <c r="D888" s="6"/>
+      <c r="E888" s="6"/>
+      <c r="F888" s="6"/>
+      <c r="G888" s="6"/>
+      <c r="H888" s="6"/>
+      <c r="I888" s="6"/>
+    </row>
+    <row r="889" spans="1:9">
+      <c r="A889" s="6"/>
+      <c r="B889" s="6"/>
+      <c r="C889" s="6"/>
+      <c r="D889" s="6"/>
+      <c r="E889" s="6"/>
+      <c r="F889" s="6"/>
+      <c r="G889" s="6"/>
+      <c r="H889" s="6"/>
+      <c r="I889" s="6"/>
+    </row>
+    <row r="890" spans="1:9">
+      <c r="A890" s="6"/>
+      <c r="B890" s="6"/>
+      <c r="C890" s="6"/>
+      <c r="D890" s="6"/>
+      <c r="E890" s="6"/>
+      <c r="F890" s="6"/>
+      <c r="G890" s="6"/>
+      <c r="H890" s="6"/>
+      <c r="I890" s="6"/>
+    </row>
+    <row r="891" spans="1:9">
+      <c r="A891" s="6"/>
+      <c r="B891" s="6"/>
+      <c r="C891" s="6"/>
+      <c r="D891" s="6"/>
+      <c r="E891" s="6"/>
+      <c r="F891" s="6"/>
+      <c r="G891" s="6"/>
+      <c r="H891" s="6"/>
+      <c r="I891" s="6"/>
+    </row>
+    <row r="892" spans="1:9">
+      <c r="A892" s="6"/>
+      <c r="B892" s="6"/>
+      <c r="C892" s="6"/>
+      <c r="D892" s="6"/>
+      <c r="E892" s="6"/>
+      <c r="F892" s="6"/>
+      <c r="G892" s="6"/>
+      <c r="H892" s="6"/>
+      <c r="I892" s="6"/>
+    </row>
+    <row r="893" spans="1:9">
+      <c r="A893" s="6"/>
+      <c r="B893" s="6"/>
+      <c r="C893" s="6"/>
+      <c r="D893" s="6"/>
+      <c r="E893" s="6"/>
+      <c r="F893" s="6"/>
+      <c r="G893" s="6"/>
+      <c r="H893" s="6"/>
+      <c r="I893" s="6"/>
+    </row>
+    <row r="894" spans="1:9">
+      <c r="A894" s="6"/>
+      <c r="B894" s="6"/>
+      <c r="C894" s="6"/>
+      <c r="D894" s="6"/>
+      <c r="E894" s="6"/>
+      <c r="F894" s="6"/>
+      <c r="G894" s="6"/>
+      <c r="H894" s="6"/>
+      <c r="I894" s="6"/>
+    </row>
+    <row r="895" spans="1:9">
+      <c r="A895" s="6"/>
+      <c r="B895" s="6"/>
+      <c r="C895" s="6"/>
+      <c r="D895" s="6"/>
+      <c r="E895" s="6"/>
+      <c r="F895" s="6"/>
+      <c r="G895" s="6"/>
+      <c r="H895" s="6"/>
+      <c r="I895" s="6"/>
+    </row>
+    <row r="896" spans="1:9">
+      <c r="A896" s="6"/>
+      <c r="B896" s="6"/>
+      <c r="C896" s="6"/>
+      <c r="D896" s="6"/>
+      <c r="E896" s="6"/>
+      <c r="F896" s="6"/>
+      <c r="G896" s="6"/>
+      <c r="H896" s="6"/>
+      <c r="I896" s="6"/>
+    </row>
+    <row r="897" spans="1:9">
+      <c r="A897" s="6"/>
+      <c r="B897" s="6"/>
+      <c r="C897" s="6"/>
+      <c r="D897" s="6"/>
+      <c r="E897" s="6"/>
+      <c r="F897" s="6"/>
+      <c r="G897" s="6"/>
+      <c r="H897" s="6"/>
+      <c r="I897" s="6"/>
+    </row>
+    <row r="898" spans="1:9">
+      <c r="A898" s="6"/>
+      <c r="B898" s="6"/>
+      <c r="C898" s="6"/>
+      <c r="D898" s="6"/>
+      <c r="E898" s="6"/>
+      <c r="F898" s="6"/>
+      <c r="G898" s="6"/>
+      <c r="H898" s="6"/>
+      <c r="I898" s="6"/>
+    </row>
+    <row r="899" spans="1:9">
+      <c r="A899" s="6"/>
+      <c r="B899" s="6"/>
+      <c r="C899" s="6"/>
+      <c r="D899" s="6"/>
+      <c r="E899" s="6"/>
+      <c r="F899" s="6"/>
+      <c r="G899" s="6"/>
+      <c r="H899" s="6"/>
+      <c r="I899" s="6"/>
+    </row>
+    <row r="900" spans="1:9">
+      <c r="A900" s="6"/>
+      <c r="B900" s="6"/>
+      <c r="C900" s="6"/>
+      <c r="D900" s="6"/>
+      <c r="E900" s="6"/>
+      <c r="F900" s="6"/>
+      <c r="G900" s="6"/>
+      <c r="H900" s="6"/>
+      <c r="I900" s="6"/>
+    </row>
+    <row r="901" spans="1:9">
+      <c r="A901" s="6"/>
+      <c r="B901" s="6"/>
+      <c r="C901" s="6"/>
+      <c r="D901" s="6"/>
+      <c r="E901" s="6"/>
+      <c r="F901" s="6"/>
+      <c r="G901" s="6"/>
+      <c r="H901" s="6"/>
+      <c r="I901" s="6"/>
+    </row>
+    <row r="902" spans="1:9">
+      <c r="A902" s="6"/>
+      <c r="B902" s="6"/>
+      <c r="C902" s="6"/>
+      <c r="D902" s="6"/>
+      <c r="E902" s="6"/>
+      <c r="F902" s="6"/>
+      <c r="G902" s="6"/>
+      <c r="H902" s="6"/>
+      <c r="I902" s="6"/>
+    </row>
+    <row r="903" spans="1:9">
+      <c r="A903" s="6"/>
+      <c r="B903" s="6"/>
+      <c r="C903" s="6"/>
+      <c r="D903" s="6"/>
+      <c r="E903" s="6"/>
+      <c r="F903" s="6"/>
+      <c r="G903" s="6"/>
+      <c r="H903" s="6"/>
+      <c r="I903" s="6"/>
+    </row>
+    <row r="904" spans="1:9">
+      <c r="A904" s="6"/>
+      <c r="B904" s="6"/>
+      <c r="C904" s="6"/>
+      <c r="D904" s="6"/>
+      <c r="E904" s="6"/>
+      <c r="F904" s="6"/>
+      <c r="G904" s="6"/>
+      <c r="H904" s="6"/>
+      <c r="I904" s="6"/>
+    </row>
+    <row r="905" spans="1:9">
+      <c r="A905" s="6"/>
+      <c r="B905" s="6"/>
+      <c r="C905" s="6"/>
+      <c r="D905" s="6"/>
+      <c r="E905" s="6"/>
+      <c r="F905" s="6"/>
+      <c r="G905" s="6"/>
+      <c r="H905" s="6"/>
+      <c r="I905" s="6"/>
+    </row>
+    <row r="906" spans="1:9">
+      <c r="A906" s="6"/>
+      <c r="B906" s="6"/>
+      <c r="C906" s="6"/>
+      <c r="D906" s="6"/>
+      <c r="E906" s="6"/>
+      <c r="F906" s="6"/>
+      <c r="G906" s="6"/>
+      <c r="H906" s="6"/>
+      <c r="I906" s="6"/>
+    </row>
+    <row r="907" spans="1:9">
+      <c r="A907" s="6"/>
+      <c r="B907" s="6"/>
+      <c r="C907" s="6"/>
+      <c r="D907" s="6"/>
+      <c r="E907" s="6"/>
+      <c r="F907" s="6"/>
+      <c r="G907" s="6"/>
+      <c r="H907" s="6"/>
+      <c r="I907" s="6"/>
+    </row>
+    <row r="908" spans="1:9">
+      <c r="A908" s="6"/>
+      <c r="B908" s="6"/>
+      <c r="C908" s="6"/>
+      <c r="D908" s="6"/>
+      <c r="E908" s="6"/>
+      <c r="F908" s="6"/>
+      <c r="G908" s="6"/>
+      <c r="H908" s="6"/>
+      <c r="I908" s="6"/>
+    </row>
+    <row r="909" spans="1:9">
+      <c r="A909" s="6"/>
+      <c r="B909" s="6"/>
+      <c r="C909" s="6"/>
+      <c r="D909" s="6"/>
+      <c r="E909" s="6"/>
+      <c r="F909" s="6"/>
+      <c r="G909" s="6"/>
+      <c r="H909" s="6"/>
+      <c r="I909" s="6"/>
+    </row>
+    <row r="910" spans="1:9">
+      <c r="A910" s="6"/>
+      <c r="B910" s="6"/>
+      <c r="C910" s="6"/>
+      <c r="D910" s="6"/>
+      <c r="E910" s="6"/>
+      <c r="F910" s="6"/>
+      <c r="G910" s="6"/>
+      <c r="H910" s="6"/>
+      <c r="I910" s="6"/>
+    </row>
+    <row r="911" spans="1:9">
+      <c r="A911" s="6"/>
+      <c r="B911" s="6"/>
+      <c r="C911" s="6"/>
+      <c r="D911" s="6"/>
+      <c r="E911" s="6"/>
+      <c r="F911" s="6"/>
+      <c r="G911" s="6"/>
+      <c r="H911" s="6"/>
+      <c r="I911" s="6"/>
+    </row>
+    <row r="912" spans="1:9">
+      <c r="A912" s="6"/>
+      <c r="B912" s="6"/>
+      <c r="C912" s="6"/>
+      <c r="D912" s="6"/>
+      <c r="E912" s="6"/>
+      <c r="F912" s="6"/>
+      <c r="G912" s="6"/>
+      <c r="H912" s="6"/>
+      <c r="I912" s="6"/>
+    </row>
+    <row r="913" spans="1:9">
+      <c r="A913" s="6"/>
+      <c r="B913" s="6"/>
+      <c r="C913" s="6"/>
+      <c r="D913" s="6"/>
+      <c r="E913" s="6"/>
+      <c r="F913" s="6"/>
+      <c r="G913" s="6"/>
+      <c r="H913" s="6"/>
+      <c r="I913" s="6"/>
+    </row>
+    <row r="914" spans="1:9">
+      <c r="A914" s="6"/>
+      <c r="B914" s="6"/>
+      <c r="C914" s="6"/>
+      <c r="D914" s="6"/>
+      <c r="E914" s="6"/>
+      <c r="F914" s="6"/>
+      <c r="G914" s="6"/>
+      <c r="H914" s="6"/>
+      <c r="I914" s="6"/>
+    </row>
+    <row r="915" spans="1:9">
+      <c r="A915" s="6"/>
+      <c r="B915" s="6"/>
+      <c r="C915" s="6"/>
+      <c r="D915" s="6"/>
+      <c r="E915" s="6"/>
+      <c r="F915" s="6"/>
+      <c r="G915" s="6"/>
+      <c r="H915" s="6"/>
+      <c r="I915" s="6"/>
+    </row>
+    <row r="916" spans="1:9">
+      <c r="A916" s="6"/>
+      <c r="B916" s="6"/>
+      <c r="C916" s="6"/>
+      <c r="D916" s="6"/>
+      <c r="E916" s="6"/>
+      <c r="F916" s="6"/>
+      <c r="G916" s="6"/>
+      <c r="H916" s="6"/>
+      <c r="I916" s="6"/>
+    </row>
+    <row r="917" spans="1:9">
+      <c r="A917" s="6"/>
+      <c r="B917" s="6"/>
+      <c r="C917" s="6"/>
+      <c r="D917" s="6"/>
+      <c r="E917" s="6"/>
+      <c r="F917" s="6"/>
+      <c r="G917" s="6"/>
+      <c r="H917" s="6"/>
+      <c r="I917" s="6"/>
+    </row>
+    <row r="918" spans="1:9">
+      <c r="A918" s="6"/>
+      <c r="B918" s="6"/>
+      <c r="C918" s="6"/>
+      <c r="D918" s="6"/>
+      <c r="E918" s="6"/>
+      <c r="F918" s="6"/>
+      <c r="G918" s="6"/>
+      <c r="H918" s="6"/>
+      <c r="I918" s="6"/>
+    </row>
+    <row r="919" spans="1:9">
+      <c r="A919" s="6"/>
+      <c r="B919" s="6"/>
+      <c r="C919" s="6"/>
+      <c r="D919" s="6"/>
+      <c r="E919" s="6"/>
+      <c r="F919" s="6"/>
+      <c r="G919" s="6"/>
+      <c r="H919" s="6"/>
+      <c r="I919" s="6"/>
+    </row>
+    <row r="920" spans="1:9">
+      <c r="A920" s="6"/>
+      <c r="B920" s="6"/>
+      <c r="C920" s="6"/>
+      <c r="D920" s="6"/>
+      <c r="E920" s="6"/>
+      <c r="F920" s="6"/>
+      <c r="G920" s="6"/>
+      <c r="H920" s="6"/>
+      <c r="I920" s="6"/>
+    </row>
+    <row r="921" spans="1:9">
+      <c r="A921" s="6"/>
+      <c r="B921" s="6"/>
+      <c r="C921" s="6"/>
+      <c r="D921" s="6"/>
+      <c r="E921" s="6"/>
+      <c r="F921" s="6"/>
+      <c r="G921" s="6"/>
+      <c r="H921" s="6"/>
+      <c r="I921" s="6"/>
+    </row>
+    <row r="922" spans="1:9">
+      <c r="A922" s="6"/>
+      <c r="B922" s="6"/>
+      <c r="C922" s="6"/>
+      <c r="D922" s="6"/>
+      <c r="E922" s="6"/>
+      <c r="F922" s="6"/>
+      <c r="G922" s="6"/>
+      <c r="H922" s="6"/>
+      <c r="I922" s="6"/>
+    </row>
+    <row r="923" spans="1:9">
+      <c r="A923" s="6"/>
+      <c r="B923" s="6"/>
+      <c r="C923" s="6"/>
+      <c r="D923" s="6"/>
+      <c r="E923" s="6"/>
+      <c r="F923" s="6"/>
+      <c r="G923" s="6"/>
+      <c r="H923" s="6"/>
+      <c r="I923" s="6"/>
+    </row>
+    <row r="924" spans="1:9">
+      <c r="A924" s="6"/>
+      <c r="B924" s="6"/>
+      <c r="C924" s="6"/>
+      <c r="D924" s="6"/>
+      <c r="E924" s="6"/>
+      <c r="F924" s="6"/>
+      <c r="G924" s="6"/>
+      <c r="H924" s="6"/>
+      <c r="I924" s="6"/>
+    </row>
+    <row r="925" spans="1:9">
+      <c r="A925" s="6"/>
+      <c r="B925" s="6"/>
+      <c r="C925" s="6"/>
+      <c r="D925" s="6"/>
+      <c r="E925" s="6"/>
+      <c r="F925" s="6"/>
+      <c r="G925" s="6"/>
+      <c r="H925" s="6"/>
+      <c r="I925" s="6"/>
+    </row>
+    <row r="926" spans="1:9">
+      <c r="A926" s="6"/>
+      <c r="B926" s="6"/>
+      <c r="C926" s="6"/>
+      <c r="D926" s="6"/>
+      <c r="E926" s="6"/>
+      <c r="F926" s="6"/>
+      <c r="G926" s="6"/>
+      <c r="H926" s="6"/>
+      <c r="I926" s="6"/>
+    </row>
+    <row r="927" spans="1:9">
+      <c r="A927" s="6"/>
+      <c r="B927" s="6"/>
+      <c r="C927" s="6"/>
+      <c r="D927" s="6"/>
+      <c r="E927" s="6"/>
+      <c r="F927" s="6"/>
+      <c r="G927" s="6"/>
+      <c r="H927" s="6"/>
+      <c r="I927" s="6"/>
+    </row>
+    <row r="928" spans="1:9">
+      <c r="A928" s="6"/>
+      <c r="B928" s="6"/>
+      <c r="C928" s="6"/>
+      <c r="D928" s="6"/>
+      <c r="E928" s="6"/>
+      <c r="F928" s="6"/>
+      <c r="G928" s="6"/>
+      <c r="H928" s="6"/>
+      <c r="I928" s="6"/>
+    </row>
+    <row r="929" spans="1:9">
+      <c r="A929" s="6"/>
+      <c r="B929" s="6"/>
+      <c r="C929" s="6"/>
+      <c r="D929" s="6"/>
+      <c r="E929" s="6"/>
+      <c r="F929" s="6"/>
+      <c r="G929" s="6"/>
+      <c r="H929" s="6"/>
+      <c r="I929" s="6"/>
+    </row>
+    <row r="930" spans="1:9">
+      <c r="A930" s="6"/>
+      <c r="B930" s="6"/>
+      <c r="C930" s="6"/>
+      <c r="D930" s="6"/>
+      <c r="E930" s="6"/>
+      <c r="F930" s="6"/>
+      <c r="G930" s="6"/>
+      <c r="H930" s="6"/>
+      <c r="I930" s="6"/>
+    </row>
+    <row r="931" spans="1:9">
+      <c r="A931" s="6"/>
+      <c r="B931" s="6"/>
+      <c r="C931" s="6"/>
+      <c r="D931" s="6"/>
+      <c r="E931" s="6"/>
+      <c r="F931" s="6"/>
+      <c r="G931" s="6"/>
+      <c r="H931" s="6"/>
+      <c r="I931" s="6"/>
+    </row>
+    <row r="932" spans="1:9">
+      <c r="A932" s="6"/>
+      <c r="B932" s="6"/>
+      <c r="C932" s="6"/>
+      <c r="D932" s="6"/>
+      <c r="E932" s="6"/>
+      <c r="F932" s="6"/>
+      <c r="G932" s="6"/>
+      <c r="H932" s="6"/>
+      <c r="I932" s="6"/>
+    </row>
+    <row r="933" spans="1:9">
+      <c r="A933" s="6"/>
+      <c r="B933" s="6"/>
+      <c r="C933" s="6"/>
+      <c r="D933" s="6"/>
+      <c r="E933" s="6"/>
+      <c r="F933" s="6"/>
+      <c r="G933" s="6"/>
+      <c r="H933" s="6"/>
+      <c r="I933" s="6"/>
+    </row>
+    <row r="934" spans="1:9">
+      <c r="A934" s="6"/>
+      <c r="B934" s="6"/>
+      <c r="C934" s="6"/>
+      <c r="D934" s="6"/>
+      <c r="E934" s="6"/>
+      <c r="F934" s="6"/>
+      <c r="G934" s="6"/>
+      <c r="H934" s="6"/>
+      <c r="I934" s="6"/>
+    </row>
+    <row r="935" spans="1:9">
+      <c r="A935" s="6"/>
+      <c r="B935" s="6"/>
+      <c r="C935" s="6"/>
+      <c r="D935" s="6"/>
+      <c r="E935" s="6"/>
+      <c r="F935" s="6"/>
+      <c r="G935" s="6"/>
+      <c r="H935" s="6"/>
+      <c r="I935" s="6"/>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936" s="6"/>
+      <c r="B936" s="6"/>
+      <c r="C936" s="6"/>
+      <c r="D936" s="6"/>
+      <c r="E936" s="6"/>
+      <c r="F936" s="6"/>
+      <c r="G936" s="6"/>
+      <c r="H936" s="6"/>
+      <c r="I936" s="6"/>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937" s="6"/>
+      <c r="B937" s="6"/>
+      <c r="C937" s="6"/>
+      <c r="D937" s="6"/>
+      <c r="E937" s="6"/>
+      <c r="F937" s="6"/>
+      <c r="G937" s="6"/>
+      <c r="H937" s="6"/>
+      <c r="I937" s="6"/>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938" s="6"/>
+      <c r="B938" s="6"/>
+      <c r="C938" s="6"/>
+      <c r="D938" s="6"/>
+      <c r="E938" s="6"/>
+      <c r="F938" s="6"/>
+      <c r="G938" s="6"/>
+      <c r="H938" s="6"/>
+      <c r="I938" s="6"/>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939" s="6"/>
+      <c r="B939" s="6"/>
+      <c r="C939" s="6"/>
+      <c r="D939" s="6"/>
+      <c r="E939" s="6"/>
+      <c r="F939" s="6"/>
+      <c r="G939" s="6"/>
+      <c r="H939" s="6"/>
+      <c r="I939" s="6"/>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940" s="6"/>
+      <c r="B940" s="6"/>
+      <c r="C940" s="6"/>
+      <c r="D940" s="6"/>
+      <c r="E940" s="6"/>
+      <c r="F940" s="6"/>
+      <c r="G940" s="6"/>
+      <c r="H940" s="6"/>
+      <c r="I940" s="6"/>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941" s="6"/>
+      <c r="B941" s="6"/>
+      <c r="C941" s="6"/>
+      <c r="D941" s="6"/>
+      <c r="E941" s="6"/>
+      <c r="F941" s="6"/>
+      <c r="G941" s="6"/>
+      <c r="H941" s="6"/>
+      <c r="I941" s="6"/>
+    </row>
+    <row r="942" spans="1:9">
+      <c r="A942" s="6"/>
+      <c r="B942" s="6"/>
+      <c r="C942" s="6"/>
+      <c r="D942" s="6"/>
+      <c r="E942" s="6"/>
+      <c r="F942" s="6"/>
+      <c r="G942" s="6"/>
+      <c r="H942" s="6"/>
+      <c r="I942" s="6"/>
+    </row>
+    <row r="943" spans="1:9">
+      <c r="A943" s="6"/>
+      <c r="B943" s="6"/>
+      <c r="C943" s="6"/>
+      <c r="D943" s="6"/>
+      <c r="E943" s="6"/>
+      <c r="F943" s="6"/>
+      <c r="G943" s="6"/>
+      <c r="H943" s="6"/>
+      <c r="I943" s="6"/>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944" s="6"/>
+      <c r="B944" s="6"/>
+      <c r="C944" s="6"/>
+      <c r="D944" s="6"/>
+      <c r="E944" s="6"/>
+      <c r="F944" s="6"/>
+      <c r="G944" s="6"/>
+      <c r="H944" s="6"/>
+      <c r="I944" s="6"/>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945" s="6"/>
+      <c r="B945" s="6"/>
+      <c r="C945" s="6"/>
+      <c r="D945" s="6"/>
+      <c r="E945" s="6"/>
+      <c r="F945" s="6"/>
+      <c r="G945" s="6"/>
+      <c r="H945" s="6"/>
+      <c r="I945" s="6"/>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946" s="6"/>
+      <c r="B946" s="6"/>
+      <c r="C946" s="6"/>
+      <c r="D946" s="6"/>
+      <c r="E946" s="6"/>
+      <c r="F946" s="6"/>
+      <c r="G946" s="6"/>
+      <c r="H946" s="6"/>
+      <c r="I946" s="6"/>
+    </row>
+    <row r="947" spans="1:9">
+      <c r="A947" s="6"/>
+      <c r="B947" s="6"/>
+      <c r="C947" s="6"/>
+      <c r="D947" s="6"/>
+      <c r="E947" s="6"/>
+      <c r="F947" s="6"/>
+      <c r="G947" s="6"/>
+      <c r="H947" s="6"/>
+      <c r="I947" s="6"/>
+    </row>
+    <row r="948" spans="1:9">
+      <c r="A948" s="6"/>
+      <c r="B948" s="6"/>
+      <c r="C948" s="6"/>
+      <c r="D948" s="6"/>
+      <c r="E948" s="6"/>
+      <c r="F948" s="6"/>
+      <c r="G948" s="6"/>
+      <c r="H948" s="6"/>
+      <c r="I948" s="6"/>
+    </row>
+    <row r="949" spans="1:9">
+      <c r="A949" s="6"/>
+      <c r="B949" s="6"/>
+      <c r="C949" s="6"/>
+      <c r="D949" s="6"/>
+      <c r="E949" s="6"/>
+      <c r="F949" s="6"/>
+      <c r="G949" s="6"/>
+      <c r="H949" s="6"/>
+      <c r="I949" s="6"/>
+    </row>
+    <row r="950" spans="1:9">
+      <c r="A950" s="6"/>
+      <c r="B950" s="6"/>
+      <c r="C950" s="6"/>
+      <c r="D950" s="6"/>
+      <c r="E950" s="6"/>
+      <c r="F950" s="6"/>
+      <c r="G950" s="6"/>
+      <c r="H950" s="6"/>
+      <c r="I950" s="6"/>
+    </row>
+    <row r="951" spans="1:9">
+      <c r="A951" s="6"/>
+      <c r="B951" s="6"/>
+      <c r="C951" s="6"/>
+      <c r="D951" s="6"/>
+      <c r="E951" s="6"/>
+      <c r="F951" s="6"/>
+      <c r="G951" s="6"/>
+      <c r="H951" s="6"/>
+      <c r="I951" s="6"/>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="A952" s="6"/>
+      <c r="B952" s="6"/>
+      <c r="C952" s="6"/>
+      <c r="D952" s="6"/>
+      <c r="E952" s="6"/>
+      <c r="F952" s="6"/>
+      <c r="G952" s="6"/>
+      <c r="H952" s="6"/>
+      <c r="I952" s="6"/>
+    </row>
+    <row r="953" spans="1:9">
+      <c r="A953" s="6"/>
+      <c r="B953" s="6"/>
+      <c r="C953" s="6"/>
+      <c r="D953" s="6"/>
+      <c r="E953" s="6"/>
+      <c r="F953" s="6"/>
+      <c r="G953" s="6"/>
+      <c r="H953" s="6"/>
+      <c r="I953" s="6"/>
+    </row>
+    <row r="954" spans="1:9">
+      <c r="A954" s="6"/>
+      <c r="B954" s="6"/>
+      <c r="C954" s="6"/>
+      <c r="D954" s="6"/>
+      <c r="E954" s="6"/>
+      <c r="F954" s="6"/>
+      <c r="G954" s="6"/>
+      <c r="H954" s="6"/>
+      <c r="I954" s="6"/>
+    </row>
+    <row r="955" spans="1:9">
+      <c r="A955" s="6"/>
+      <c r="B955" s="6"/>
+      <c r="C955" s="6"/>
+      <c r="D955" s="6"/>
+      <c r="E955" s="6"/>
+      <c r="F955" s="6"/>
+      <c r="G955" s="6"/>
+      <c r="H955" s="6"/>
+      <c r="I955" s="6"/>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956" s="6"/>
+      <c r="B956" s="6"/>
+      <c r="C956" s="6"/>
+      <c r="D956" s="6"/>
+      <c r="E956" s="6"/>
+      <c r="F956" s="6"/>
+      <c r="G956" s="6"/>
+      <c r="H956" s="6"/>
+      <c r="I956" s="6"/>
+    </row>
+    <row r="957" spans="1:9">
+      <c r="A957" s="6"/>
+      <c r="B957" s="6"/>
+      <c r="C957" s="6"/>
+      <c r="D957" s="6"/>
+      <c r="E957" s="6"/>
+      <c r="F957" s="6"/>
+      <c r="G957" s="6"/>
+      <c r="H957" s="6"/>
+      <c r="I957" s="6"/>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958" s="6"/>
+      <c r="B958" s="6"/>
+      <c r="C958" s="6"/>
+      <c r="D958" s="6"/>
+      <c r="E958" s="6"/>
+      <c r="F958" s="6"/>
+      <c r="G958" s="6"/>
+      <c r="H958" s="6"/>
+      <c r="I958" s="6"/>
+    </row>
+    <row r="959" spans="1:9">
+      <c r="A959" s="6"/>
+      <c r="B959" s="6"/>
+      <c r="C959" s="6"/>
+      <c r="D959" s="6"/>
+      <c r="E959" s="6"/>
+      <c r="F959" s="6"/>
+      <c r="G959" s="6"/>
+      <c r="H959" s="6"/>
+      <c r="I959" s="6"/>
+    </row>
+    <row r="960" spans="1:9">
+      <c r="A960" s="6"/>
+      <c r="B960" s="6"/>
+      <c r="C960" s="6"/>
+      <c r="D960" s="6"/>
+      <c r="E960" s="6"/>
+      <c r="F960" s="6"/>
+      <c r="G960" s="6"/>
+      <c r="H960" s="6"/>
+      <c r="I960" s="6"/>
+    </row>
+    <row r="961" spans="1:9">
+      <c r="A961" s="6"/>
+      <c r="B961" s="6"/>
+      <c r="C961" s="6"/>
+      <c r="D961" s="6"/>
+      <c r="E961" s="6"/>
+      <c r="F961" s="6"/>
+      <c r="G961" s="6"/>
+      <c r="H961" s="6"/>
+      <c r="I961" s="6"/>
+    </row>
+    <row r="962" spans="1:9">
+      <c r="A962" s="6"/>
+      <c r="B962" s="6"/>
+      <c r="C962" s="6"/>
+      <c r="D962" s="6"/>
+      <c r="E962" s="6"/>
+      <c r="F962" s="6"/>
+      <c r="G962" s="6"/>
+      <c r="H962" s="6"/>
+      <c r="I962" s="6"/>
+    </row>
+    <row r="963" spans="1:9">
+      <c r="A963" s="6"/>
+      <c r="B963" s="6"/>
+      <c r="C963" s="6"/>
+      <c r="D963" s="6"/>
+      <c r="E963" s="6"/>
+      <c r="F963" s="6"/>
+      <c r="G963" s="6"/>
+      <c r="H963" s="6"/>
+      <c r="I963" s="6"/>
+    </row>
+    <row r="964" spans="1:9">
+      <c r="A964" s="6"/>
+      <c r="B964" s="6"/>
+      <c r="C964" s="6"/>
+      <c r="D964" s="6"/>
+      <c r="E964" s="6"/>
+      <c r="F964" s="6"/>
+      <c r="G964" s="6"/>
+      <c r="H964" s="6"/>
+      <c r="I964" s="6"/>
+    </row>
+    <row r="965" spans="1:9">
+      <c r="A965" s="6"/>
+      <c r="B965" s="6"/>
+      <c r="C965" s="6"/>
+      <c r="D965" s="6"/>
+      <c r="E965" s="6"/>
+      <c r="F965" s="6"/>
+      <c r="G965" s="6"/>
+      <c r="H965" s="6"/>
+      <c r="I965" s="6"/>
+    </row>
+    <row r="966" spans="1:9">
+      <c r="A966" s="6"/>
+      <c r="B966" s="6"/>
+      <c r="C966" s="6"/>
+      <c r="D966" s="6"/>
+      <c r="E966" s="6"/>
+      <c r="F966" s="6"/>
+      <c r="G966" s="6"/>
+      <c r="H966" s="6"/>
+      <c r="I966" s="6"/>
+    </row>
+    <row r="967" spans="1:9">
+      <c r="A967" s="6"/>
+      <c r="B967" s="6"/>
+      <c r="C967" s="6"/>
+      <c r="D967" s="6"/>
+      <c r="E967" s="6"/>
+      <c r="F967" s="6"/>
+      <c r="G967" s="6"/>
+      <c r="H967" s="6"/>
+      <c r="I967" s="6"/>
+    </row>
+    <row r="968" spans="1:9">
+      <c r="A968" s="6"/>
+      <c r="B968" s="6"/>
+      <c r="C968" s="6"/>
+      <c r="D968" s="6"/>
+      <c r="E968" s="6"/>
+      <c r="F968" s="6"/>
+      <c r="G968" s="6"/>
+      <c r="H968" s="6"/>
+      <c r="I968" s="6"/>
+    </row>
+    <row r="969" spans="1:9">
+      <c r="A969" s="6"/>
+      <c r="B969" s="6"/>
+      <c r="C969" s="6"/>
+      <c r="D969" s="6"/>
+      <c r="E969" s="6"/>
+      <c r="F969" s="6"/>
+      <c r="G969" s="6"/>
+      <c r="H969" s="6"/>
+      <c r="I969" s="6"/>
+    </row>
+    <row r="970" spans="1:9">
+      <c r="A970" s="6"/>
+      <c r="B970" s="6"/>
+      <c r="C970" s="6"/>
+      <c r="D970" s="6"/>
+      <c r="E970" s="6"/>
+      <c r="F970" s="6"/>
+      <c r="G970" s="6"/>
+      <c r="H970" s="6"/>
+      <c r="I970" s="6"/>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="A971" s="6"/>
+      <c r="B971" s="6"/>
+      <c r="C971" s="6"/>
+      <c r="D971" s="6"/>
+      <c r="E971" s="6"/>
+      <c r="F971" s="6"/>
+      <c r="G971" s="6"/>
+      <c r="H971" s="6"/>
+      <c r="I971" s="6"/>
+    </row>
+    <row r="972" spans="1:9">
+      <c r="A972" s="6"/>
+      <c r="B972" s="6"/>
+      <c r="C972" s="6"/>
+      <c r="D972" s="6"/>
+      <c r="E972" s="6"/>
+      <c r="F972" s="6"/>
+      <c r="G972" s="6"/>
+      <c r="H972" s="6"/>
+      <c r="I972" s="6"/>
+    </row>
+    <row r="973" spans="1:9">
+      <c r="A973" s="6"/>
+      <c r="B973" s="6"/>
+      <c r="C973" s="6"/>
+      <c r="D973" s="6"/>
+      <c r="E973" s="6"/>
+      <c r="F973" s="6"/>
+      <c r="G973" s="6"/>
+      <c r="H973" s="6"/>
+      <c r="I973" s="6"/>
+    </row>
+    <row r="974" spans="1:9">
+      <c r="A974" s="6"/>
+      <c r="B974" s="6"/>
+      <c r="C974" s="6"/>
+      <c r="D974" s="6"/>
+      <c r="E974" s="6"/>
+      <c r="F974" s="6"/>
+      <c r="G974" s="6"/>
+      <c r="H974" s="6"/>
+      <c r="I974" s="6"/>
+    </row>
+    <row r="975" spans="1:9">
+      <c r="A975" s="6"/>
+      <c r="B975" s="6"/>
+      <c r="C975" s="6"/>
+      <c r="D975" s="6"/>
+      <c r="E975" s="6"/>
+      <c r="F975" s="6"/>
+      <c r="G975" s="6"/>
+      <c r="H975" s="6"/>
+      <c r="I975" s="6"/>
+    </row>
+    <row r="976" spans="1:9">
+      <c r="A976" s="6"/>
+      <c r="B976" s="6"/>
+      <c r="C976" s="6"/>
+      <c r="D976" s="6"/>
+      <c r="E976" s="6"/>
+      <c r="F976" s="6"/>
+      <c r="G976" s="6"/>
+      <c r="H976" s="6"/>
+      <c r="I976" s="6"/>
+    </row>
+    <row r="977" spans="1:9">
+      <c r="A977" s="6"/>
+      <c r="B977" s="6"/>
+      <c r="C977" s="6"/>
+      <c r="D977" s="6"/>
+      <c r="E977" s="6"/>
+      <c r="F977" s="6"/>
+      <c r="G977" s="6"/>
+      <c r="H977" s="6"/>
+      <c r="I977" s="6"/>
+    </row>
+    <row r="978" spans="1:9">
+      <c r="A978" s="6"/>
+      <c r="B978" s="6"/>
+      <c r="C978" s="6"/>
+      <c r="D978" s="6"/>
+      <c r="E978" s="6"/>
+      <c r="F978" s="6"/>
+      <c r="G978" s="6"/>
+      <c r="H978" s="6"/>
+      <c r="I978" s="6"/>
+    </row>
+    <row r="979" spans="1:9">
+      <c r="A979" s="6"/>
+      <c r="B979" s="6"/>
+      <c r="C979" s="6"/>
+      <c r="D979" s="6"/>
+      <c r="E979" s="6"/>
+      <c r="F979" s="6"/>
+      <c r="G979" s="6"/>
+      <c r="H979" s="6"/>
+      <c r="I979" s="6"/>
+    </row>
+    <row r="980" spans="1:9">
+      <c r="A980" s="6"/>
+      <c r="B980" s="6"/>
+      <c r="C980" s="6"/>
+      <c r="D980" s="6"/>
+      <c r="E980" s="6"/>
+      <c r="F980" s="6"/>
+      <c r="G980" s="6"/>
+      <c r="H980" s="6"/>
+      <c r="I980" s="6"/>
+    </row>
+    <row r="981" spans="1:9">
+      <c r="A981" s="6"/>
+      <c r="B981" s="6"/>
+      <c r="C981" s="6"/>
+      <c r="D981" s="6"/>
+      <c r="E981" s="6"/>
+      <c r="F981" s="6"/>
+      <c r="G981" s="6"/>
+      <c r="H981" s="6"/>
+      <c r="I981" s="6"/>
+    </row>
+    <row r="982" spans="1:9">
+      <c r="A982" s="6"/>
+      <c r="B982" s="6"/>
+      <c r="C982" s="6"/>
+      <c r="D982" s="6"/>
+      <c r="E982" s="6"/>
+      <c r="F982" s="6"/>
+      <c r="G982" s="6"/>
+      <c r="H982" s="6"/>
+      <c r="I982" s="6"/>
+    </row>
+    <row r="983" spans="1:9">
+      <c r="A983" s="6"/>
+      <c r="B983" s="6"/>
+      <c r="C983" s="6"/>
+      <c r="D983" s="6"/>
+      <c r="E983" s="6"/>
+      <c r="F983" s="6"/>
+      <c r="G983" s="6"/>
+      <c r="H983" s="6"/>
+      <c r="I983" s="6"/>
+    </row>
+    <row r="984" spans="1:9">
+      <c r="A984" s="6"/>
+      <c r="B984" s="6"/>
+      <c r="C984" s="6"/>
+      <c r="D984" s="6"/>
+      <c r="E984" s="6"/>
+      <c r="F984" s="6"/>
+      <c r="G984" s="6"/>
+      <c r="H984" s="6"/>
+      <c r="I984" s="6"/>
+    </row>
+    <row r="985" spans="1:9">
+      <c r="A985" s="6"/>
+      <c r="B985" s="6"/>
+      <c r="C985" s="6"/>
+      <c r="D985" s="6"/>
+      <c r="E985" s="6"/>
+      <c r="F985" s="6"/>
+      <c r="G985" s="6"/>
+      <c r="H985" s="6"/>
+      <c r="I985" s="6"/>
+    </row>
+    <row r="986" spans="1:9">
+      <c r="A986" s="6"/>
+      <c r="B986" s="6"/>
+      <c r="C986" s="6"/>
+      <c r="D986" s="6"/>
+      <c r="E986" s="6"/>
+      <c r="F986" s="6"/>
+      <c r="G986" s="6"/>
+      <c r="H986" s="6"/>
+      <c r="I986" s="6"/>
+    </row>
+    <row r="987" spans="1:9">
+      <c r="A987" s="6"/>
+      <c r="B987" s="6"/>
+      <c r="C987" s="6"/>
+      <c r="D987" s="6"/>
+      <c r="E987" s="6"/>
+      <c r="F987" s="6"/>
+      <c r="G987" s="6"/>
+      <c r="H987" s="6"/>
+      <c r="I987" s="6"/>
+    </row>
+    <row r="988" spans="1:9">
+      <c r="A988" s="6"/>
+      <c r="B988" s="6"/>
+      <c r="C988" s="6"/>
+      <c r="D988" s="6"/>
+      <c r="E988" s="6"/>
+      <c r="F988" s="6"/>
+      <c r="G988" s="6"/>
+      <c r="H988" s="6"/>
+      <c r="I988" s="6"/>
+    </row>
+    <row r="989" spans="1:9">
+      <c r="A989" s="6"/>
+      <c r="B989" s="6"/>
+      <c r="C989" s="6"/>
+      <c r="D989" s="6"/>
+      <c r="E989" s="6"/>
+      <c r="F989" s="6"/>
+      <c r="G989" s="6"/>
+      <c r="H989" s="6"/>
+      <c r="I989" s="6"/>
+    </row>
+    <row r="990" spans="1:9">
+      <c r="A990" s="6"/>
+      <c r="B990" s="6"/>
+      <c r="C990" s="6"/>
+      <c r="D990" s="6"/>
+      <c r="E990" s="6"/>
+      <c r="F990" s="6"/>
+      <c r="G990" s="6"/>
+      <c r="H990" s="6"/>
+      <c r="I990" s="6"/>
+    </row>
+    <row r="991" spans="1:9">
+      <c r="A991" s="6"/>
+      <c r="B991" s="6"/>
+      <c r="C991" s="6"/>
+      <c r="D991" s="6"/>
+      <c r="E991" s="6"/>
+      <c r="F991" s="6"/>
+      <c r="G991" s="6"/>
+      <c r="H991" s="6"/>
+      <c r="I991" s="6"/>
+    </row>
+    <row r="992" spans="1:9">
+      <c r="A992" s="6"/>
+      <c r="B992" s="6"/>
+      <c r="C992" s="6"/>
+      <c r="D992" s="6"/>
+      <c r="E992" s="6"/>
+      <c r="F992" s="6"/>
+      <c r="G992" s="6"/>
+      <c r="H992" s="6"/>
+      <c r="I992" s="6"/>
+    </row>
+    <row r="993" spans="1:9">
+      <c r="A993" s="6"/>
+      <c r="B993" s="6"/>
+      <c r="C993" s="6"/>
+      <c r="D993" s="6"/>
+      <c r="E993" s="6"/>
+      <c r="F993" s="6"/>
+      <c r="G993" s="6"/>
+      <c r="H993" s="6"/>
+      <c r="I993" s="6"/>
+    </row>
+    <row r="994" spans="1:9">
+      <c r="A994" s="6"/>
+      <c r="B994" s="6"/>
+      <c r="C994" s="6"/>
+      <c r="D994" s="6"/>
+      <c r="E994" s="6"/>
+      <c r="F994" s="6"/>
+      <c r="G994" s="6"/>
+      <c r="H994" s="6"/>
+      <c r="I994" s="6"/>
+    </row>
+    <row r="995" spans="1:9">
+      <c r="A995" s="6"/>
+      <c r="B995" s="6"/>
+      <c r="C995" s="6"/>
+      <c r="D995" s="6"/>
+      <c r="E995" s="6"/>
+      <c r="F995" s="6"/>
+      <c r="G995" s="6"/>
+      <c r="H995" s="6"/>
+      <c r="I995" s="6"/>
+    </row>
+    <row r="996" spans="1:9">
+      <c r="A996" s="6"/>
+      <c r="B996" s="6"/>
+      <c r="C996" s="6"/>
+      <c r="D996" s="6"/>
+      <c r="E996" s="6"/>
+      <c r="F996" s="6"/>
+      <c r="G996" s="6"/>
+      <c r="H996" s="6"/>
+      <c r="I996" s="6"/>
+    </row>
+    <row r="997" spans="1:9">
+      <c r="A997" s="6"/>
+      <c r="B997" s="6"/>
+      <c r="C997" s="6"/>
+      <c r="D997" s="6"/>
+      <c r="E997" s="6"/>
+      <c r="F997" s="6"/>
+      <c r="G997" s="6"/>
+      <c r="H997" s="6"/>
+      <c r="I997" s="6"/>
+    </row>
+    <row r="998" spans="1:9">
+      <c r="A998" s="6"/>
+      <c r="B998" s="6"/>
+      <c r="C998" s="6"/>
+      <c r="D998" s="6"/>
+      <c r="E998" s="6"/>
+      <c r="F998" s="6"/>
+      <c r="G998" s="6"/>
+      <c r="H998" s="6"/>
+      <c r="I998" s="6"/>
+    </row>
+    <row r="999" spans="1:9">
+      <c r="A999" s="6"/>
+      <c r="B999" s="6"/>
+      <c r="C999" s="6"/>
+      <c r="D999" s="6"/>
+      <c r="E999" s="6"/>
+      <c r="F999" s="6"/>
+      <c r="G999" s="6"/>
+      <c r="H999" s="6"/>
+      <c r="I999" s="6"/>
+    </row>
+    <row r="1000" spans="1:9">
+      <c r="A1000" s="6"/>
+      <c r="B1000" s="6"/>
+      <c r="C1000" s="6"/>
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="6"/>
+      <c r="F1000" s="6"/>
+      <c r="G1000" s="6"/>
+      <c r="H1000" s="6"/>
+      <c r="I1000" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I493">
     <extLst/>
@@ -7748,7 +12148,7 @@
   <sheetPr/>
   <dimension ref="A1:I1757"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1728" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -27125,8 +31525,8 @@
   <sheetPr/>
   <dimension ref="A1:I1757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
